--- a/xlsx/builtin/日本漫画家.xlsx
+++ b/xlsx/builtin/日本漫画家.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tencent Files\287628769\FileRecv\改错字第6版 (1)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="DLC" sheetId="1" r:id="rId4"/>
-    <sheet name="Question" sheetId="2" r:id="rId5"/>
+    <sheet name="DLC" sheetId="1" r:id="rId1"/>
+    <sheet name="Question" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="565">
   <si>
     <t>id</t>
   </si>
@@ -62,9 +70,6 @@
     <t>日本漫画家</t>
   </si>
   <si>
-    <t>/9j/4RCsRXhpZgAATU0AKgAAAAgABwESAAMAAAABAAEAAAEaAAUAAAABAAAAYgEbAAUAAAABAAAAagEoAAMAAAABAAIAAAExAAIAAAAdAAAAcgEyAAIAAAAUAAAAj4dpAAQAAAABAAAApAAAANAACvyAAAAnEAAK/IAAACcQQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKQAyMDE3OjEyOjI2IDIwOjUyOjExAAAAA6ABAAMAAAABAAEAAKACAAQAAAABAAABuKADAAQAAAABAAAA8AAAAAAAAAAGAQMAAwAAAAEABgAAARoABQAAAAEAAAEeARsABQAAAAEAAAEmASgAAwAAAAEAAgAAAgEABAAAAAEAAAEuAgIABAAAAAEAAA92AAAAAAAAAEgAAAABAAAASAAAAAH/2P/tAAxBZG9iZV9DTQAB/+4ADkFkb2JlAGSAAAAAAf/bAIQADAgICAkIDAkJDBELCgsRFQ8MDA8VGBMTFRMTGBEMDAwMDAwRDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAENCwsNDg0QDg4QFA4ODhQUDg4ODhQRDAwMDAwREQwMDAwMDBEMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwM/8AAEQgAVwCgAwEiAAIRAQMRAf/dAAQACv/EAT8AAAEFAQEBAQEBAAAAAAAAAAMAAQIEBQYHCAkKCwEAAQUBAQEBAQEAAAAAAAAAAQACAwQFBgcICQoLEAABBAEDAgQCBQcGCAUDDDMBAAIRAwQhEjEFQVFhEyJxgTIGFJGhsUIjJBVSwWIzNHKC0UMHJZJT8OHxY3M1FqKygyZEk1RkRcKjdDYX0lXiZfKzhMPTdePzRieUpIW0lcTU5PSltcXV5fVWZnaGlqa2xtbm9jdHV2d3h5ent8fX5/cRAAICAQIEBAMEBQYHBwYFNQEAAhEDITESBEFRYXEiEwUygZEUobFCI8FS0fAzJGLhcoKSQ1MVY3M08SUGFqKygwcmNcLSRJNUoxdkRVU2dGXi8rOEw9N14/NGlKSFtJXE1OT0pbXF1eX1VmZ2hpamtsbW5vYnN0dXZ3eHl6e3x//aAAwDAQACEQMRAD8A65JJJajiqSSSSUpJJJJSl5v9bsl2R9Y8wEktxyzHrHgK2N3R/Wufa9eksG5waeCQCvJs/Ldm5+VmOAByLn2QOAC47B/mBqbLo2eTHqkewr7UCSSSa3VJJJJKUkkkkpSSSSSk+BnZPTsyrNxT+mpdIaeHt4sps/4O5nsXpj+rYbekO6yw7sUUHIaDoSI9tLv+E9X9X/4xeWLZyOoOr+qOD0sO1yL7r7BOoprtf6LT/Jtyt9jf+ISumHNiEzDzo/3Pmb31X+sPWMnr1VGbkuvqzRYH1O+gx4Y+6s47f8DtdX6ft/wa7hedfU30B9Y8Y3P2u2WjHEE7rXMLGs/k/onXPXoqdHq1uaAExQr0jZ//0OuSSSWo4qkklC66rHpsyLjtppY620+DGAvf/wBFqSmTnsYWh72sLztYHOALifzWNcfe72/mp3/o2Gyw+nW0Fznu0Aa0bnOP9Vq8oyOpZeX1P9r2kDM9Rt1RgO9MsO+iqsP3N9Oja32rq/2VXR9UMvqmPZbZnZ/Ti/LsNjnC0vLb7bHsfu/SUV+rT7f8H6iZxHs2J8sI8Ny+YiO36TYwuvfWXq1jsro2FjM6dW8trszHOa+3addrmOGx3/WvTp/m/VssXD5FFuNkXY17DVdS9zLKyQS1wP0Nzfa/+v8Anr07oP2f9h9P+zR6P2avbHjH6af5fr+r6n8tZf1k+qTurZDc3BsZVmOAZcy2QywN9tdnqMD3V3MZ+j+h+kr/AKiVGr3X4s0IzlHhEI7X19P7zwSSd7Q17mBzbA1xaHsna6Dt3s3Brtj/AMxMg21JJJJKUkkkkpSSSSSlJk6SSnZ+p1DrvrJiuA0x223vPgGsdU3/AMFurXoy5b6gYtbcDKzS39Ldd6Af/wAHU1j9rf8Ar1vvXUp0XP5qV5CP3Rwv/9HrkkklqOKpcd9fOp5dd9HTKbDXj2UG3Ia3Q2b3PqbXb/wTWVfzf/CLsV559dbvU+sdze1FVNQ/zfWd/wBK9Nkz8rG8nkCXN6VitzOq4WI8FzMi+tlgEglhdN2rf+Ca9dNjdRzPqiXdN6tQ7K6SXuOJmVgGGvJL6bGPLa/zv0mPY+uyt/q+l69Fi5BrnMcHsc5jm8OaS1w/qvbDmrrMX69ijpDKLKLMjqNdbai+0g1Wke31r3g+r9H6dezfb/pfz01tZoyNAR44nePy6/viTVxusYXS7X/83Oq0/YbSbD0zPpvPpuPPoW0V2O2/9c/4z1/5xNlfXrq2RjvoZj4+ObWljrW+o5wDhtd6e9+1j/5X6RUcgdZ6jh/tHOfXj9PDiK7HNbTU5+o9LDxsZnrZNv02/Qs/P9XI/nFlJBIxQOpHFIdTr/3qgAAANANAnSSSZFJJJJKUkkkkpSSSSSlKVdVt1rKaGG261wZVW3lzj9FoUPw811X1d679Uem1iy+l2Dnlu197g/IDh+d6FvvdQx/59XpV/wDGWpLZyMRYiZHsHXs6RmdH6K2zp+dazI6bQ611Htdi3Pbuycv1aNgsd9o/SNZb62+r9F6a28a9mVi0ZTAWsyKmXNaeQLGttDT/AFdy5zO6jkfWen9ndBGRVi2kjM6lY30qfSILbKGte112Q6zd/NVej/22tT6vZ12XgvpyWMryunXOwchtf82XUBrGWVfyH17UY1emzRyRlwXKuO9f3oiX7z//0uuSTO0a4jkNJHyCr9Oys1/1V6RnV42NmZeVU12RZlONckt3b91VN257nfyVozycJAoyMuzk48XGJHiERGrJ/rNmFwn116Rl1dSt6oytz8PIbWbLRxXYA3H2W/u+ptr9J/8A1tdT1HrfVenYF+fd0nprqsZhe9rL3lxA/d3YjVb+ulOCzHqw7sez7FmObXkvxWFz6RJtZltqqrtfZ6Vtdf8Ag0w5daMTHS2fFDgPHGcZixCVf1nyYkASSAByTokCCJBkHghegfV/6ufVSnrPT768zOyHWOeMarMw7K6LiardzfVuw6aXbKvUuZ+k/wAGq3WehfUs5udm5HU87GqGS+u41Ydhx67Q703Y7L2YVlPtf7P5xM9+N1r5tyniC8S2su1Euawnifpuaz+Vt96h69H+kZ/nBdHh29LH1X+smBkvtqwzkB/S+qHGseHFu11dLr66tmLbb9mx99Vr6P6Wu+6saG5YGFSx1WwbjTXgubvl24F2blY12/bs/wAH6aBzgEjhOieF8gbZW4w17XHwBBKW9n7w+8Lvfr9ZjN+pMkV1Zz8lsANx2XbWl7vo4FuRX/N/u2/Q/nFfOJmjqn7Md03oDXjEGa652O8MDN/olrpH9vel74oGt/FXC+Z72fvD7wnBB4M/BemZ2FmYWBlZ7sD6vXMxMc5b666HFzq4e9jm/S9t3pWelZ9BZOdhYmL9d6MPrWH0z0bOml4pYfsuLuFtm24+q1/6ztZbX/5wkM410OiuF4lxDRLiGjxOgTwV6fTgdO6YyrqLej9Bxq727ach+e4MeHD1P0T7Omem/c1m72IFXT/qtZbvv6Z0CLSdrquoCwl5P7r8Khuz+p/20l94j2KuF83STNJIl0TrMaCZ/N/k/up1MtUrvSepZXT8ndTluw2P0sd6frVmPo/aMU/zlX7z6v1iv/Aqkmc7Y0vjdt12+Ma7dP3klEAij1fSGZP1uvx2Oqb0t29oNWYy659e0/Rtqx9jt/8Ano+Bh43Qek2+rc60V+pl5uU8Q6yw/pL7ds/nbdlVawOmZ+P9Xutu6Yctj+i5jfWpe54d9me8b/TueN3p/R9G7/Sb8fJ+n66F9ZfrZhdR6ff07BZaN9rGuueAGWVVu9RzqocbP0ltdX84z+aSB0vq0jimZCIH6uREjICvT4/96//T6130Hf1XfkKq9Gvz6fqX0I4VGNkOdQwPGW5zWgbP8H6dd3vVsiQR4gj7xCzenf8AOPp/TMXpjaum5FOFWKq7LTduIaNu9zdjmsc5qu54kygQDIC7rRzeXnGMZgyETLhriHEt1frPWcTpeVk5nSulX41NZddTvsdub+5ssxtjv7S2vrVk/ZMfIypj0MS2yf6ocVl23ddurdVdgdHsreIex4tc0j91zXVbXI2c7q+e3FvdfTi5mM/e4MY+3HeIew1W1ufRbbX+k3fTr96ZGEhPiECKB3Nsk8kDDhlOJuQ+WPD6VYOBl7PqjRU3cOmUttzhuALA/Etxa7C153P35HqM/Rqn1DpdrekfXHpj2FhfY7quMdwdubY1tzCNpds/XOm5Hsei5uP1S3qGB1iqyizqeFuZY53qU02VOZZX6Xp1Ovd7LLvXZ6nq/pErsXqdHUb+r9HyGUZeTWW5GLkNddj2ubvsp/wtVmPttts97H7P0n82mDDkGtfLRZRzWK9zqS8j9Ubci/of1hwHY1eX0tjK8+0uuNLq3hpta9m1rvW/oNd/85TX+h2Wfzq7p/U8V972Dp9ostsZtr3dLLmkFvqUtDs0vf8AaY2P377f0n6H015xV9ZOrYOP1XpxxMaq7qWS63qG9j2W7XndZ097J3Mxtnq0s97/AE6L7PQ/0qu0fX3qWJXUzB6V0vHFJ/RksteQPzWsfvrezamyxzMiRHclsAju7n+Me65n1Vy6z0y7EZkX1/pbvsjWsDdr201Nwb7r7d9lW73s/wAJd+l9Otbl1brPrZbW2pmQ5/QS0UWGGWE3OHpWGHfo7PoP9q82699Ycr6wMvOdg4TMq5rWtzKvWNrA0/Qq9ax1ddb2+yxrGfnv/PWrmfXt3UHVvz+gdMy31NDGPvmwho/Na6yl3t3JHFOh6VWHtfrBQ7G+qvVXW4dGE0dHbTurcDD2syW/YGe1n6DFdYz7N/pPtCxfrbRk5H1/qqxmdNtsPSQTX1dpfjloyLdzm7Pd9o/c/wCC9Zc5/wA6sD/51ujf9tj/ANIIPUvrRZ1XrberdS6ZiZbW432UYdjn+mIc61uQLNu/1d1lrfofzb/7aUcc9fSdlWHrs7r3U8TL6Lgh+Nmepk42Lm14eKTgY7LHih9VeZY+1zMna+uumv2fo/p01epUm+stmT0+r6xZ/TsPEqey2rCu6g0kZTWXU4O5tdbadmxn2mv/ALU/8Ls/RLmP+eWT9pxHfszEGB05oOF01rnMpqva4WDO9rP0uR9NrN7f0e/9+271CN+vOa6/qbszp2Jm43VbKrrMW1z9jTUyqhrfc2xtvtxqH/QZ+lSGOQIPDtVqsPNgAAACANAPIJ0ydW1ikkkklLAAcCPgnSaC+xtVYL7XaNrYC55P8mtm57lp0/Vj6wXWupGDZW9jBYfVitpB+ixlrz6Trnf6Lf8A8b6aSDIDcgeZf//U65JfPiS1HFfoNJfPiSSn6DSXz4kkp9v65jfV7L2UdYdTXcWzS99jarw3xpsJa91f8h3qUrjerdAw8SuzIwOq42ZTWNxpc9ovjwr9IvryHf8AbC4JJMlXRs8v71ir4L1v5f8ABekSXNpIN16RJc2kkp6RJc2kkp6RJc2kkp6RbX1XwukX33ZPWbaG4tLdldN9jWb7Ha79pex/pU1/+C2/8EuBSSWZuL25cHzfi+8dKPSPTc3o32YVj6f2TZ/03U+7/PVvt5L58SUgro5hu9bvxf/Z/+0YjFBob3Rvc2hvcCAzLjAAOEJJTQQlAAAAAAAQAAAAAAAAAAAAAAAAAAAAADhCSU0EOgAAAAAA1wAAABAAAAABAAAAAAALcHJpbnRPdXRwdXQAAAAFAAAAAFBzdFNib29sAQAAAABJbnRlZW51bQAAAABJbnRlAAAAAEltZyAAAAAPcHJpbnRTaXh0ZWVuQml0Ym9vbAAAAAALcHJpbnRlck5hbWVURVhUAAAAAQAAAAAAD3ByaW50UHJvb2ZTZXR1cE9iamMAAAAFaCFoN4u+f24AAAAAAApwcm9vZlNldHVwAAAAAQAAAABCbHRuZW51bQAAAAxidWlsdGluUHJvb2YAAAAJcHJvb2ZDTVlLADhCSU0EOwAAAAACLQAAABAAAAABAAAAAAAScHJpbnRPdXRwdXRPcHRpb25zAAAAFwAAAABDcHRuYm9vbAAAAAAAQ2xicmJvb2wAAAAAAFJnc01ib29sAAAAAABDcm5DYm9vbAAAAAAAQ250Q2Jvb2wAAAAAAExibHNib29sAAAAAABOZ3R2Ym9vbAAAAAAARW1sRGJvb2wAAAAAAEludHJib29sAAAAAABCY2tnT2JqYwAAAAEAAAAAAABSR0JDAAAAAwAAAABSZCAgZG91YkBv4AAAAAAAAAAAAEdybiBkb3ViQG/gAAAAAAAAAAAAQmwgIGRvdWJAb+AAAAAAAAAAAABCcmRUVW50RiNSbHQAAAAAAAAAAAAAAABCbGQgVW50RiNSbHQAAAAAAAAAAAAAAABSc2x0VW50RiNQeGxAUgAAAAAAAAAAAAp2ZWN0b3JEYXRhYm9vbAEAAAAAUGdQc2VudW0AAAAAUGdQcwAAAABQZ1BDAAAAAExlZnRVbnRGI1JsdAAAAAAAAAAAAAAAAFRvcCBVbnRGI1JsdAAAAAAAAAAAAAAAAFNjbCBVbnRGI1ByY0BZAAAAAAAAAAAAEGNyb3BXaGVuUHJpbnRpbmdib29sAAAAAA5jcm9wUmVjdEJvdHRvbWxvbmcAAAAAAAAADGNyb3BSZWN0TGVmdGxvbmcAAAAAAAAADWNyb3BSZWN0UmlnaHRsb25nAAAAAAAAAAtjcm9wUmVjdFRvcGxvbmcAAAAAADhCSU0D7QAAAAAAEABIAAAAAQACAEgAAAABAAI4QklNBCYAAAAAAA4AAAAAAAAAAAAAP4AAADhCSU0EDQAAAAAABAAAAHg4QklNBBkAAAAAAAQAAAAeOEJJTQPzAAAAAAAJAAAAAAAAAAABADhCSU0nEAAAAAAACgABAAAAAAAAAAI4QklNA/UAAAAAAEgAL2ZmAAEAbGZmAAYAAAAAAAEAL2ZmAAEAoZmaAAYAAAAAAAEAMgAAAAEAWgAAAAYAAAAAAAEANQAAAAEALQAAAAYAAAAAAAE4QklNA/gAAAAAAHAAAP////////////////////////////8D6AAAAAD/////////////////////////////A+gAAAAA/////////////////////////////wPoAAAAAP////////////////////////////8D6AAAOEJJTQQAAAAAAAACAAE4QklNBAIAAAAAAAQAAAAAOEJJTQQwAAAAAAACAQE4QklNBC0AAAAAAAYAAQAAAAQ4QklNBAgAAAAAABAAAAABAAACQAAAAkAAAAAAOEJJTQQeAAAAAAAEAAAAADhCSU0EGgAAAAADPwAAAAYAAAAAAAAAAAAAAPAAAAG4AAAABWcqaAeYmAAtADEAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAbgAAADwAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAEAAAAAAABudWxsAAAAAgAAAAZib3VuZHNPYmpjAAAAAQAAAAAAAFJjdDEAAAAEAAAAAFRvcCBsb25nAAAAAAAAAABMZWZ0bG9uZwAAAAAAAAAAQnRvbWxvbmcAAADwAAAAAFJnaHRsb25nAAABuAAAAAZzbGljZXNWbExzAAAAAU9iamMAAAABAAAAAAAFc2xpY2UAAAASAAAAB3NsaWNlSURsb25nAAAAAAAAAAdncm91cElEbG9uZwAAAAAAAAAGb3JpZ2luZW51bQAAAAxFU2xpY2VPcmlnaW4AAAANYXV0b0dlbmVyYXRlZAAAAABUeXBlZW51bQAAAApFU2xpY2VUeXBlAAAAAEltZyAAAAAGYm91bmRzT2JqYwAAAAEAAAAAAABSY3QxAAAABAAAAABUb3AgbG9uZwAAAAAAAAAATGVmdGxvbmcAAAAAAAAAAEJ0b21sb25nAAAA8AAAAABSZ2h0bG9uZwAAAbgAAAADdXJsVEVYVAAAAAEAAAAAAABudWxsVEVYVAAAAAEAAAAAAABNc2dlVEVYVAAAAAEAAAAAAAZhbHRUYWdURVhUAAAAAQAAAAAADmNlbGxUZXh0SXNIVE1MYm9vbAEAAAAIY2VsbFRleHRURVhUAAAAAQAAAAAACWhvcnpBbGlnbmVudW0AAAAPRVNsaWNlSG9yekFsaWduAAAAB2RlZmF1bHQAAAAJdmVydEFsaWduZW51bQAAAA9FU2xpY2VWZXJ0QWxpZ24AAAAHZGVmYXVsdAAAAAtiZ0NvbG9yVHlwZWVudW0AAAARRVNsaWNlQkdDb2xvclR5cGUAAAAATm9uZQAAAAl0b3BPdXRzZXRsb25nAAAAAAAAAApsZWZ0T3V0c2V0bG9uZwAAAAAAAAAMYm90dG9tT3V0c2V0bG9uZwAAAAAAAAALcmlnaHRPdXRzZXRsb25nAAAAAAA4QklNBCgAAAAAAAwAAAACP/AAAAAAAAA4QklNBBQAAAAAAAQAAAAEOEJJTQQMAAAAAA+SAAAAAQAAAKAAAABXAAAB4AAAoyAAAA92ABgAAf/Y/+0ADEFkb2JlX0NNAAH/7gAOQWRvYmUAZIAAAAAB/9sAhAAMCAgICQgMCQkMEQsKCxEVDwwMDxUYExMVExMYEQwMDAwMDBEMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMAQ0LCw0ODRAODhAUDg4OFBQODg4OFBEMDAwMDBERDAwMDAwMEQwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCABXAKADASIAAhEBAxEB/90ABAAK/8QBPwAAAQUBAQEBAQEAAAAAAAAAAwABAgQFBgcICQoLAQABBQEBAQEBAQAAAAAAAAABAAIDBAUGBwgJCgsQAAEEAQMCBAIFBwYIBQMMMwEAAhEDBCESMQVBUWETInGBMgYUkaGxQiMkFVLBYjM0coLRQwclklPw4fFjczUWorKDJkSTVGRFwqN0NhfSVeJl8rOEw9N14/NGJ5SkhbSVxNTk9KW1xdXl9VZmdoaWprbG1ub2N0dXZ3eHl6e3x9fn9xEAAgIBAgQEAwQFBgcHBgU1AQACEQMhMRIEQVFhcSITBTKBkRShsUIjwVLR8DMkYuFygpJDUxVjczTxJQYWorKDByY1wtJEk1SjF2RFVTZ0ZeLys4TD03Xj80aUpIW0lcTU5PSltcXV5fVWZnaGlqa2xtbm9ic3R1dnd4eXp7fH/9oADAMBAAIRAxEAPwDrkkklqOKpJJJJSkkkklKXm/1uyXZH1jzASS3HLMeseArY3dH9a59r16SwbnBp4JAK8mz8t2bn5WY4AHIufZA4ALjsH+YGpsujZ5MeqR7CvtQJJJJrdUkkkkpSSSSSlJJJJKT4Gdk9OzKs3FP6al0hp4e3iymz/g7mexemP6tht6Q7rLDuxRQchoOhIj20u/4T1f1f/jF5YtnI6g6v6o4PSw7XIvuvsE6imu1/otP8m3K32N/4hK6Yc2ITMPOj/c+ZvfVf6w9YyevVUZuS6+rNFgfU76DHhj7qzjt/wO11fp+3/BruF519TfQH1jxjc/a7ZaMcQTutcwsaz+T+idc9eip0erW5oATFCvSNn//Q65JJJajiqSSULrqsemzIuO2mljrbT4MYC9//AEWpKZOexhaHvawvO1gc4AuJ/NY1x97vb+anf+jYbLD6dbQXOe7QBrRuc4/1WryjI6ll5fU/2vaQMz1G3VGA70yw76Kqw/c306Nrfaur/ZVdH1Qy+qY9ltmdn9OL8uw2OcLS8tvtsex+79JRX6tPt/wfqJnEezYnywjw3L5iI7fpNjC699ZerWOyujYWMzp1by2uzMc5r7dp12uY4bHf9a9On+b9WyxcPkUW42RdjXsNV1L3MsrJBLXA/Q3N9r/6/wCevTug/Z/2H0/7NHo/Zq9seMfpp/l+v6vqfy1l/WT6pO6tkNzcGxlWY4BlzLZDLA3212eowPdXcxn6P6H6Sv8AqJUavdfizQjOUeEQjtfX0/vPBJJ3tDXuYHNsDXFoeydroO3ezcGu2P8AzEyDbUkkkkpSSSSSlJJJJKUmTpJKdn6nUOu+smK4DTHbbe8+Aax1Tf8AwW6tejLlvqBi1twMrNLf0t13oB//AAdTWP2t/wCvW+9dSnRc/mpXkI/dHC//0euSSSWo4qlx3186nl130dMpsNePZQbchrdDZvc+ptdv/BNZV/N/8IuxXnn11u9T6x3N7UVU1D/N9Z3/AEr02TPysbyeQJc3pWK3M6rhYjwXMyL62WASCWF03at/4Jr102N1HM+qJd03q1DsrpJe44mZWAYa8kvpsY8tr/O/SY9j67K3+r6Xr0WLkGucxwexzmObw5pLXD+q9sOausxfr2KOkMososyOo11tqL7SDVaR7fWveD6v0fp17N9v+l/PTW1mjI0BHjid4/Lr++JNXG6xhdLtf/zc6rT9htJsPTM+m8+m48+hbRXY7b/1z/jPX/nE2V9eurZGO+hmPj45taWOtb6jnAOG13p737WP/lfpFRyB1nqOH+0c59eP08OIrsc1tNTn6j0sPGxmetk2/Tb9Cz8/1cj+cWUkEjFA6kcUh1Ov/eqAAAA0A0CdJJJkUkkkkpSSSSSlJJJJKUpV1W3WspoYbbrXBlVbeXOP0WhQ/DzXVfV3rv1R6bWLL6XYOeW7X3uD8gOH53oW+91DH/n1elX/AMZaktnIxFiJkewdezpGZ0forbOn51rMjptDrXUe12Lc9u7Jy/Vo2Cx32j9I1lvrb6v0Xprbxr2ZWLRlMBazIqZc1p5Asa20NP8AV3LnM7qOR9Z6f2d0EZFWLaSMzqVjfSp9Igtsoa17XXZDrN381V6P/ba1Pq9nXZeC+nJYyvK6dc7ByG1/zZdQGsZZV/IfXtRjV6bNHJGXBcq471/eiJfvP//S65JM7RriOQ0kfIKv07KzX/VXpGdXjY2Zl5VTXZFmU41yS3dv3VU3bnud/JWjPJwkCjIy7OTjxcYkeIREasn+s2YXCfXXpGXV1K3qjK3Pw8htZstHFdgDcfZb+76m2v0n/wDW11PUet9V6dgX593SemuqxmF72sveXED93diNVv66U4LMerDux7PsWY5teS/FYXPpEm1mW2qqu19npW11/wCDTDl1oxMdLZ8UOA8cZxmLEJV/WfJiQBJIAHJOiQIIkGQeCF6B9X/q59VKes9PvrzM7IdY54xqszDsrouJqt3N9W7Dppdsq9S5n6T/AAardZ6F9Szm52bkdTzsaoZL67jVh2HHrtDvTdjsvZhWU+1/s/nEz343Wvm3KeILxLay7US5rCeJ+m5rP5W33qHr0f6Rn+cF0eHb0sfVf6yYGS+2rDOQH9L6ocax4cW7XV0uvrq2Yttv2bH31Wvo/pa77qxoblgYVLHVbBuNNeC5u+XbgXZuVjXb9uz/AAfpoHOASOE6J4XyBtlbjDXtcfAEEpb2fvD7wu9+v1mM36kyRXVnPyWwA3HZdtaXu+jgW5Ff83+7b9D+cV84maOqfsx3TegNeMQZrrnY7wwM3+iWukf296Xviga38VcL5nvZ+8PvCcEHgz8F6ZnYWZhYGVnuwPq9czExzlvrrocXOrh72Ob9L23elZ6Vn0Fk52FiYv13ow+tYfTPRs6aXilh+y4u4W2bbj6rX/rO1ltf/nCQzjXQ6K4XiXENEuIaPE6BPBXp9OB07pjKuot6P0HGrvbtpyH57gx4cPU/RPs6Z6b9zWbvYgVdP+q1lu+/pnQItJ2uq6gLCXk/uvwqG7P6n/bSX3iPYq4XzdJM0kiXROsxoJn83+T+6nUy1Su9J6lldPyd1OW7DY/Sx3p+tWY+j9oxT/OVfvPq/WK/8CqSZztjS+N23Xb4xrt0/eSUQCKPV9IZk/W6/HY6pvS3b2g1ZjLrn17T9G2rH2O3/wCej4GHjdB6Tb6tzrRX6mXm5TxDrLD+kvt2z+dt2VVrA6Zn4/1e627phy2P6LmN9al7nh32Z7xv9O543en9H0bv9Jvx8n6froX1l+tmF1Hp9/TsFlo32sa654AZZVW71HOqhxs/SW11fzjP5pIHS+rSOKZkIgfq5ESMgK9Pj/3r/9PrXfQd/Vd+Qqr0a/Pp+pfQjhUY2Q51DA8ZbnNaBs/wfp13e9WyJBHiCPvELN6d/wA4+n9MxemNq6bkU4VYqrstN24ho273N2Oaxzmq7niTKBAMgLutHN5ecYxmDIRMuGuIcS3V+s9ZxOl5WTmdK6VfjU1l11O+x25v7myzG2O/tLa+tWT9kx8jKmPQxLbJ/qhxWXbd126t1V2B0eyt4h7Hi1zSP3XNdVtcjZzur57cW919OLmYz97gxj7cd4h7DVbW59Fttf6Td9Ov3pkYSE+IQIoHc2yTyQMOGU4m5D5Y8PpVg4GXs+qNFTdw6ZS23OG4AsD8S3FrsLXnc/fkeoz9GqfUOl2t6R9cemPYWF9juq4x3B25tjW3MI2l2z9c6bkex6Lm4/VLeoYHWKrKLOp4W5ljnepTTZU5llfpenU693ssu9dnqer+kSuxep0dRv6v0fIZRl5NZbkYuQ112Pa5u+yn/C1WY+222z3sfs/SfzaYMOQa18tFlHNYr3OpLyP1RtyL+h/WHAdjV5fS2Mrz7S640ureGm1r2bWu9b+g13/zlNf6HZZ/Orun9TxX3vYOn2iy2xm2vd0suaQW+pS0OzS9/wBpjY/fvt/SfofTXnFX1k6tg4/VenHExqrupZLreob2PZbted1nT3snczG2erSz3v8ATovs9D/Sq7R9fepYldTMHpXS8cUn9GSy15A/Nax++t7NqbLHMyJEdyWwCO7uf4x7rmfVXLrPTLsRmRfX+lu+yNawN2vbTU3Bvuvt32Vbvez/AAl36X061uXVus+tltbamZDn9BLRRYYZYTc4elYYd+js+g/2rzbr31hyvrAy852DhMyrmta3Mq9Y2sDT9Cr1rHV11vb7LGsZ+e/89auZ9e3dQdW/P6B0zLfU0MY++bCGj81rrKXe3ckcU6HpVYe1+sFDsb6q9Vdbh0YTR0dtO6twMPazJb9gZ7WfoMV1jPs3+k+0LF+ttGTkfX+qrGZ022w9JBNfV2l+OWjIt3Obs932j9z/AIL1lzn/ADqwP/nW6N/22P8A0gg9S+tFnVett6t1LpmJltbjfZRh2Of6YhzrW5As27/V3WWt+h/Nv/tpRxz19J2VYeuzuvdTxMvouCH42Z6mTjYubXh4pOBjsseKH1V5lj7XMydr666a/Z+j+nTV6lSb6y2ZPT6vrFn9Ow8Sp7LasK7qDSRlNZdTg7m11tp2bGfaa/8AtT/wuz9EuY/55ZP2nEd+zMQYHTmg4XTWucymq9rhYM72s/S5H02s3t/R7/37bvUI3685rr+puzOnYmbjdVsqusxbXP2NNTKqGt9zbG2+3Gof9Bn6VIY5Ag8O1Wqw82AAAAIA0A8gnTJ1bWKSSSSUsABwI+CdJoL7G1Vgvtdo2tgLnk/ya2bnuWnT9WPrBda6kYNlb2MFh9WK2kH6LGWvPpOud/ot/wDxvppIMgNyB5l//9Trkl8+JLUcV+g0l8+JJKfoNJfPiSSn2/rmN9XsvZR1h1NdxbNL32NqvDfGmwlr3V/yHepSuN6t0DDxK7MjA6rjZlNY3Glz2i+PCv0i+vId/wBsLgkkyVdGzy/vWKvgvW/l/wAF6RJc2kg3XpElzaSSnpElzaSSnpElzaSSnpFtfVfC6Rffdk9Ztobi0t2V032NZvsdrv2l7H+lTX/4Lb/wS4FJJZm4vblwfN+L7x0o9I9NzejfZhWPp/ZNn/TdT7v89W+3kvnxJSCujmG71u/F/9k4QklNBCEAAAAAAFMAAAABAQAAAA8AQQBkAG8AYgBlACAAUABoAG8AdABvAHMAaABvAHAAAAASAEEAZABvAGIAZQAgAFAAaABvAHQAbwBzAGgAbwBwACAAQwBDAAAAAQA4QklNBAYAAAAAAAcABgAAAAEBAP/hDedodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvADw/eHBhY2tldCBiZWdpbj0i77u/IiBpZD0iVzVNME1wQ2VoaUh6cmVTek5UY3prYzlkIj8+IDx4OnhtcG1ldGEgeG1sbnM6eD0iYWRvYmU6bnM6bWV0YS8iIHg6eG1wdGs9IkFkb2JlIFhNUCBDb3JlIDUuNS1jMDE0IDc5LjE1MTQ4MSwgMjAxMy8wMy8xMy0xMjowOToxNSAgICAgICAgIj4gPHJkZjpSREYgeG1sbnM6cmRmPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5LzAyLzIyLXJkZi1zeW50YXgtbnMjIj4gPHJkZjpEZXNjcmlwdGlvbiByZGY6YWJvdXQ9IiIgeG1sbnM6eG1wPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvIiB4bWxuczp4bXBNTT0iaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wL21tLyIgeG1sbnM6c3RFdnQ9Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC9zVHlwZS9SZXNvdXJjZUV2ZW50IyIgeG1sbnM6ZGM9Imh0dHA6Ly9wdXJsLm9yZy9kYy9lbGVtZW50cy8xLjEvIiB4bWxuczpwaG90b3Nob3A9Imh0dHA6Ly9ucy5hZG9iZS5jb20vcGhvdG9zaG9wLzEuMC8iIHhtcDpDcmVhdG9yVG9vbD0iQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKSIgeG1wOkNyZWF0ZURhdGU9IjIwMTctMTItMjZUMjA6NTI6MTErMDg6MDAiIHhtcDpNZXRhZGF0YURhdGU9IjIwMTctMTItMjZUMjA6NTI6MTErMDg6MDAiIHhtcDpNb2RpZnlEYXRlPSIyMDE3LTEyLTI2VDIwOjUyOjExKzA4OjAwIiB4bXBNTTpJbnN0YW5jZUlEPSJ4bXAuaWlkOjJiYmJjYTdhLWI3MjAtM2Q0NS05MDgyLTY3YjViYTNiYjI5NCIgeG1wTU06RG9jdW1lbnRJRD0ieG1wLmRpZDo1ZGM5YTVkMS00NzQzLWJiNDItOTY0Yi0wNjZlNzViOWJiMGYiIHhtcE1NOk9yaWdpbmFsRG9jdW1lbnRJRD0ieG1wLmRpZDo1ZGM5YTVkMS00NzQzLWJiNDItOTY0Yi0wNjZlNzViOWJiMGYiIGRjOmZvcm1hdD0iaW1hZ2UvanBlZyIgcGhvdG9zaG9wOkNvbG9yTW9kZT0iMyIgcGhvdG9zaG9wOklDQ1Byb2ZpbGU9InNSR0IgSUVDNjE5NjYtMi4xIj4gPHhtcE1NOkhpc3Rvcnk+IDxyZGY6U2VxPiA8cmRmOmxpIHN0RXZ0OmFjdGlvbj0iY3JlYXRlZCIgc3RFdnQ6aW5zdGFuY2VJRD0ieG1wLmlpZDo1ZGM5YTVkMS00NzQzLWJiNDItOTY0Yi0wNjZlNzViOWJiMGYiIHN0RXZ0OndoZW49IjIwMTctMTItMjZUMjA6NTI6MTErMDg6MDAiIHN0RXZ0OnNvZnR3YXJlQWdlbnQ9IkFkb2JlIFBob3Rvc2hvcCBDQyAoV2luZG93cykiLz4gPHJkZjpsaSBzdEV2dDphY3Rpb249InNhdmVkIiBzdEV2dDppbnN0YW5jZUlEPSJ4bXAuaWlkOjJiYmJjYTdhLWI3MjAtM2Q0NS05MDgyLTY3YjViYTNiYjI5NCIgc3RFdnQ6d2hlbj0iMjAxNy0xMi0yNlQyMDo1MjoxMSswODowMCIgc3RFdnQ6c29mdHdhcmVBZ2VudD0iQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKSIgc3RFdnQ6Y2hhbmdlZD0iLyIvPiA8L3JkZjpTZXE+IDwveG1wTU06SGlzdG9yeT4gPC9yZGY6RGVzY3JpcHRpb24+IDwvcmRmOlJERj4gPC94OnhtcG1ldGE+ICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPD94cGFja2V0IGVuZD0idyI/Pv/iDFhJQ0NfUFJPRklMRQABAQAADEhMaW5vAhAAAG1udHJSR0IgWFlaIAfOAAIACQAGADEAAGFjc3BNU0ZUAAAAAElFQyBzUkdCAAAAAAAAAAAAAAAAAAD21gABAAAAANMtSFAgIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEWNwcnQAAAFQAAAAM2Rlc2MAAAGEAAAAbHd0cHQAAAHwAAAAFGJrcHQAAAIEAAAAFHJYWVoAAAIYAAAAFGdYWVoAAAIsAAAAFGJYWVoAAAJAAAAAFGRtbmQAAAJUAAAAcGRtZGQAAALEAAAAiHZ1ZWQAAANMAAAAhnZpZXcAAAPUAAAAJGx1bWkAAAP4AAAAFG1lYXMAAAQMAAAAJHRlY2gAAAQwAAAADHJUUkMAAAQ8AAAIDGdUUkMAAAQ8AAAIDGJUUkMAAAQ8AAAIDHRleHQAAAAAQ29weXJpZ2h0IChjKSAxOTk4IEhld2xldHQtUGFja2FyZCBDb21wYW55AABkZXNjAAAAAAAAABJzUkdCIElFQzYxOTY2LTIuMQAAAAAAAAAAAAAAEnNSR0IgSUVDNjE5NjYtMi4xAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABYWVogAAAAAAAA81EAAQAAAAEWzFhZWiAAAAAAAAAAAAAAAAAAAAAAWFlaIAAAAAAAAG+iAAA49QAAA5BYWVogAAAAAAAAYpkAALeFAAAY2lhZWiAAAAAAAAAkoAAAD4QAALbPZGVzYwAAAAAAAAAWSUVDIGh0dHA6Ly93d3cuaWVjLmNoAAAAAAAAAAAAAAAWSUVDIGh0dHA6Ly93d3cuaWVjLmNoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGRlc2MAAAAAAAAALklFQyA2MTk2Ni0yLjEgRGVmYXVsdCBSR0IgY29sb3VyIHNwYWNlIC0gc1JHQgAAAAAAAAAAAAAALklFQyA2MTk2Ni0yLjEgRGVmYXVsdCBSR0IgY29sb3VyIHNwYWNlIC0gc1JHQgAAAAAAAAAAAAAAAAAAAAAAAAAAAABkZXNjAAAAAAAAACxSZWZlcmVuY2UgVmlld2luZyBDb25kaXRpb24gaW4gSUVDNjE5NjYtMi4xAAAAAAAAAAAAAAAsUmVmZXJlbmNlIFZpZXdpbmcgQ29uZGl0aW9uIGluIElFQzYxOTY2LTIuMQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAdmlldwAAAAAAE6T+ABRfLgAQzxQAA+3MAAQTCwADXJ4AAAABWFlaIAAAAAAATAlWAFAAAABXH+dtZWFzAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAACjwAAAAJzaWcgAAAAAENSVCBjdXJ2AAAAAAAABAAAAAAFAAoADwAUABkAHgAjACgALQAyADcAOwBAAEUASgBPAFQAWQBeAGMAaABtAHIAdwB8AIEAhgCLAJAAlQCaAJ8ApACpAK4AsgC3ALwAwQDGAMsA0ADVANsA4ADlAOsA8AD2APsBAQEHAQ0BEwEZAR8BJQErATIBOAE+AUUBTAFSAVkBYAFnAW4BdQF8AYMBiwGSAZoBoQGpAbEBuQHBAckB0QHZAeEB6QHyAfoCAwIMAhQCHQImAi8COAJBAksCVAJdAmcCcQJ6AoQCjgKYAqICrAK2AsECywLVAuAC6wL1AwADCwMWAyEDLQM4A0MDTwNaA2YDcgN+A4oDlgOiA64DugPHA9MD4APsA/kEBgQTBCAELQQ7BEgEVQRjBHEEfgSMBJoEqAS2BMQE0wThBPAE/gUNBRwFKwU6BUkFWAVnBXcFhgWWBaYFtQXFBdUF5QX2BgYGFgYnBjcGSAZZBmoGewaMBp0GrwbABtEG4wb1BwcHGQcrBz0HTwdhB3QHhgeZB6wHvwfSB+UH+AgLCB8IMghGCFoIbgiCCJYIqgi+CNII5wj7CRAJJQk6CU8JZAl5CY8JpAm6Cc8J5Qn7ChEKJwo9ClQKagqBCpgKrgrFCtwK8wsLCyILOQtRC2kLgAuYC7ALyAvhC/kMEgwqDEMMXAx1DI4MpwzADNkM8w0NDSYNQA1aDXQNjg2pDcMN3g34DhMOLg5JDmQOfw6bDrYO0g7uDwkPJQ9BD14Peg+WD7MPzw/sEAkQJhBDEGEQfhCbELkQ1xD1ERMRMRFPEW0RjBGqEckR6BIHEiYSRRJkEoQSoxLDEuMTAxMjE0MTYxODE6QTxRPlFAYUJxRJFGoUixStFM4U8BUSFTQVVhV4FZsVvRXgFgMWJhZJFmwWjxayFtYW+hcdF0EXZReJF64X0hf3GBsYQBhlGIoYrxjVGPoZIBlFGWsZkRm3Gd0aBBoqGlEadxqeGsUa7BsUGzsbYxuKG7Ib2hwCHCocUhx7HKMczBz1HR4dRx1wHZkdwx3sHhYeQB5qHpQevh7pHxMfPh9pH5Qfvx/qIBUgQSBsIJggxCDwIRwhSCF1IaEhziH7IiciVSKCIq8i3SMKIzgjZiOUI8Ij8CQfJE0kfCSrJNolCSU4JWgllyXHJfcmJyZXJocmtyboJxgnSSd6J6sn3CgNKD8ocSiiKNQpBik4KWspnSnQKgIqNSpoKpsqzysCKzYraSudK9EsBSw5LG4soizXLQwtQS12Last4S4WLkwugi63Lu4vJC9aL5Evxy/+MDUwbDCkMNsxEjFKMYIxujHyMioyYzKbMtQzDTNGM38zuDPxNCs0ZTSeNNg1EzVNNYc1wjX9Njc2cjauNuk3JDdgN5w31zgUOFA4jDjIOQU5Qjl/Obw5+To2OnQ6sjrvOy07azuqO+g8JzxlPKQ84z0iPWE9oT3gPiA+YD6gPuA/IT9hP6I/4kAjQGRApkDnQSlBakGsQe5CMEJyQrVC90M6Q31DwEQDREdEikTORRJFVUWaRd5GIkZnRqtG8Ec1R3tHwEgFSEtIkUjXSR1JY0mpSfBKN0p9SsRLDEtTS5pL4kwqTHJMuk0CTUpNk03cTiVObk63TwBPSU+TT91QJ1BxULtRBlFQUZtR5lIxUnxSx1MTU19TqlP2VEJUj1TbVShVdVXCVg9WXFapVvdXRFeSV+BYL1h9WMtZGllpWbhaB1pWWqZa9VtFW5Vb5Vw1XIZc1l0nXXhdyV4aXmxevV8PX2Ffs2AFYFdgqmD8YU9homH1YklinGLwY0Njl2PrZEBklGTpZT1lkmXnZj1mkmboZz1nk2fpaD9olmjsaUNpmmnxakhqn2r3a09rp2v/bFdsr20IbWBtuW4SbmtuxG8eb3hv0XArcIZw4HE6cZVx8HJLcqZzAXNdc7h0FHRwdMx1KHWFdeF2Pnabdvh3VnezeBF4bnjMeSp5iXnnekZ6pXsEe2N7wnwhfIF84X1BfaF+AX5ifsJ/I3+Ef+WAR4CogQqBa4HNgjCCkoL0g1eDuoQdhICE44VHhauGDoZyhteHO4efiASIaYjOiTOJmYn+imSKyoswi5aL/IxjjMqNMY2Yjf+OZo7OjzaPnpAGkG6Q1pE/kaiSEZJ6kuOTTZO2lCCUipT0lV+VyZY0lp+XCpd1l+CYTJi4mSSZkJn8mmia1ZtCm6+cHJyJnPedZJ3SnkCerp8dn4uf+qBpoNihR6G2oiailqMGo3aj5qRWpMelOKWpphqmi6b9p26n4KhSqMSpN6mpqhyqj6sCq3Wr6axcrNCtRK24ri2uoa8Wr4uwALB1sOqxYLHWskuywrM4s660JbSctRO1irYBtnm28Ldot+C4WbjRuUq5wro7urW7LrunvCG8m70VvY++Cr6Evv+/er/1wHDA7MFnwePCX8Lbw1jD1MRRxM7FS8XIxkbGw8dBx7/IPci8yTrJuco4yrfLNsu2zDXMtc01zbXONs62zzfPuNA50LrRPNG+0j/SwdNE08bUSdTL1U7V0dZV1tjXXNfg2GTY6Nls2fHadtr724DcBdyK3RDdlt4c3qLfKd+v4DbgveFE4cziU+Lb42Pj6+Rz5PzlhOYN5pbnH+ep6DLovOlG6dDqW+rl63Dr++yG7RHtnO4o7rTvQO/M8Fjw5fFy8f/yjPMZ86f0NPTC9VD13vZt9vv3ivgZ+Kj5OPnH+lf65/t3/Af8mP0p/br+S/7c/23////uAA5BZG9iZQBkQAAAAAH/2wCEAAICAgICAgICAgIDAgICAwQDAgIDBAUEBAQEBAUGBQUFBQUFBgYHBwgHBwYJCQoKCQkMDAwMDAwMDAwMDAwMDAwBAwMDBQQFCQYGCQ0KCQoNDw4ODg4PDwwMDAwMDw8MDAwMDAwPDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDP/AABEIAPABuAMBEQACEQEDEQH/3QAEADf/xAGiAAAABwEBAQEBAAAAAAAAAAAEBQMCBgEABwgJCgsBAAICAwEBAQEBAAAAAAAAAAEAAgMEBQYHCAkKCxAAAgEDAwIEAgYHAwQCBgJzAQIDEQQABSESMUFRBhNhInGBFDKRoQcVsUIjwVLR4TMWYvAkcoLxJUM0U5KismNzwjVEJ5OjszYXVGR0w9LiCCaDCQoYGYSURUaktFbTVSga8uPzxNTk9GV1hZWltcXV5fVmdoaWprbG1ub2N0dXZ3eHl6e3x9fn9zhIWGh4iJiouMjY6PgpOUlZaXmJmam5ydnp+So6SlpqeoqaqrrK2ur6EQACAgECAwUFBAUGBAgDA20BAAIRAwQhEjFBBVETYSIGcYGRMqGx8BTB0eEjQhVSYnLxMyQ0Q4IWklMlomOywgdz0jXiRIMXVJMICQoYGSY2RRonZHRVN/Kjs8MoKdPj84SUpLTE1OT0ZXWFlaW1xdXl9UZWZnaGlqa2xtbm9kdXZ3eHl6e3x9fn9zhIWGh4iJiouMjY6Pg5SVlpeYmZqbnJ2en5KjpKWmp6ipqqusra6vr/2gAMAwEAAhEDEQA/APonnrD4a7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq4tEivJM3CCJWknf+VEBZj9AByMjQtIBOw5vwL/ADd89Xf5j/mP5t82XM/rW97qE0ekKCxSOzicpCsfIVC8RWh6V22zWj7931fQ6YabBDGByDzfC5beKuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KozTtR1DR9QsdW0m8l0/VNMnjudPv4TSSGWNgyup7EEYljOAmDGW4OxHfb9zPyK/Nyx/OXyDY+ZVEdtr9iRZebdMQ/wC896qgl1A/YmWjr8yKDMvDPiFHm+Y9q9nHRZzCrid4n9Hwex5e6x2FXnP5ofmf5a/KbyvP5n8zSs0fIxabpsJAnu56VEcda023LUNB49MpyZBAW52g0GTW5OCHxPcHwen/ADn/AOYTqCmT8tdLTSDOOS/XLg3QgJ/mHwcwP8mntmN407ep/wBCmLh/vDfuD9Avy+8/eXvzL8rWPmzy1ci4sbsmKeEsGktrhAPUhk49xUEHuPA1AyceTj3eS1ujyaXIccxv394ZplziuxV2Kv8A/9D6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KvNfzl15vLH5S/mPriXQtJ7HQLz6tc7/DLKhiSlN6ktTKM59Ln9mYvF1WOPTiHyfgVEnpxxpvVVAJJqdgBmJzfVDzVMCuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KvoD/nG783W/KP8xLO9vZCPK/mMx6Z5qSp4xwO3wXPEDdoXIb/V5D9rJQlwm3Vdsdn/AJzAYj6hvH393xft0rI6q8bB0cBkdSCGU7ggjYgjcHNgDb5kRTeKH4+f85k/mHJ5t/Na78sWs5bR/IiDT413Cm9YBrpqEdQx4VHUAeGYE58cifg+i+z2j8DSiZ5z3+HT9fxfI34ZB3z9Gf8An37rs/1n80fKrT/6J6Wn6zBbf8XMz28jD24gZbgNTeQ9rMQ4MWTzI/S/SPM54t2KuxV//9H6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2BXzf8A85cyNF/zj556KGnqNYRtQ/svdRg/eMxs/L8d7u/Z7fWw9x+4vxUzGfSHYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq0QGBVhUHYjFeXvfsv/AM4gfmPN+YH5Q2lhqMxuNd8gXA0HUXY/FJbhPUsZGJ7mL4DT+Ud8ycEuj517R6IafU8UfpmLHv6vefPnm6z8g+SvNPnS9bjF5c02e8iX4SXnVSIEVWIDFpCu1elcszT4Yl1ej0x1OaGMfxGvx8H8/d/qN3q99fatfsGvtVuJLu9IrT1ZmLvQsSaVPjmEBT6xGAgBGPIITFL7c/5wLMo/NXzUFr6LeWW9anSouF48vprTLMf1j8dzzftT/isf6w+5+r+Z7wDsVdir/9L6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2BXx5/zm35rtdG/J5vLJaI6j5w1G2jt4XJD+hZyLNNIg7kHiCOwauYuoPIPSezOnMtUZ9Ig/M7PyHzHe/dirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVfe/8AzgBqUkXnb8ydJZ29C90CzuY4q/CJYLpgWp48WpXwy3D9TyvtZD9zjnW4kR8w9H/5zv8AzAFj5b8tflnZTJ9Y8wTjVtfhqC62lqxFuCpFQHmqwIP7Jw55WeFw/ZbSAznmP8Ow956/Lb4vzByl7Z2Kv0f/AOffvl+UL+aHm90X0ZDYaHbuft805XMlPbcfTluDeTx/tZmrw8fvl+gP0czOeMdirsVf/9P6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2BX5Qf852a2b38zfL2iLLIY9D0JHaAmsayXcruzKPEqqg/IZg5jcvc997L4uHTGX86R+x8R5W9K7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq+7f+cBYYh58/MvUp5Vgh0vyxbPNK54oqS3bc2ZjsAFSpOTxECTy/tUT4GOI6z/Q+cvz3/MK6/Mr8z/M3mB3cafDdPZ6JbSV/d2tufSSgJPEvx5kA0qdupyJNkl3PZmkGl08YDnVn3vH8DnuxV+uX/OE3mXybcflRbeUdH1AN5s0u5utQ806bKoSXlcSUR4qf3kSqAA3Y1rTL9ORZDwPtPhyjUeJIeg7RP6Pe+yczHmnYq7FX//U+ieesPhrsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdir8bf+czWdvz31wMxKppumBAew+rqdvpOa/L9Z/Hc+j+zv+JR95+98rZB3jsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdir1nyH+at3+Xvkj8yPLuhWk0PmP8wls7I+ZFdPTtNNgLPPCsZHIySsaBq8QtQQa4CLcLU6IajLjlI+mFmv6X6nkvTpthc1vFWsVfXn/ADhALlvz1jMFRbjy5qhvAKbrWELXv9rwyeP6w6D2lr8mb/nD9L9gM2D527FXYq//1fonnrD4a7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXEgAkkKoBJZiAAB1JJ2oOpORJpNF8k/mL/AM5l/lX5HvLjStEiu/P+qWzNHO+lvHHZI6+FzIaSLWoJQbEZjHU9z0Gj9m9RmHFMiA8+fyeTad/z8C0lrlRrH5XXsNmaVksdQiklHieMqoDT55EZ5Own7JSq45PmKfLn/OTnnryd+ZP5h2HnLyXqLX2n6vodmL6CaJobi0uoWlia3nRtg4VVaqkggg5XI8RJd52LpcumweFkFEE15jnf2vnbIu2dirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVfb/wDzgZpM11+afmrWkWttonlpopn/AMq+nVEA/wCRRyzELn+Px0ea9qZ1pox6mX3D9r9XMz3gXYq7FX//1vonnrD4a7FXYq7FXYq7FXYq7FXYq7FXYq3/AJjAVcASCQDsCxPYKOpJ8B3wGVK4gih7MAynsQdwR4g4xNq1kldir4F/5zV/Oe48v2Nv+VHl68e21LXLRbzzTdwScJIrSQj0reo3AlUFmpSopv1Bw8+SzQ+L1vs12aJk6iY2BqPv6l8Tfkn+Rfmv869ZuLLROGk+XtH4HX/M86Mbe2L/AGYolFDJKw3CDp1Ygb5VAEmhzem7R7Ux6GAMtyeQHM/qHeX3/Zf84K/lNDYpBfa75jvb4qBLfpPBCC46lIvRcAHwJY++X/lx1eTl7Uagm4xiB53+t8o/n5/zirqP5QaI3nLRvMP+I/Kq3SW13DNCYry09YsI2cqTG6VAUsCpqfs0ynJjMHe9ldux1svDlHhlV+R7/N8i5B37eKuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KtYq/Uj/nAfys9l5J87edJ4WjbzHqsem6fMSOMlvp6Vkp32lfL9OLlbxHtXmvLjx9wJPvP7H3pmY8m7FXYq//1/onnrD4a7FXYq7FXYq7FXYq7FXYq7FXYFeBf85Bfnnp/wCSnlSK9gt4dV83a7zh8saNMT6PJPt3NwAQxiiJFQPtNRajcijNk4RTt+yeyjrclS2gPq/4kPyV8xfnp+cvmyDVbLX/AMytcu9P1uQSahpMc/oWp4nkESOIKUQH9ldsxDvze/w9m6bCQY44gjkas/N9r/8AOKX5zWHlH8jfzB1Dzz5ga70/yBq0X6IsZpvVvTDfRVS3iDsWZWmWidl37ZPFkMCR06PN9u9myz6vGMcd5g2em3U+YHzeZat/zmj+d/mHUtRuvI+hWGl6JZqWaxXTTqkkEdTxeecg0JHXoPDbBLJInnTm4/ZvR4wBkJMvfwh91f8AOPH5uv8AnH5CHmXVrWLTdS0q8ksNeEB/dM0UaSmZF34go9SOlRttmRjykxN8w8r2x2cNHn4InYgEfOn5B/mJr2q/mn+bXmfVrUfXdR806+9ppEcXNlZfW+r2wjRqkKVAPEfRmJG/mX0PSYY6bTxgdhCO/wB5fth+V35e6T+VnkPy/wCSNHRDHpcPPU71RRry/lAa5uXO1SzbCv7IAzOxQ4Q+Z6/Wy1eaWWW17D3dAO5n/wDmctpwwxLz95O078wvJfmbyVqoUWnmKxktVmYA+jNSsMy8qgGNwCD2yvLDijs5Oi1B0uaOWP8ACfmOofgZ5l8tav5P1/VPK+vwC11jRZmt762BrxZSQK9CKjehAO+4GYINvq2LLHNATh9JF2kmLY7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYqmWi6LqfmPV9N0HRrc3eq6vcR2mn2y9XlkYKoHuScd+jDJkjjiZS+mPMv3z/LjyVZfl15F8seSrErImg2KQ3V0oAM9y3xXEpoBXk5NCd6AVzNxQ4I0+Va3UnU5p5D1PLuDNsucR2KuxV//9D6J56w+GuxV2KuxV2KuxV2KuxV2KuxVbJLBBFNcXUy29rbRvNd3D/ZjiiUvI7eyqCTkJy4RbKIJIA5vwd/Oz8z7z83PzF17zbK5XSfVNj5XsydoNNtyVhAp3k3kY92aua+73fU+zdFHR4I4xz5k/0jzeUHfFzlyySIHVJWRZBSVAxAZetCAaEA+ONC1ftX/wA4oeS4PJX5LeWpPq6LqXm6M63rMjKp9Zbkn6ujmnxIIONA3Tk3jmThxjh36vm3b+qObVSF7Q9I943P2/c9C0PyD5X/ACr8kecdO8l2D2NpdQ6xrM8UshkLXM8Du1GIACqAFVQNgBkjARiacXJrMmszQlkNkcI+T8ev+cYre31P87fyvF7QIdRW8Fa/30ULzx9f8tRTMaHMPofbJMdLlruL90f865sHyzzdhV2BXyF/zkz/AM42H82orXzV5Sli0/zppg431s6j09TtwABXpSaMLRCWAYbGh+LMXLi34g9H2J2z+U/d5PoPL+if1Pyc1/y15g8qajNpPmTRrvRdSgNJbO6jaNgen7QFQaVHtv0zHD3mPLDJESiQQe42km46gj59cNNjsCuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KvtH/nBry9Zav+aur6xe2qXJ8s6K8+ns+/pXNxIsSyAdKhOY377jLcUbm857T5pR0wAP1GvgA/WrM18/dhV2KuxV//0fonnrD4a7FXYq7FXYq7FXYq7FXYq7Ar5p/5y288yeSPyS8xJZXH1fV/OMsXl/TXBKuEuTyunRh0ZIVYjMbUS2ADvPZ7SjPrIk8oDiPv6fa/FhVCgKo4qooFHQAdMxtn0f8ABXYq0dxTx6YpD94PyE16z8x/k1+W+o2LD04tDtbGVQd1msV+rSqdzT44iflTM7EbiHy3tbFLFq8gPffz3esy28d5BcWUzcIb6GS1meleKzIYy30Bq4ZjZ18ZGMgRzt+BVjPqf5O/mukk0DR6j+XPmYia1kqCyWdx0YDf44qGncHMAHh+BfV5CGswbfTkj9/7X70aTq2m6/pOma7ot0t7o+s2sV7pd4hBEkEyhkO3emx8DUdRmfGVh8qyYzjmYSFSCYZY1uxV2BUDf2Wl3kLHVrS1uraEGSQ3ccciKqipYmQECg75GQFWQ2YpzifQSCe5+FX53+fh+ZX5meYvM8CpHpauNO0CCNQix6fZlkgAUAU5Alz13Y9qZgE2X1Hs3SfltPGB58z7y8nwOc7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq/Sr/nADQpk078y/NDoPq11cWGk20hHxepAj3ElD4UmAy7B9VvG+1mUXjh13P6H6I5mvHOxV2KuxV//9L6J56w+GuxV2KuxV2KuxV2KuxV2BXnX5p/md5a/KLyhdebvNErmBJBa6VpsNDcX144JSCEE06DkzHZRv4ZTlyCPmXO0GgyazKIQ2rme4PyW/Pn/nIrVPzzt/LtlceXIvLNh5duLm4S1iumufWlnUIjNyjjAKJyG1a17ZjTkZGy992X2RHQcVS4jKgbFcu773zlkHbuxVPLPy1reoeX9e802di0+g+Wp7O11q+BH7mW/LC3Xj9puXA1p9nv1xap5YxkIE0ZA18Ob7f/AOcI/wA4LPQ9VvPyj8w3i2tn5lufrfky5lYKg1FlpLaFjQAzqoKVP2l4jrlmOfCd+TzftN2dLJEaiA3jtL+r3/B+oJBBKsOLA0ZT2OZweF9z88P+czfyHv8AV5H/ADh8n2JvLq2t1i89aXApaR4oRSO/RRXkUUcZQBWgDb70xM2OjY5PY+zfaoAGnyHr6T/vfj0eHf8AONf/ADk9c/lT6XlDzcZtV/Lm5lMltNCDJc6U8pq7wD9uE9WjG9d132yvHPg5cnZ9s9iDWXkx7ZB/sv2v1b8pecvKXn2wi1PyX5j0/wAzWcoqpsZlklWlOQeLaRSK7grtmUMsTu8HqNLl08uHLExPmyZlZTxZSrDqCKHLQbce2gCTQCpOwGJW3zr/AM5TefrfyD+UPmeNdRitfMPmKIaRpNiZI/rR+t/DLIIGPIoIgwJpQVGY2bKKodXc9g6Q6jVRJHojufh+1+JgAAAHbamYwD6U3irsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVWSOI0eR9lQEt9GKgXs/THy5+bvlz/nFX8pvI3ke40C48zfmRr1kPM3mLQresKWQ1P8Aew/XLhUkoTFTgACadaA5LHlERt+PxyeOz9nT7V1M8glw44+kHv4f5vxZh+WX/Ob/AJI836tFovnPRX8hzXsogsNYFwLzT/UNAEuJOEbw1Jpy4lfEg5cM/eHF1vsxlwx4schPyIo/DvfboKkAqQysAVYEEFSKggjrUeGZILzBFfjk7JIdir//0/onnrD4a7FXYq7FXYq7FXYq7FXYFflH/wA55eZby/8AzP8ALPlJnYab5X0CK+hiDfA9xqcjl5CvTkqxBQfA5gZTcnvvZbAI6aU+spEH/NqnxBkHpXYq738MUgP05/5w7/LrSvNf5A/mTp3mCH1tI/MXWZ7C44geoq2EKRrIpNfiSRg69qjfbLMUOO3ivaHWyw6zFKHPHG/fb4S/Nb8q/M/5PeapvLnmCKThzM2ga7EGSK9hRqpPC4OzjYsK1U/fkJRINPUaHXY9XjE4H3ju7wR3fe+t/wAnf+c3L3SLOz8u/m3Z3Ouw2iJBa+crIB7zgo4r9chJX1j0q6kNtUhjluPKY7Hk8/2j7NDJLjwERPPh6fA9Pc+8PKP5x/lf55WE+V/PWkajcTg8bB5lgugB1528/CQD5rlwywkHl9R2ZqcB9eMiuo5fMPmf85/+cLdD863V75r/ACuuIPK2t3rtNfaAVLaRcytuzwmIE27MakhQUr+yK5TLEOhdz2d7STwgY9Rch38pfHv+/wB74m1D/nGr/nIjyffmay8g6+LxhQaj5ekaZmUdjJZvyp7N92UnY7vTQ7Z0WWO+SNf0v1SQFz+cH/ORn5fXsvljUvP/AJt8uX+mBPX0LUZWEsIkUOnOOZSwDKQRXscTuzGg0WoHGIQkD1ACFv8A/nI78+dRhe3ufzV11IZFKSJBKkPJT1BKKDjuyh2To4mxijbx28u7zUbt7/Ur651O/kHF728leeYrWtDJIWale1cXPiBEUNh8P0KGKXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FX0L/zjR+Ukn5q/mTpkV7AW8q+WZYtU8zyUIDxRPWK3DbCsrqBtvSppQHJRiZGg6rtjtAaTTkj65bR/X8H7YSW1nNI0s2n2kkrDizvbxM3EbKtSp2A2A6AdszPCD5mMkoigSPdfPvfGv/OWf5DeVfMvkTXPP/l7QrXSPOflaD65dzWEKwpqNihAminijCqWRSXV6VABByjLircPSdgdrZceYYZyJhLYWfpPkfPr5rf+cJ/zRv8Azr5D1Tydrd4bzVfIDwR6dcSMWml0u4B9EMTufQYcKk1oVHbJYJ9CvtNoY4coywFCfMf0v2vtLMp5l2Kv/9T6J56w+GuxV2KuxV2KuxV2KuxV2BX4vf8AOYV+b7/nIHzep/6Vtrp1go9o7cSf8zM18jZPvfSvZ+HDoYedn7XzLkXcuxV2KQ/av/nEfSBo/wDzj/5FBdWk1r65qzoOoNxcOlCOtaRDMnT0L8y+be0OTj1k9uQA+x6/568geUfzK8v3Hlnzno0WsaXMecDt8FxazDZZ7WYfFFIviNj3BGW5MYm67SazLpZ8eOVH7D5HvD8wfzO/5wr/ADF8p3F1feQ3Hn7y4peSCJSkGqQRipCywsVSQgftRmp/lzElilF7fRe0mnzUMtwl/sfh+18p6x5P81aFP9V13ytquk3C0PpXtlPC3iCBIgP0jIHbyd9izwmLhIH3FMdN8w/mLpqJb6N5g80WEJH7u1tL2+jj/wBjGjhfuGN11YTw4ZH1RgT5gFEX3n/80IZXs9Q89+a7eeKgltptTvYpF5AEVX1FYVBBGGz3sRpMBFiEa9w/Uw66u7u+uJLq+vLi/upSDLd3UrzyvQU+KSQszU6bnpgb4gRFAUEPiydirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVaxKsj8peVPMHnnzHpflXytpkur63q8witrSKgAX9uSRyCI0Rd2ZtgPuxG7VnzwwwOTIaiH7hfk1+U2j/k35KsvK2nSrfai7fWfMOtKKG7vHHxFa7iOP7MYPQb0qTmZix8I83zLtLtGWtymZ2A+kdw/W9Xy91zHPOMEFz5Q82W10QLW50XUIrliaD03tpFep+ROV5PpLkaQkZoEfzo/eH52f8APvyyl/xH+aOoqv8AokWlWNlzHT1GuTKB8+K1zFwj1fjzev8AayQ8LHHrxH7n6bZnPEOxV//V+ieesPhrsVdirsVdirsVdirsVXKOTKviQMBUvwb/AD51pvMX5z/mbqzDj6uv3Nsi1r8NlS0FD7iGua7mfn9j6r2ZiGPS44/0R9u/6Xk2BznYq1iqbaVr2t6Fe2mpaJq95pWo6e4ksru1neJ4mU1+AqRQe3Q98HCGM8cZgiQBsfj7H7n/AJH+erv8xvyr8mebdTZW1bUbJo9VdRxDXNrI1vK9BsvMpzoOlczsMri+Xdq6UabUzxx5A7e47vV+3hv/ALWWuBu8D/OD/nI78uPyfDWGs3T+YfNpWsPlDTCslynTe6kb4IBv0Y8v8nMeeYDk7bs7sXPrN4jhh3n9Afnt55/5zO/NvzU09v5f+oeQNKkqEg0yJZrsoRQh7qdSd+tVRSPHKTkkXrtJ7OaXD9VzP9Ll8v1vlnVtW1TXdQudW1rULnVtVviHvNQvJGmmlIUKC7uSTRQBv2AGVu7x44wAjEADuHJL8WbsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdiqM02xfU9RsNNiuLa0l1G4ito7q9l9C2jMrBA80xBCIpNWamw3w0xnLhBNE13c/g+4vJ//ADgZ531J4Lnzp5z0bQNPfi5i0hjqc8sTryV4ZRwhodiCTuNxhhCUnmtR7UYYAjHCUj5+mve++fyt/JnyJ+UGmy2XlHT2F7eKF1LXbthLeXHcqZKfAld+C7eNaA5l48Qj5vKa/tPNrZXkOw5RHJ6plzrnbVoTTxOArXR+YX/OS/8AzkF+d2jeYNS8mv5fH5beVdc0+5t9Osbtbe71DUdPkLW0l5LIjuIRKK8EoKKepNaYBySlze67F7K0c4RyiXiSBG4sRBG9J5/zgf508j6XbeaPIt1qbaf558zahFfadZ3NFhvre1hZFjtZO8ycmLIdyN1ruMOGQjLdo9qdNmycGQC4RFHys9fLzfpDmc8Y7Cr/AP/W+ieesPhrsVdirsVdirsVdirsVWSyCKGaUkKIo3cseg4qT/DIy5JiLIfzratfyapq2q6nL/e6leT3cv8ArzyNI34tmuHJ9gjHgiB3UEBiydirsVd2Pjir6Y/KX/nKbz9+U+j2XlizstN1vyxZSM8OnXURSVPVkMkpSaMqSxqacgQMnGco8nTdodiYNZLjkSJd4e0fmR/znFf+YPJ0ek+QdEvPJ/mTUOaaxrEsscv1WKtAtlIKHm46uVBUfZ33BlmJ2ddovZiGLLxZTxxHIfrfAU0s1xNPc3E0lzdXUjS3VzM7PJLI5JZ3diSxJNak5XVPUxFCkbpGkav5g1K20bQdLu9b1i8YLa6ZZQtNM5JpUKgNBU7k7DDzYznHHHikaj3nk+kYP+cUfO2jeXpvOX5q6/ov5S+VbXibi41aY3F6xav7mK0twzGYgVWMmpwOoPbmGeQY8AOSR7uXvs9PN81aiunRajfxaPc3F7pMc7rpl5dxLb3EtuCfTklhVnEbMNyoY06Vwu3hxUOIVLqOdIPAzdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirWxqCAQRQg9MKvq78jP8AnKzzX+U8Ft5b163k84+R4jS306SSl7YKxqRZzPsVG5ET/DX7JXJQmYui7U7Cxav1j0z7xyPvD760P/nLv8gdahieXzo2gTOqma11a0ntzGx/ZLhWRiPFSRl41EXlcvs9rYH6RL3Ef2pnqH/OVX/OPumxmRvzKsr8Dcpp0M90/wDwMaVwnURa4dga2X+Tr3kB85/mR/znbpMdtc6f+VWgXF3eMGRPMutRiGCMbfvIbWvNz7ScQDvRsrlnJ5O40XsrK7zy27h+vp8Hzx+Un5L/AJi/85JebJfO3m+9vo/Kd3cmbzB56vd5L7gd7XTg20jfshgPTjX5BTVCJkXcdodpYezMQxwA4qoR6Dzl3feUf/zlD+Rdv+SfmHy15p8kzXVj5W164I0mszNcaXqloBMsaTn4yCo9RG6ihBPTDkjwlj2J2oddCUMm8hz7pD9h2fpX+Rn5gy/mf+VvlXzdeFf0tdQNaa3xoK3lo5hlem9PUK8wPfMrDLii8V2rpBpdTLGOXMfHd61lzrn/1/onnrD4a7FXYq7FXYq7FXYq7FWG/mLey6b+X3nrUYSVmsfL+pXETDqGjtZGFPuyvL9J9zlaKPFqMYPWQ+9/PqNwPlmA+tdW8UOxV2KuxV2Ktf5jFXGpBANDTY++Kv0d/wCcdf8AnIT8ify78iXNjceX28m+abKzabWb6NGvbjWpkHELHcleamQ/ZiJ4KOrZZCcY/U8h2x2TrNTmBEuKPQchHzr8HyfHf5xfnD5p/OfzP+nfMMrW2lWBdPLPlqNybbT4WO/EbBpX/wB2SEVPQUUAZGUiTZeh7O7Px6LHwQ5n6j1kf1eTybIuc3irsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdiq+JVkkiieUQpI6q8rglUDGhZgoJIXrsCcV36C31V5R/5xF85efNHTX/J3n/yR5g0tv7y4tL67Z4GoCUmj+ph4mHIAqwBBy0QJ5F0Oo9oMWnlwZMc4n3D9f2s203/AJwN/Mia6SPVvN3lywtCf31xbG6u5VHtE0MAJ9uQw+DK+bjz9qdMBYhI/j3l9G/l/wD84S/lh5YmttR84Xd5+YOowFW+p3Si00zmrEg/VoyXcEdVkkYZYMHe6fV+02oyAjGBjHeN5fM7fIPsaCCG0t7W0toIrW1tEEVpawRrHDDGv2UjjUAKB4AZeIgcnnJHiJPU/b5l8Ff85+a5YReTvy98sGSNtV1DWrjUxbnd1tLaAxNID2BkdU98xc+5er9ksR8TJMchED/OJv8Atekf84WaZdWH5H2N1cCkesavqF3aV6+mriGv0tGTk9MNi4ftNMS1dDpEX7/7H1lmS88//9D6J56w+GuxV2KuxV2KuxV2KuxVKdf0iLzBoWt6DOSINbsLmwlIFTxuImjNB/sshMXEhtwZPDyRn3EH5P56dV0y80TVNS0bUYTb6hpF1LZX0B/Ymgdo3WvehXrmvfXMcxOIkDYIse4oDFk7FXYq7FXYq7FXYq1/mThulbwK7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq76MVZT5Q13zt5W1G48y+RNU1bRNS0eNJr7VtKMg9GIvwRrkKGjKc2oBKCvI7b4nfZp1GPFljwZQCDyBfb/AOXX/OeOqW6w2H5p+V49VUEI/mvQFWC4ABNWnsnPpuVG1EZSx3OWRzGLzOs9l4n1YJcPkdx8DzHxfTOj/wDOXv5B6paC5ufOsmiTf8sup6fdRzf8DAlwv/DZkRzguky+z2tgaEOL3EfppJPN3/OZ/wCS3l63eXQ9UvPPN4Yi9rp2l2kkMTSD9iW5u1i9P5hGyMtQBybtN7N6rKakBAdSTZ+Q/W+DdO0n8zf+cvPzXuNSuF+rQTPFFq+qxITp+haZGx4QxFtmYLy4KTydyWbMfeRepnPT9k6YAfDvkep/HJ+x/l7QNK8qaDo3ljQrc2ujaBZQ2OmQtuwihUKCx7s1Kk+OZ0I8Ip85zZpZskskucjacfjkmp//0fonnrD4a7FXYq7FXYq7FXYq7FXYFfnL/wA5X/8AOMvmbXfMV5+af5a6Wdc/Skat5z8sW5UXa3ESBfrtqjUEodVAkQUYEcgDXMLLjMTt1ez7B7ahHGMGY0Y8ieR8j+h+d2q6Pq2hX0uma5plzpGpQBGn0+8iaGZBIgdC0bUYclINCK0OVPXQnGYuJBHly+CX4snYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FWT+T/OnmnyBrlv5j8oaxNour2w4ieP4o5UJqYp4m+CWNu6MCPp3wtOo08M8DDILB/HwfoF+WE/8Azjn/AM5MQHSfNnkTTvJv5qpGPrUOju2mi/C7tcaeY/3ZPd0ZC46gsuTiIy2OzyuuGu7MPFjmZ4vP1cP9br7jyeg3f/OCf5OTMWs9Z80WIJqEN5DOAPAcolP05Z+XcOPtRqRzjH5EJro3/OEX5IaXcR3F8mveYDGwYW17fhIHA6h44Y0Yg96MMI0472rL7T6uXIRj7hZfUXl7y35f8paVb6J5Y0a00LSLX+4sLOMRoDQDkabsxoKsxJPc5fGAjydFnz5M8uPJIyPeU6p4fdkmp4t/zkB+Zp/Kj8r9f8x2k6x6/dqumeWA3/LdcghZAO/ooGkP+rTvlOeVRdp2PofzepjEj0jeXu/byf/S+ieesPhrq4qlmq6xp+iWr3upXC21sgq0jEAADISkI8yzhAzNAMi8t6F5l846NZ+YvK+jR6voeoBjY6il9bIJQjFCQrNUbgjfNTl7c02ORiSbHk7zB7NazLATAFHvKef8q8/MX/qVB/3ELX/mrK/9EGl7z8m7/Qpre6Pzd/yrz8xf+pUH/cQtf+asf9EGl7z8l/0Ka3uj83f8q8/MX/qVB/3ELX/mrH/RBpe8/Jf9Cmt7o/N3/KvPzF/6lQf9xC1/5qx/0QaXvPyX/Qpre6Pzd/yrz8xf+pUX/uIWv/NWP+iDS95+S/6Fdb3R+aT6nous6DNDb6zZjT7uZDLFAsyTHhWgYvGSBUjYZsNJrMeqiZY9wDW4dTruzsuimIZQLIvv2fi3/wA5m6Read+e+u39yCYvMOnaff2UpqQ0awC2O56kNAa/RkMgqRe39nckZ6KIHOJI+2/0vlXIO9S7UtSt9Mgee4aiqpI96DK8uWOPmo3fqx5D/wCfY+veevJHk7zrb/m9p9lB5u0Ww1mKyOmSOYVvoEnEZb1RUpz4k03OaSXbsYyI4Lo97eMBPV8BfnF+W9x+UP5m+b/y2utVj1u48pXi2kuqwxmJJi0SS8gjEkU5065udPm8bGJ1VtUo8Jp5rlzFazBVLHYAVOJNC1fTH/OIf/OP2m/85WebvPPk9PPD+Sr7yZpVrqqTLYrfC6juJ3gdeJmhK+mVBrv9oZqtX2rHBVDiJ+xthitmn/OX/wDziNL/AM4o6L5J8wSeex500zzde3WmzO9j9RktrmGL6xGABLMrq8avUkggjpTfBo+1Rn4uIcNbrLFwvWf+cd/+ffEf5+/k/wCT/wA2Yvzafy3H5tS6kTRl0hboQrbXUtsP3xuo+XL0uX2RSuY+btwQkQI2GQw2Htf/AESV/wDM7Sf9wBP+y3Kf9EH9D7f2J8B3/RJX/wAztJ/3AE/7Lcf9EH9D7f2L4Dv+iSv/AJnaT/uAJ/2W4/6IP6H2/sXwGBfmn/z7PT8svy388fmE/wCccutDybo11qw0oaKkH1j6shf0/U+tvx5AdaHLsHbniTEeDme9EsNDm/MvyBoE/wCYn5g+Sfy30q9trDXPPerWuj6ZdXfM28M903FWl9MF+K96Cvhm01GqhgBJ3ro1RgS/R7/olP8Anf2/MryLT/V1P/snzWDt/F/NP2NvgHvd/wBEp/zw/wDLleRf+B1P/snw/wAvYv5p+xfAPe7/AKJT/nh/5cryL/wOp/8AZPj/AC9i/mn7F8A97v8AolP+eH/lyvIv/A6n/wBk+P8AL2L+afsXwD3u/wCiU/54f+XK8i/8Dqf/AGT4/wAvYv5p+xfAPe7/AKJT/nh/5cryL/wOp/8AZPj/AC9i/mn7F8A974E/N38vb78m/wAwvNH5da/qtnqepeU50tr/AFKyEi28jtEkpMYlCtQB6bjNrg1EcuMT5AtUo0aZ5a/84qf85M3ttb3tl+Rfmu6tLyJJ7W4SCHjJHIoZHUmYVDAgjKT2lpxsZhPhyRA/5xK/5yi7/kJ5tH/RvB/1Xwfynpv5/wCPkvhy7mS+S/8AnC3/AJyQ8z+bvLvl3Wfyo8w+TdH1m9S21Pzbf28TWunxNUtPMqTFiq06DKsva2CEbib8kjES+uNY/wCfVXm3TdH1jULL81rTWr6wsri5sNHh0t0kupYo2eOBWaagMhAUE9zmHHt6N7wZnAe98Pp/ziZ/zlI6KzfkD5uRmALIYIKg+B/f9s2P8p6b+eGvwyu/6FK/5yi/8sJ5t/6R4P8Aqvj/AClpv54/HwXwyxHzt+Rf5zflro6eYfzD/LPW/Jehy3UVlDqeqJHHE9zMrskSlJHJJCMenbLcOsxZjUJAkIlEjm8qzJYuxV2KuxV2KuxV2KuxV2KuxVWtL240++trvT72Sx1OxdbmzubeQxzxOp+GRGUhgQe+KDESiQRYL9a/+cZf+cnYPzLitvI3nm4jtPzBt4+OnakaRxayiDpTYLcgAkqNpBuvxVGX4stbF4LtvsM6a8uEXDqP5v7PwX2UCDuMyg81v8HZJXYCr8pP+c6PPJ1j8w9E8iWs3Kx8l6etzfItCpvtQAc7j+SJUUg9DXxzByz4pe5732Y0vBgOUjeZ/wBiPxb/AP/T+ieesPhrjgV8i/8AOY+oXmnflbfTWczQScG+NTT9WavtaRGE07vsKIOcW+0/+fetxPef84cfkddXMjSzzaPO0sjblj9cn3Jzz/JIykSX1THERiAOSU/n1/znF5f/ACG/MS5/LzUvyu81ebLq30+11A6xpH1b6sVugxCfvXVuS8d9sshppzFgbNOXV48ZqR3eM/8ARUbyh/5Ynz5/05f9Vcn+Sy/zWr+UcPe7/oqN5Q/8sV59/wCnL/qrj+Sy/wA1f5Rw96B1H/n6z5E0q3a6v/yQ8928CAlpGNkBt7mXBLSZIiyGcNbimaBfd3/OPf526L/zkP8AlR5b/Nry/o99oOkeZjci10vUTGbmP6tO8DczEzLuUqKHMYii5QNsM/PG9h03VoL64IWG307nIx6UDtXO09nCBp5H+l+h879rY8WrgB/M/S+KB+UXkH/nOeDW7Kx8zyeV9a/KW+t4TrVtbLdM8epJIz28iM6fCTByBB2I+YyHaPa8cUhwC+92nsz2flxCZkfSa28+9BD/AJ9N6Pwav50X3qGnEjSIuNKb7G4zXfy/L+YPm9V4A72P6/8A8+fNF161NrL+eWoW4IpyTR4fxrcZi6rtWWcVw0yjj4X61flv5OX8vfy+8keQ0v21VPJmh2GjJqboImuBYwJAJGQEhS3CtK5qS2h+f35xf8+4bD83PzO85fmRP+a13o0vm6++utpa6ZHMsH7tIwgkMylqcOtM3Wm7ZOHGIcINNMsNm3mv/RJvSv8Ay9N7/wBweL/soy/+Xz/MHzR4AeTfnp/z7i0z8ovyl88fmPH+al1rkvlWxW5j0l9MjhWYtLHFxMgmYrs9emW4O2DmyCHDzPexli4Rb4+/59jecP8ABn/ObWg6PPPLHbfmDomr6D6K8ijzLCL+LmOmxtTQnpX3zUa+NZC24zYft7/znt/zjN5g/wCcoPyZsfKPk250vT/Ofl/XrfV9F1DWZpoLaOIRyQ3aloIpm5PFIQPh+kdcx8GXwyfMM5C1v/PuGJ4P+cNPybtpCDLaQarbykdC8Oq3cbUPhVcqmbKvQ/P35Nfnj5o83atrvlP/AJyk138vvL1/6RsPKFnoGkXsNpwjVH4z3MbStzYctztXEFLEP+he/wDnJP8A9jX8zf8AhK6D/wBUseIdysh8ofkj+feg+a9B1vzF/wA5Za/5z0DTLoTar5TufLujWkN/EAQYXnt4xIgJINVNcBKss/5yr/8AWbfzu/8AAP1T/kw2ZGj/AL6HvDGXJ/Kr+VGs+Y/J3/OQv5P+dPLflO78/ax5c8y2F9pXkqwcx3WqTxvVLWF+EtHkOwPA/I5uO1cUjIno1Yjs/ce//wCfgX/OTOlWN7qeo/8APvvzxY6dp0MlzfXs2oSpHFDEpaSR2Om0CqoJJzSDBfUNxKQ+T/8An5V+e35haGnmXyJ/zgz5r83+XpJ5LWPWtK1WS5tzNDT1IxImnEclqKjGWDgNHmtso/6Hz/5yn/8AmePn3/pNn/7xuR8LzC27/ofP/nKf/wCZ4+ff+k2f/vG4+F5hNpfq/wDz8K/5yS8v6VqOu65/zgF520nRtIga61PU7rUJYobeGMVeSR202iqo3NckMFmrCLVPKP8Az8M/5yE866VpfmHy9/zgZ501vy5rMfr6Xrmn6jLNbXEVSpeKRdNIYVB6ZOOmBNSkAxMj0fjJ/wA5pec/NHm782/P/mrzB5L1D8ude128jn1HyXqJZruwP1eJVSVmjhJJUBvsDY9M3ef9zp4xhLiHeGuO8jb+kP8ALX/nK3/nGuy/L3yBp1/+e/ki11K08uaVBfWsus2iSRzJaRK6OrSAqQwIIOc6Yknk3gvD/M3/AD9e/wCcT/K/mPXfLcuoeZNak0K9lsm1fSdNW7sLoxGnq2s6z0kjb9lqb5MYZHogyST/AKK9/wDOJf8AJ50/7gn/AF/w+BLuRxO/6K9/84lfyedP+4J/1/wfl5dy8TR/5++f84lAElfOg/7co/6r4nBIdE8T3v8AJ3/nPv8A5xk/OfStY1fSfP8Aa+TotGvEspbPzfNbaPcTM8YkEkEUsxLpvQkd8r4Sm3wD/wA/OPzl8hfmE35QeVfIfm7TfNyaS+qa3q17o17Fe20YlWO1hjkaB3UPUMQDvTOk7CwyjxzIo7BozS6PypzoHHdirsVdirsVdirsVdirsVdir7b/AOcXvJ3lP84vIv5lflL5lt4YL23nt/MHlfXooV+uWVw6G2klEtOTRqVjDRk8SGPc5OEeKx1eb7b1OTRZsWohuPpkO8c6+/f3Plfzn5P81/lX51vvLWuLJpPmTy3cRzWt9bkqHAIe3u7aTurABlIP45B3mDPi1eIThvGQ6/bb9jf+ccfzfH5x/l1b6tqDRr5s8vyjTPNsCDjynVA0d0q9lnT4tq0avTYZl4cl7PnfbXZ35PUED6Zbj9I+D3l3SKOSaWRIYYVLzTSMERFHUszUCj3OXSkBzdSBeyDstY0a+gnvbTVLTUbGySSa+ls545+EUILyMRGxIoFPXK55ABzZyw5I+mQIvv8AN/P75981XHnrzz5w853TrJL5l1e6vVZBxX0nkIh4jsPTC7Zgx5bPrGm04wYoYx/CAH//1PonnrD4a44FfHP/ADmp/wCSqv8A/UOartf+5Lvewf78Ptn/AJ92f+sY/kT/ANsab/qMuM8+lzfVI8k0/OPyroeoefL2/wBR0+G+nubK0AeVASoiVwFB60Na52/YGOMtLuP4i+b+1OWUdbQNekfpeYf4K8qf9WO0/wCAGbrwYdzzn5if853+CvKn/VitP+AGPgw7l/MT/nPmH/nLDyv5esfys1Sez0m3glVG4uigHpmu7TxRGE7O37GzTlnFl9bf8+yv/WM/yr/19W/7qM+cDP6n1LH9Ieh/85IadNqy3GnQEia60lljI8S7AZ1/s+OLSzH9L9DwHtTIR12MnkIfpfkN+VNz/wA5Tf8AOMOtfmM/5VaXot7Zefr21u9Yk1y2luSrWKypCISjpQUmavXtms1HZOSUr6O50vbuGEBF9GeTP+civ+fj/wCYTakvkzyd5I106QY11Ix2fpei0vLgGM15GCTxPTMDLoxiNTNO1wdoHPZxxumGfnl/zlh/z8m/ITy1b+bfPXkXyNpWi3Extkla1Sd2kC8vgjhv2Y0G52plEsMaJibr8dzlR1Bupx4bfsT+TPmzVvPn5Sfll5215bdNb82+WNL1fVktVKQC5vLWOaURKxYhQzGgJO2YzlPyj/Mr/nLb/nOvU/8AnJX84PyX/wCcfPI/lPznZfl7d8rWyuII47xbDjEBLLJc3tujn1JKfD92ZQ04ERKR2LHiYJ+Yn/OVf/P078pvLM3nH8w/yc8peW/LNvPFb3Grvaw3CRyTtxjDLbajM45NsCVpX5jJY9MMh4YncqZU+a/N/wDzn9/zkt+bvkrzB5F8+r5UtfLnmW3+q6rBp+mOkrRc1f4JZJmKmqjembrQ9liEhOfMNM8nQPnn8mvyZ/5yM84+frX8z/8AnGnyxP5i8zflXqtlfveW91ZQC1uTWSJJUu7iDmkqKysBUFaqcxu1ccOO75pxE0/Tz81v+fjv/OXP5DjRrD85v+cWfLvlHUNfs5p9NWXW3lW8W3KRzugtZLgIA0i1VmruPnmthphKJkDybTKn2V/z7r8x6Iv/ADh3+UD3esWFlc3Mer3M1rJcxI0bTateSlKMwIpy79sxpDdkGYfmH/zjd+Un5k+cdY87at+c/n7RNQ1r0TPpfl/z3c6Zp0XoxrEPQtIZAkdQtWp1O+IJCsM/6E1/JP8A8v5+a3/nyb7/AKqYeMqynyJ/zjF+UP5f+cdC87aZ+df5hazf+X5mnttK13z7dajpszMjR0uLSaQpIAGJAPffIk2qr/zml+b35feVP+cd/wAy9Ov/ADRps+tebNFuNF8u6Hb3cUl1dXV4vpKEiVixVOXJ2pRRmb2dhllzxA72GQ1F/Oj/AM4y3s6/85if845WPKkQ89aUGHjSXNj2vlPEYteKPV/Vd+dDFfyf/NR1NCPKOtU/6QZs0WM+oV3t5fCv/PpK5lu/+cQNMmlarf4t10fR6keTzzMpklEeT75f80Py8j/MGL8qX85aYv5kT2H6Uh8lmdf0g1mAT64h68KKTXKkrvOP5nfl/wDl9eeWdP8AO3m/TfLF75yvl03yrbahMIXv7tioEEAP2nJYbe+KvOf+crZGh/5xq/PKRTRk8masQf8Ao3fJ4zUge5WC/wDOBU8lz/zh5+QE8u7yeWIy3/I+UY5JcUiSgcn4Kf8APy5gv/OTn5vOUMrC406g6n/jlWdM38DWjj8fvLSfrfrh/wA43fmx/wA4W6f/AM4//k1Y+cPN/wCUVl5ns/KOlQa7aanJoyXkV1Hbosi3CyDmJOQ+LlvXc1zQSu9m4Pr38v5v+cavzRtdRuvy1t/y9882WjSpb6nc6Fa6bexW8si81jkaFGVWK7064OKQ6ppGeerf/nHj8sdJi1/8xNP8g+SNEnuEtIdV1u102ygedwSsSvMigsQCaDwx4pd608m/5Xh/zgd/5cP8mD/0c6LhufeUbLh+d/8Azggen5hfkyaeFzouPr70qM35z/8AOA8zJ9Y89/krK42jMk2hsevQVGCpFX54/wDPxHzR+QXmPyp+VJ/JPVvI+qTRa3qEmunye2ntIsJtVEZuDZUIUsTTlsTnR9iRyAyMrqg4+ajT8tM6BodirsVdirsVdirsVdirsVdir65/5wv80aR5X/NTWLjXdYtNF0y98uXUM19fTpbwgxyxTAc3YCvwbb5ZikIysuh9otPLNphwgkiQNAX5fpZr/wA5jeefye/MW08r6t5N81W2tec9AnksbuO1gmCzafLV/jmdEQ+lICVoTXn7Y5ZRkbDi+zuk1Wl44ZY1A78xz/a8P/5x0/OhPyS87X+s6haXWp+W9d05rHXdNsyold429S2mXntWN6ildw3tkIkx5Oz7Y7O/PYeEGpA2P1fFm/8Azkb/AM5Oy/nLp2jeWfK9pqXlnylb+pP5i065lQtqVxVfQEhipWKMcjwJILEE9MlOZnzcbsfsQaGUpTIlI8iOg6vlnR9W1by9cteeX9UutDu5EaKWexleAvG4KsjhCA6kEgqwIyFO8nAZPqAPvF/el6qqKqKOKqAFUdh2xZP/1fonnrD4a44FfHP/ADmp/wCSqv8A/VOartf+5Lvewf78Ptn/AJ91/wDrGP5E/wDbFm/6jbjPPpc31Qcn0j5h/LbQvMmrT6xe3mow3M8cUTpbzqsQEQIXirI1Ca7+ObPSdr5tLDggI15h0uv7A0+tyeJku6A2Pck3/KmfLH/Vx1f/AKSI/wDqlmV/oj1XdH5OH/oS0f8AS+f7Hf8AKmPLH/Vx1f8A6SE/6pY/6I9V3R+SP9CWj/pfNg/n7/nFr8u/zH0C48ueYdQ102FyCHMF1GjgEU2PpHKM3beozR4ZV8nI03s3ptPPihxX72dfkf8Ak35V/IP8t9C/K7yXcX1z5d8vvcPYSalKJrn/AEmZp3DSKqA/E5pt0zUk2bd/EUKYR+cP/KR2H/MAv/Jxs7X2b/uJf1v0PnXtf/jUf6v6XzV+ZupDRfJGu36cUkit24PQdaV65utRLhxkvOaSHHliGO/8+uLjWtc/L/8AN/zhq85uI9Y85mz0xySSIbG2QMP+DlOec6zKcs931vQYY4sYoUw//n7Rq0Mv5a+XND9F/rFsLnUGnNOBSakIUd6gx1OW6SH7rJL3OPrZ3nxw95fob/zjZt/zj5+SX/gEaF/1AxZgy5u1B2fj9+XfmW88mf8AP4fzxZajbyRWPn5tV0qyZxRW56fFcxOhPX44OP05kZZHgiOlMYyBuuj9Xv8AnLryYnn3/nHD829AIJnXQptRsiFLkT6cRdxkKKkmsVMloMnh54nz+/ZMxYfywS/vbRmQcWdOQHzFc7ifI04YfbP/AD6Q/MG58vf85Rec/Id5L/on5g+VJzDzcj/S9JmWeOi9CTFJJ9GcTriePdy4cn6M/wDP0H/nHXz3+eX5V+T9W/LDywnmbzh5H1eZ7vT0eOG6k0q8t2WcRySsqkJIkchWtTTbfI6TOMfEDyITKNvQ/wDnHb/nFb/nG/zJ+Qv5M67r35JeUdU1vVPJmi3Gr6jcabE8s9y9nGZZJGIqzM9SSepzHlI2aZPQfLv/ADjX/wA4Xeb11NvKv5Uflz5kXRLyTTtYbTbW0uha3cX95bz+mW4SL3Vtxg4irn/5xr/5wuj80Q+SZPyo/LlPONxZnUYPKzWtqNQezU8TcLbV9Qxg7cqUxsq35m/5xq/5wv8AJVjb6p5u/Kf8ufLGn3l3DYWl9qlpaWkUl1cGkUCvKVDO52VRucHEVV/O/wDzjB/zjtonkDzxe6R+THlKwurLy/qc9pcQ6bCrRyR2sjoysBUEEAgjMnT6jJGYAkeYYyiKfzS/84usW/5zI/5xuZjyJ876SWY9STJvmw7X+thi5P6vfzr/APJPfmr/AOAjrP8A1AzZp4fUPe2vg7/n0R/6x3pf/gW67/yciw5PqKA94uP+cWrub/nNCw/5yw/xlEtpZ+Um8sHyX9TJkYmKSP1vrXqUA+OtOH05G9kor/nJ7/nGC6/5yG8yfkTr9t5wj8rD8m/Nsfmaa3ktPrJv1jeFvRU809M/uqVIPXpiDSs2/wCcsv8A1mb89v8AwDNX/wCodsMealg3/OAf/rG3/OPv/gLp/wAn5sZc0B+Ef/PyK/tLL/nKH83Tcpyrc6aVqK/9Kqz7Z0eDLGGkjfn95aJAmT9QvJv/AD6t/wCcRPMvkzypr97oPmQ3WvaLYahdcNZkQepdW6SvxAj2FWNM0U9RIk1VN3CH37+SX5H/AJcf84+eRbP8u/yv0L9B+XbSaS5lMkjT3N1cTEc57md/ikcgAVPQAAUAzHu2SC/MTy/+Qn5nx2Wm/mZD5P8AOEGh3Ekllp+s3FrOttcEenIwjkkor0HEmlR0yQJHJWEab/zi3/ziRrMTz6P+TfkDVoYm9OWazsrSdVYD7JMfIA07YeOXetPgX/nKH/nAb8vvzh/PDyj+XH5V6f5c/J9tO8iXvmPUrm10zlFecdSgtFV44WT4l9SoYnpmXg1EccCZCzbCUbfS/wDzit/z7/8Ayj/5x78i6hpvnjQ/Lf5q+dNcu2vdf806xpFtPbxRR1EFtZxXay+lHGm7GoLMSTtQDGy5eM7CmQFPxx/5yv8AzF8m/mJ+cmvt+W3ljQvK35d+U3fRPK8Ohada6fHf+g5FzqEv1aKP1PVlBEfKtEUEfaOdh2ZpziwjiJJluXFySs7Pm3Ng1uxV2KuxV2KuxV2KuxV2KuxVrr1xV2Kt4q7FXYq7FX//1vonnrD4a44FfHP/ADmp/wCSqv8A/VOartf+5Lvewf78Ptj/AJ92f+sY/kT/ANsab/qMuM8+lzfVByeTf85P/mj/AM5b+Vvzb1DRvya1PRrfyRb6XYSpBe6ZHdTLdSq5mrKzA0PEUHbNppOzJ6jHxx5XTpdf2zj0uTw5c6t8+f8AK8/+fhf/AFePLZ9/0JD/AM1ZlfyFlcMe0uF3/K8/+fhf/V48uf8AcEh/5qx/kLKv+iXCwrz3/wA5Uf8AOfPkPQ59c1TW/La20AJY/oSKu3+zynN2RPFHiLfp+3ceefCOb9Nv+cJPzZ86fnf/AM44eRPzK/MK5trvzZr73/6Sns4FtoT9XvJYYwsSkgUVBmnkKLvoysWn/wCcP/KR2H/MAv8AycbO19m/7iX9b9D537X/AONR/q/pfEn/ADk5q66T+VWvScuLSQuPn8ObPtCfDiLpuyYcWcPaf+fZXl86L/ziT5Rv2PKTzZq+sa2zH+We7eNB9CxDPOchuT61ijUAHyt/z9W1CebSJra6KRwabawxWTU4kpKhlfkSdzzP3ZudPjrRGQHORdBqspl2iI90R9r9QP8AnGxlP/OPn5IkMCD5H0IqR0I+ow5o5c3ow/En/nLPVh+W/wDzn5+Wn5jNKbeLT/PWky3Mi7EwyyJbyjxIKybjwzZ6jHWGB8nUaPNeoyR8/wBT+hbUbOPUbG+0+U0iv7eW3kagb4ZUKHY7HY9M1glRt3D+QfzboTeWPNvm7yu8nrP5d1vUNM9UqV5i2uJIg3E7ioFc9ChIZIA94DgEVs8//L/z35m/Ir87/If5v+VdNTVdV8oaot1DpUpKpeRTI1vPbFl3X1YZGQHehNabZzXaWlPGZDk5GKWz+iiX/nOrzLqHlvUk1f8A5w2/PLSr2ewnV4YdDiuYV5Qt8Qm9WM8anrw6b07ZpeDzDcnP/OPf/OXX/OL/AJW/Iv8AKLy75h/PzyRpGu6N5T0q11fSbvV7eK4tbmO2QSwTRswKvG1VYdiDkSll/lD/AJyV/wCcC/y/GuL5H/N/8rPKa+ZtSl1jzCNK1Gythe6hPT1bqf0yOcj0FWO5wKuk/wCcmP8AnA+Xzvb/AJky/nD+Vj/mBa6c2kW3nI6jZfpFLBm5tbLcV5iMsa8a0rjSqnnD/nJ3/nBL8wrGw0zzx+cf5W+bdO0vUINV06x1bUbK6ihvrUkwXCJIWAdOR4ntiry//nJP/nPP/nHyw/KTzho35b/mlovn3z15s0y60fy7pvl+5jvfRluozE09zIoZIo41ct8W7EcVFc2PZ+iyZ8oIGw3thOYAfgv/AM4woI/+cy/+ccIxuE88aUoPykpmT2v9e3Jjh+kP6uvzr/8AJPfmr/4COs/9QM2aeH1D3tr4O/59E7f84d6XXv5u13/k5HhyfUUB6Vd/85A/mrF/z8C0v/nHiO2tf+VSXXkdtcmujp8huDqAhlkCi95cAtUHw09sjWyUZ/zmB+e/5r/k75w/5xq0T8tbK3vLL8z/ADvFoXnOObTpL51sWkgVmjaNh6RAkb4j8+gOICvYv+csv/WZvz2/8AzV/wDqHbDHmpYL/wA4B/8ArG3/ADj7/wCAvH/yfmxlzQH4V/8APxnSbfVP+cpfzdW4kEaJcaaWLdKDSrM50um04y6WF+f3lolKpJhpX/OP/wDz8rfStLfRtb/NQaQbOA6RFB5lljiW1MamFY1F2OKhKUHYZrji0wP17+5mDJ9y/wDOJH/OGX/OTWvzal5n/wCcr/zj/MSw8uvHLa6R+WEXm2+9e9Dco3m1Ca3nPpxU+xGjcm6sQNmwssoA1DdmAerwj/nOz8mv+cK/+cevL195H8gfl9caj+dWu2Qnt5H1zU54dCtpGqLy7Vrkq0sgB9KJutebbAcsnSaaeaJkdohEpVs+kf8AnzGH/wChf/zFDOzsvniccnYsdrSAd8wMgosw9U/5yc85fnh5T/5y5/KPTPyA0by1rnnjzz+XGt6a1l5pmkgs1tbLUIL6R0eNlIf91QDeuShC4knki3if/OSv5l/8/BPLH5P6/N+aGgeQfJ/k/WmTRtb1nyrdyXGoCK+rH6cfqueAfdSyioGbPszDgyZQCTfMBryEgPx4ACgKooqiigbUA6Z1rit4q7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FX/1/onnrD4a44FfHP/ADmp/wCSqv8A/VOartf+5Lvewf78Ptn/AJ91/wDrGP5E/wDbFm/6jLjPPpc31QcmZfmosI853TxqvqtaW31hl+0SA3Dl9HTO59nv8V/zj+h8y9q5Aa0/1R+l55Q9xvm8DzVjva4nwP3YrY73yt/zl6eP5TauW+FfTf4iNunjmt7UH7ku47EI/MDd9Lf8+yHR/wDnDL8q2Rw6mTVhyBqNtRnBzz6f1PrGP6Q9o/OHbzHYk7AWAqT0/vGzs/Zv/F5f1v0Pnntf/jUf6v6X5u/85oSaxeflne2Pl7TL3XLuRGBttOgkuZKkGg4xKx37ZkdsZYxx1e7i+z2CU8vFWwfpZ/zib5Nm8gf842fkt5Tu9Ok0q/0zyrYNqOnzIY5Yrm4j9eZZEIBDB5DUHvnBHcvp42Dx/wDLSf8ALP8AO3z/AP8AOTei+f8AQdD816b5F8/LommrrkcNwAE0+3adEWetFWQsBTbMnJnnwRgNgA4mPTQGWczuSR9gfamkabpWj6Vp2laHaW9ho2nW8dtpVjaKqwRQRqFjSJV2CqoAAGYrmPi3/nOTyL+Wt7/zjt+efmufy1oF1570PytfajoutyQW76hbX1sqywSxSN8auroCKb5ZxzlQJ2DVwQiTICieb6i/KTzRF51/Kz8t/N8Vwt0vmXyzpWpG5U1V2uLSORiD/rE5AhtHJ/PJ/wA5yfl/rPln/nJ382LmHSL240fWJ7TXxqkNlMLSNb+3RnUzBfTqrg8jXrnZ9l6iM9PEWLGziZQbfH/5c6I3nv8A5yB/JnyF9VN/b+ZPN+k2uoWSipe1+tI9wabbLGrMfYZgdr5uHYM8Qt/WZ+d+uy+WPyX/ADa8wW8voXOieTtbu7SUkjjNDYzNEa1r9sDObhzDkPys/wCcav8AnKj/AJw+s/yG/K/Sdd/KfUvNHmby35c03TfOer6f+Xc2rRfpSK3X6wHvIrSRXYvU8i1W65ZMHi7kB7cf+csv+cJxUn8ideoOp/5VXdf9kWRqS29Y/KT8x/8AnGb869al0byR/wA4/X6pbCt/rmsfl3+i9Ot2IJVJbm6tY1DNQ0AyJsJfTH/KnfyirX/lVfk+p/7Udh/1Qx4ir4b/AOcvfzM/5xO/Lf8AL/z15Ag0byjL+Zuv6Nd6fpGg6BpVlJe2dzNHSOW5kgjUWwQkN8TBv5Qc2PZ+HNkyCjQG/OmuZAD8Jf8AnGIFf+czf+ccVbdl88aUGPiRJmR2x/eFjh5P6ufzqqfye/NUAVP+EdZ2/wCjGbNPD6g2l+Rf/PtX/nK3/nHf8nP+cYtO8mfmb+a+i+TvNMPmXWLubRL5pVnWGd0MTkLGwowG2+TyRPEdlD74P/Ofn/OGXqer/wAr98r+rSnqcpuVPCvpVyvhKW2/5z+/5wyYqzfn95YYxmqEtMSD4j91tjRV83f85ff855f8446r/wA44fmnoH5d/mVp/nXzX5r0WfRtG0zTop5RzuwEeSR2RFVUQsa160y/Hp5/VWyOIPpj/nAOn/Qm/wDzj7Qg/wDOsJuP+YibKJcyl+CX/PzA3v8A0ND+ba2fIFrnTQaV7aXZ5voGY0keHz+9oNcb9QfI3/P1v/nF3y/5J8m6DqMfnE6houh6fYagY9HLoJra2jjk4t6o5Dkpoe+aU4pW3WGf6Z/z8O0H89J3/Lv/AJxZ8ma95p/NbWYWGn3mv2IstH0aIni+o6jJ6jt6UQNQoFXai98tx6cD1ZDUfvQT3Pgj83/+fe3556RoXnz80/zS/NXyOqBLrW/OHm3UtQv3lnlYFm62Qq7tRI0Wm5VVHTN0O08RxjHCMmnwzdl9Rf8APmWg/IP8yAG5AeergK3iPqkG+c/l+ouQGQf85Z67c6D/AM/Dv+cEpobt7SLUI9V066KNxDx3cnpcGr2YsK4gngIQ+sP+c4vLtv5k/wCcXPzZhnBro+mx6xbkVBEunzxzqaj/AFd/bMrsyfDqIn4Mcn0v5jh2/AZ3BcNvArsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVf/9D6J56w+GuwK+Ov+c0wT+VV/QV+A5qu1/7ku97B/wAYD7R/594XVtD/AM4Z/kSstzFGw0WcFWdQQfrk+xBOefS5vqcTs+ptX8q+RddvW1LVtP0++vnRY2upJKOVSvEEq4rSu2XY9TmxioyIHkS0ZdHgyy4pwiT3kBLf+Ve/lp/1ZNM/5GH/AJryX5zP/Pl8y1/ydpf9Tj8g7/lXv5af9WTTf+Rp/wCa8fzmf+fL5lf5N0v+px+QQV/+Vf5R6rbtZ6p5U0TUrR/t2l2FmiPzSRmX8MjPVZ5CpSJHvLOGiwQNxhEH3BlvlnRPKXlDRLDy35S07S/L2g6YpTTtF01Ire2hVmLMI4o6KKsSTt1yjc7uVsHyt/zkX5jiMOsX2hzi8uNIsPRleI8lEwLMUDDYle9M7PsSM8WlkSKs7fJ879pMkM2uhEG6jR+b4z/5wq/5y+8geTbP82LP88/PsHlTU7jX7dvLtpexXDtLapC4dlMUbigY03zne0MmTNk9XR67svFi0+KgRu/QTS/+ctvyN8z20reRvOCectQIK2unWNvcKzyUJAZ5YkVVr1JO2VabQZc8hGIbtZ2ng00TKR5Pwo/5za/JG30GbzL+Zg1CdNZ833txqeqrbyvGjTzsWb4VYdK0Fe2bztLsyOCFjfZ5zsjtieqmeLay/f8A/wCcbnjj/wCcfPySVpRyHkjQgxd6tX6jDuSSST885c83shuH5ff85lf84+/p3UPzP8y6O0s2pa5qMl5PCrMa/CqgUBIIIUbdM6rDoBPRRmBuQ8TqO1Dj7QlCX0g0lH/OCv8Aznf5W/KryHpn5A/85BNeeVm8jlrHyN52NtNc2k2nM7GKzuxCjvE8BPBG4lWSlSpX4ucyYJRPJ67FqYTF2+iP+cp/+cxf+cbfzB/5x1/Nfyt5L/NfS/MHmLVNKEGnaVBFdB5pUuInKDnCqjZT1OZOgwTGWM62BbpyFU+Wf+fR/lL8tfNafmr+Y/m/QNHvPOnknzNYJ5L8x6hw+taek+nyJKLdnI486mpA75DXZ5ZZm1hGg+wf+fkH/OS3kH8tv+cefOvkWy81Wl5+Yn5lWh0LQNE064inuYY5nUXN1cKvP04kjqvx05FgF70r0samJHkEyKO/Kj/nCD8mPyrt7HU/yy/On8xvy9l1GC2utS03SvN6JZTs8aMwltJopIXr2JUkD7JGRyZ5TJukiNPu+XzT5U0PTkl1PzdptvaWiKkmpX9/bpWg+1JIzKtTSpyhLy3Q/wDnKP8A5xy8za7deWdC/O/yZqWuWXL6xp8er2ob4DRuLM4V+JO/EnDSqv5oxfl5+aXlS58o3P50T+SbO9kVrzVPKXmO10vUJIqENB9ZUu6o4PxcKE+IyUSY9L96vgTWf+cAf+cK/L+i+YNWsvzC1GbUYLK8vYjP5stpZJrlInkUuxHJyWArU75s9P2nnhUYgV7mmWMPxp/5xhYt/wA5l/8AOOLvQE+eNKLdh/eZZ2wbnacfJ/XjrOmaT5h0jVNC1eGK+0nWbWax1OzdqLLbzoY5Y2KkGjKxGxzSgkG218b/APROv/nCzv8AkfoxPibq9/7KMtOefeig7/onX/zhX/5Y7Rf+kq9/7KMfHmtBv/onX/zhX/5Y7Rf+kq9/7KMfHmtBcf8An3h/zhi0fov+SukvB2hN5ehR8uNwD+OTlq8so8JO3cgRD6t8m+UfKH5ceU9E8leTdNtfLvlPyxai00XSIHPpW8CEtxBdmY7kkkkmuY/Nk/l7/wCc7/P/AJa13/nI783fMWjXMWraU+pRWlteR0aKSWws4LSUowqGX1Imow2IoR1zq8Exg0seMOMRxSfq35P/AOfXX/OMPmPyf5U167l82R3euaNYX92ItXCKJLm3SV+K+keIqxoO2aefamXcDhr3Noxh9h/kf/zjv+SH/OJnlLXbXyNbJolhfSNf+avN2uXiy3k6xj4frN5LwpFCv2V2Ub9yScCeSWU2dyz5PzyP5k+Rv+fk3/OR3m78j73Utbtv+cffyv0CfVNLXR7s2D69rCXUdsNRmcKSYY1dhAjDofUO52y4T/LRsfWfsCKt+kP/ADjv/wA44fll/wA4weTNR8j/AJZJqC6Tq2qS6xqFxq12Lu5e4ljjiI9TigCKsYoAPE9TmCTZZPx8/wCfmn5q+WNK/wCcxP8AnGG5g1lEP5VXWnX/AJuv7eQMLJZ9UjmKyFSeLJFEXYfysPHLhjPBZDG937q67o/lT8zPJmp6Hqf1fX/J/nXS3trn0JqxXVjeR/ajljPRlaoZT75XCcschKJohkRb8OP+c+f+cZvyg/5x98sfljefljpF1p155j1m+tNZnur6a8eSKG1WSNf3rELRjWoGdP2TrcuolLjN0B97jZoAB+aObtpdirsVdirsVdirsVdirsVdirsVdirsVdirsVdir//R+ieesPhrsCvO/wAyvy+sfzG8v3Gg35pFMpHLwrlGowDLHhLl6TVHTz4g+PY/+cHbW2QQWXmzU7O1Qn0bWC9njjQE1oqI4UfQM038hYy78e02QCl//Qkn/f66z/3ELn/qpj/IONP+ifI7/oST/v8AXWf+4hc/9VMf5Bxr/onyO/6Ek/7/AF1n/uIXP/VTH+Qca/6J8jv+hJP+/wBdZ/7iFz/1Ux/kHGv+ifIzDyb/AM4iWXlvVoNTu/NOq3wgYMIZb2d1NP8AJZyDluHsXHCV1bRqPaLLkFAkPsBdJs/0YulPGHtRH6ZRt6j3rm4EAI8PR545DxcXV41f/wDOOP5X6ldSXlzocTzStydii1r92YstBikbIc6PamePVn3lT8ufKfktCmg6XFaE9XVAD+Ay/Hgjj+nZxs2qyZt5m2K/nF+Uun/mxon6Hvm4KBQN8/8APvlWq0ozxot+h1x0suIPEvy7/wCcU7ryPrFpft5v1a8tLGi2+nSX00kCov2UETOUCgbAUpmvwdj48c+IfsdtqfaHJmhw8vcafZH1SB7UWksSvDx4NGQOJ+gZuRAAV0edM5GXETu8g1r8gvy1168a+vdCgM7NyLBF6nMaehxT3Ic3H2lmxigX5N/85K/kov5TfmXrdnY2Bg8p+bCdU8qXapSP05ABPbBtxzgkqG70INKUzElpowBHJ77sbXjV6eJv1R2l+v3F8tQ+T1tppJLW/uLRJm5ypBK8QYjoWCkVI7E5rz2XAysu58UorUfKtrqEfGZ2klJq88hLOx6VLHc1p3y2eghKPDSBMoT/AAreV/47mofM3Up/42zG/kiDLxSrjylFNH6V9f3N7Fy5+jNPJIvIbA0YkZbDsvGOaDlKAm/L7SJDVVCU6bdMZdlYyvilQ/5V1pn84yB7Jxr4pT/RvLNpo0nOBuR8cycGiji5IOQlS1Ly5Jc6jBqllezadf2riS1vLaRoponB2aORCGUjxByGq0EcxslMZkK31bzt/wBT/wCZB/29r3/qrmH/ACPBl4pd9W86/wDlwPMn/cWvf+q2P8jwXxS76t51/wDLgeZP+4te/wDVbH+R4L4pd9W86/8AlwPMn/cWvf8Aqtj/ACPBfFLvqvnX/wAuB5k/7i17/wBVsf5HgvilMdOHmu2dmu/OmvXkbDi8M2qXciMD1BVpSCMyMHZsIGzuxOUlA69oEWtQrC9AF+75ZlarSjNGixjKmoh+YUEUcEP5k+aIYYVCQwx6zfKiIooFVRMAAB0Gaw9jBs8YpnCfM9xbvba35x13W7aQUktL/Urq5ib5xyyMp+7MvB2bDHvVsZZCWNweXtY0rUbjUvLvmDUfL9zcoYpbnTLqazkaOteDPC6ErXehNMpzdkxnK0xyEJ9aT/mBHKHuPzH80zxg7xvrN8yn2IM2Rx9kQjKypylA+YfLyeYA73kz3FzIS0tzMxkkdj1ZmYkkn3zN1GijljR2YiZCnY2vnnTLa2sNP8/+Y9P0+0UR2thbateQwRIOipGkoVR7AUzAHY4tn4pZYL7Wrm2ig1fWr/WTASY2vrmW4IYijEGVmoT0za4MEcUaA3ajIlZl6HYq7FXYq7FXYq7FXYq7FXYq7FXYq4b4quRJJX9OJGlkoWCICxIUVJAA7Y2FWEgCu5B6UBJNelAKk19sbUbvatf/AOcdfzr8t6LpHmHUPIGoXOmazaRXkbacv12e2WUcliu7eIGWKSm5Xiadzhp12LtbS5ZmEZiwa32+V8w//9L6J56w+GuxV2BW6nGldU+ONK6p8caV1T440rqnxxpWsU27Ch2KuxV2BXYq7FXYVYP+Yf5deVPzR8tXXlXzfp/13T5j6lrPGeFxaTgELPbyUPBxXwII2YEZXOAk5Wj1mXSZPExmj17j735R/m9/ziV+ZP5am81fQoG8++S4SZP0rp0ZN9axf8vlmKuKfzx8lzDlGUeb3vZ/b2n1VRkeCZ6HkfcXysrq4DKwYGu49tsg7ym/pxVvFXYVa+nFXYFbwq19OBXfTirvpxV304q76cVbwq7ArvpxV344bV2DmrsVdjurt8aCtYq3irsVdirsVdirsVdirsVdirv8642ql68XJU9RebmiRggsxPYDxxJpNPWfJv5Hfm95+KN5Y8garc2jsFbVLyI2NolehaW54be4BGIN8nB1PaWm04/eZAPIbn5B9ceQ/wDnAvVpXgvPzL84QafDs0+gaCPXnJ/ajku5AI19mRWy6OEy5vP6r2qgNsESfOW32f2PuvyJ+U/5e/ltpz6b5R8r2enpcRmO/vZUFxd3KkUInnl5OwP8tePgBmQMMQHltV2jqNTLiySO3LoB8GI6H/zjb+S3lzzQvm/SvJFtFrEM5urNZJJZbW3mJrzhtncxKQTUfD8P7NMAwRBtyM3bWry4vDlM1y22JHve6BmDtIGIdhRnrucs4XVk2//T+ieesPhrsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirasysGVirDoRgItafOX5qf84u/lZ+aDXGonTP8I+abirHzHoyrD6r9jc21PSl3FCaBqdGGUSwgu60Pbuo0vpJ4o9x/Qej87PzJ/5xK/Nv8v1utQstLHnfy9b8nOq6IDJOkYqec1mf3qAKKsRyUdOWY8oGL2Gi7e02pIjfDLuP6DyfMVaSPC6tHPEaTW7gpIh8HRgGU+xGQdy3irsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdir7T/5w0/JvSPzB8x+YfN/nHRbbXPKXliD6jZ6ZfRiW2utSuVrV0bZhBGC3sxHjk4QM5b8nnPaPtGWmxjHjJEp72OgD9O9F/L/yF5c5HQPJGhaQzijPbWEAJp03KE5lDDEPE5dbny/XkkfizBpHcKHcsqABFJqFA6ADtlgiBycXrfVZ/nTDSuwq7FXYq//U+ieesPhrsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVb/AMzgVwJBBBIYGoYbEHxB8caUvMPP35Mfld+Z8b/408m2Wo3z1465br9U1FSxqWF1Bxct7tyymWGJ5bOfpO1NTpP7uZruO4+1+WX/ADk5+RXlf8kNW8sW/lrzHqGrReaY7q5/RWoxx+pZxQuFDLPHx5qxNPiXltUnMWceE0912L2nk10JGcQOE1Y5F8v5F3TsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdiqa6Fomq+Zda0vy9oVm+oazrVzHZ6ZZRglpJZDQDboBuWPYVJ2GGrYZMkccTOZoAWX7w/lT+Xem/lX5D0DyVp/GVtMh9TVr5RvdX01GuZz1+02y+ChR2zNxx4YvlnaGtOrzHIevLyHQPRcscJ2FXYq7FXYq7FX/2Q==</t>
-  </si>
-  <si>
     <t>日本漫画家之猜作者</t>
   </si>
   <si>
@@ -1448,274 +1453,279 @@
     <t>Q082</t>
   </si>
   <si>
-    <t>《一拳超人》的作者是？</t>
-  </si>
-  <si>
     <t>村田雄介</t>
   </si>
   <si>
+    <t>Q083</t>
+  </si>
+  <si>
+    <t>《剑风传奇》的作者是？</t>
+  </si>
+  <si>
+    <t>宫野下明</t>
+  </si>
+  <si>
+    <t>三浦建太郎</t>
+  </si>
+  <si>
+    <t>三浦健太郎，男，1966年7月11日出生于日本千叶县，是一个漫画家。三浦健太郎的代表作有《王狼》《剑风传奇》等。三浦健太郎曾经给宫野下明和原哲夫做过助手。</t>
+  </si>
+  <si>
+    <t>Q084</t>
+  </si>
+  <si>
+    <t>《美食的俘虏》的作者是？</t>
+  </si>
+  <si>
+    <t>木下樱</t>
+  </si>
+  <si>
+    <t>吉永史</t>
+  </si>
+  <si>
+    <t>岛袋光年</t>
+  </si>
+  <si>
+    <t>岛袋光年又称岛仔是日本集英社《SUPER JUMP》的漫画家，生于1975年5月19日。曾作过和月伸宏的助理，与尾田荣一郎为同一时期的漫画家。他的画风粗犷有力，他的漫画在业内被称为“泰山漫画”。</t>
+  </si>
+  <si>
+    <t>Q085</t>
+  </si>
+  <si>
+    <t>《深夜食堂》的作者是？</t>
+  </si>
+  <si>
+    <t>安倍夜郎</t>
+  </si>
+  <si>
+    <t>安倍夜郎是日本知名漫画家。一九六三年出生于日本高知县中村市，毕业于早稻田大学，曾任广告导演，二〇〇三年以《山本掏耳店》获得“小学馆新人漫画奖”，此后成为专职漫画家。2003年以《山本掏耳店》获得“小学馆新人漫画奖”，代表作品有《深夜食堂》。</t>
+  </si>
+  <si>
+    <t>Q086</t>
+  </si>
+  <si>
+    <t>《拳愿阿修罗》的作者是？</t>
+  </si>
+  <si>
+    <t>真船雄一</t>
+  </si>
+  <si>
+    <t>星野泰视</t>
+  </si>
+  <si>
+    <t>藤田和日郎</t>
+  </si>
+  <si>
+    <t>达露没恩</t>
+  </si>
+  <si>
+    <t>《拳愿阿修罗》由3个人合作。原作三肉必起、牙霸子，作画达露没恩。</t>
+  </si>
+  <si>
+    <t>Q087</t>
+  </si>
+  <si>
+    <t>《胜负师传说哲也》的作者是？</t>
+  </si>
+  <si>
+    <t>五十岚皋</t>
+  </si>
+  <si>
+    <t>藤井三穗南</t>
+  </si>
+  <si>
+    <t>星野泰视，日本漫画家，代表作品有《胜负师传说哲也》《少年无宿Shincrou》 《胜负师传说哲也》《赌博师枭》</t>
+  </si>
+  <si>
+    <t>Q088</t>
+  </si>
+  <si>
+    <t>《潮与虎》的作者是？</t>
+  </si>
+  <si>
+    <t>藤田和日郎，1964年5月24日出生于北海道旭川市，日本漫画家。作品主要在小学馆《周刊少年Sunday》连载活跃。代表作有《潮与虎》、《傀儡马戏团》、《月光条例》等。漫画家安西信行和雷句诚都曾是他的助理。</t>
+  </si>
+  <si>
+    <t>Q089</t>
+  </si>
+  <si>
+    <t>《烈火之炎》的作者是？</t>
+  </si>
+  <si>
+    <t>安西信行</t>
+  </si>
+  <si>
+    <t>东清彦</t>
+  </si>
+  <si>
+    <t>成田美名子</t>
+  </si>
+  <si>
+    <t>本仁戾</t>
+  </si>
+  <si>
+    <t>安西信行，1972年8月19日出生于千叶县，日本漫画家，曾担任漫画家藤田和日郎的助手，画风精美，对庞大战斗场面的刻画及复杂人物关系的把握上颇具功力。</t>
+  </si>
+  <si>
+    <t>Q090</t>
+  </si>
+  <si>
+    <t>《秒速5厘米》的作者是？</t>
+  </si>
+  <si>
+    <t>新海诚</t>
+  </si>
+  <si>
+    <t>新海诚（Makoto Shinkai）原名新津诚（Makoto Niitsu），1973年2月9日出生于日本长野县南佐久郡小海町，日本动画导演和作家，居住在东京都。</t>
+  </si>
+  <si>
+    <t>Q091</t>
+  </si>
+  <si>
+    <t>《蹦蹦跳跳的仙太郎》的作者是？</t>
+  </si>
+  <si>
+    <t>布浦翼</t>
+  </si>
+  <si>
+    <t>布浦翼，日本漫画家，长期在女性漫画杂志《BE·LOVE》上发表作品。擅长描绘可爱的儿童和小动物，作品风格以轻松、诙谐见长。</t>
+  </si>
+  <si>
+    <t>Q092</t>
+  </si>
+  <si>
+    <t>《天使禁猎区》的作者是？</t>
+  </si>
+  <si>
+    <t>由贵香织里</t>
+  </si>
+  <si>
+    <t>由贵香织里（12月18日－），日本东京都出身，属工笔华丽派漫画家。1987年於白泉社的漫画杂志《别册花与梦》秋之号刊载的《夏服的绘理依》出道成为专业漫画家。</t>
+  </si>
+  <si>
+    <t>Q093</t>
+  </si>
+  <si>
+    <t>佐伯俊</t>
+  </si>
+  <si>
+    <t>Q094</t>
+  </si>
+  <si>
+    <t>《漂流教室》的作者是？</t>
+  </si>
+  <si>
+    <t>楳图一雄</t>
+  </si>
+  <si>
+    <t>山本崇一郎</t>
+  </si>
+  <si>
+    <t>中山敦支</t>
+  </si>
+  <si>
+    <t>楳图一雄，日本殿堂级人物。恐怖漫画创始人和佼佼者。14岁创作漫画，1955年开始在大阪发表租借漫画作品。1956年首次发表恐怖题材作品《无底的小镇》。成名作《漂流教室》《猫目小僧》。1975年《飘流教室》获得第20届小学馆漫画赏。作品多揭露人性黑暗面，但角色却为人单纯善良。作为第一代恐怖漫画大师，深刻地影响着后辈。</t>
+  </si>
+  <si>
+    <t>Q095</t>
+  </si>
+  <si>
+    <t>《螺旋卷钩生》的作者是？</t>
+  </si>
+  <si>
+    <t>天野明</t>
+  </si>
+  <si>
+    <t>古馆春一</t>
+  </si>
+  <si>
+    <t>铃木央</t>
+  </si>
+  <si>
+    <t>中山敦支1982年7月10日，A型。出生于鹿儿岛县鹿儿岛市。曾就读于福冈交流艺术专门学校。</t>
+  </si>
+  <si>
+    <t>Q096</t>
+  </si>
+  <si>
+    <t>《七大罪》的作者是？</t>
+  </si>
+  <si>
+    <t>铃木央（すずきなかば）是一名日本男性漫画家，福岛县须贺川市出生，代表作是高尔夫物语、冰上悍将、七原罪。</t>
+  </si>
+  <si>
+    <t>Q097</t>
+  </si>
+  <si>
+    <t>《预告犯》的作者是？</t>
+  </si>
+  <si>
+    <t>筒井哲也</t>
+  </si>
+  <si>
+    <t>《预告犯》原作筒井哲也，后由日本东宝映画制作发行的119分钟的悬疑真人版电影。</t>
+  </si>
+  <si>
+    <t>Q098</t>
+  </si>
+  <si>
+    <t>《妖精的尾巴》作者是？</t>
+  </si>
+  <si>
+    <t>真岛浩</t>
+  </si>
+  <si>
+    <t>真岛浩，日本漫画家。代表作品有《圣石小子》，《妖精的尾巴》等。作为日本较为年轻的漫画家，真岛浩的作品大多以魔幻、冒险、热血、搞笑的风格闻名于动漫界，深受漫画爱好者们的喜爱。真岛浩本人十分欣赏漫画家鸟山明和田中宏，作品风格也深受其影响。</t>
+  </si>
+  <si>
+    <t>Q099</t>
+  </si>
+  <si>
+    <t>《家庭教师》的作者是？</t>
+  </si>
+  <si>
+    <t>巣山真也</t>
+  </si>
+  <si>
+    <t>天野明（公元1973年6月22日—），日本女性漫画家，出生于日本爱知县。血型B型，代表作是《家庭教师HITMAN REBORN!》</t>
+  </si>
+  <si>
+    <t>Q100</t>
+  </si>
+  <si>
+    <t>《金田一少年之事件簿》</t>
+  </si>
+  <si>
+    <t>佐藤文也</t>
+  </si>
+  <si>
+    <t>佐藤文也，女，漫画家，出生于日本琦玉县，1995年以《金田一少年之事件簿》获得19回讲谈社漫画赏。入选第46回新人漫画赏之后，便在《周刊少年Magazine》中连载《金田一少年之事件簿》。</t>
+  </si>
+  <si>
     <t>村田雄介，男，漫画家，生日于1978年7月4日，1998年在周刊《少年JUMP》29号发表《不冷》入选第51届赤冢赏后出道，其代表作为《光速跑者21号》和重修版《一拳超人》。拥有一流的手绘漫画技巧，分镜和画面精巧流畅。</t>
-  </si>
-  <si>
-    <t>Q083</t>
-  </si>
-  <si>
-    <t>《剑风传奇》的作者是？</t>
-  </si>
-  <si>
-    <t>宫野下明</t>
-  </si>
-  <si>
-    <t>三浦建太郎</t>
-  </si>
-  <si>
-    <t>三浦健太郎，男，1966年7月11日出生于日本千叶县，是一个漫画家。三浦健太郎的代表作有《王狼》《剑风传奇》等。三浦健太郎曾经给宫野下明和原哲夫做过助手。</t>
-  </si>
-  <si>
-    <t>Q084</t>
-  </si>
-  <si>
-    <t>《美食的俘虏》的作者是？</t>
-  </si>
-  <si>
-    <t>木下樱</t>
-  </si>
-  <si>
-    <t>吉永史</t>
-  </si>
-  <si>
-    <t>岛袋光年</t>
-  </si>
-  <si>
-    <t>岛袋光年又称岛仔是日本集英社《SUPER JUMP》的漫画家，生于1975年5月19日。曾作过和月伸宏的助理，与尾田荣一郎为同一时期的漫画家。他的画风粗犷有力，他的漫画在业内被称为“泰山漫画”。</t>
-  </si>
-  <si>
-    <t>Q085</t>
-  </si>
-  <si>
-    <t>《深夜食堂》的作者是？</t>
-  </si>
-  <si>
-    <t>安倍夜郎</t>
-  </si>
-  <si>
-    <t>安倍夜郎是日本知名漫画家。一九六三年出生于日本高知县中村市，毕业于早稻田大学，曾任广告导演，二〇〇三年以《山本掏耳店》获得“小学馆新人漫画奖”，此后成为专职漫画家。2003年以《山本掏耳店》获得“小学馆新人漫画奖”，代表作品有《深夜食堂》。</t>
-  </si>
-  <si>
-    <t>Q086</t>
-  </si>
-  <si>
-    <t>《拳愿阿修罗》的作者是？</t>
-  </si>
-  <si>
-    <t>真船雄一</t>
-  </si>
-  <si>
-    <t>星野泰视</t>
-  </si>
-  <si>
-    <t>藤田和日郎</t>
-  </si>
-  <si>
-    <t>达露没恩</t>
-  </si>
-  <si>
-    <t>《拳愿阿修罗》由3个人合作。原作三肉必起、牙霸子，作画达露没恩。</t>
-  </si>
-  <si>
-    <t>Q087</t>
-  </si>
-  <si>
-    <t>《胜负师传说哲也》的作者是？</t>
-  </si>
-  <si>
-    <t>五十岚皋</t>
-  </si>
-  <si>
-    <t>藤井三穗南</t>
-  </si>
-  <si>
-    <t>星野泰视，日本漫画家，代表作品有《胜负师传说哲也》《少年无宿Shincrou》 《胜负师传说哲也》《赌博师枭》</t>
-  </si>
-  <si>
-    <t>Q088</t>
-  </si>
-  <si>
-    <t>《潮与虎》的作者是？</t>
-  </si>
-  <si>
-    <t>藤田和日郎，1964年5月24日出生于北海道旭川市，日本漫画家。作品主要在小学馆《周刊少年Sunday》连载活跃。代表作有《潮与虎》、《傀儡马戏团》、《月光条例》等。漫画家安西信行和雷句诚都曾是他的助理。</t>
-  </si>
-  <si>
-    <t>Q089</t>
-  </si>
-  <si>
-    <t>《烈火之炎》的作者是？</t>
-  </si>
-  <si>
-    <t>安西信行</t>
-  </si>
-  <si>
-    <t>东清彦</t>
-  </si>
-  <si>
-    <t>成田美名子</t>
-  </si>
-  <si>
-    <t>本仁戾</t>
-  </si>
-  <si>
-    <t>安西信行，1972年8月19日出生于千叶县，日本漫画家，曾担任漫画家藤田和日郎的助手，画风精美，对庞大战斗场面的刻画及复杂人物关系的把握上颇具功力。</t>
-  </si>
-  <si>
-    <t>Q090</t>
-  </si>
-  <si>
-    <t>《秒速5厘米》的作者是？</t>
-  </si>
-  <si>
-    <t>新海诚</t>
-  </si>
-  <si>
-    <t>新海诚（Makoto Shinkai）原名新津诚（Makoto Niitsu），1973年2月9日出生于日本长野县南佐久郡小海町，日本动画导演和作家，居住在东京都。</t>
-  </si>
-  <si>
-    <t>Q091</t>
-  </si>
-  <si>
-    <t>《蹦蹦跳跳的仙太郎》的作者是？</t>
-  </si>
-  <si>
-    <t>布浦翼</t>
-  </si>
-  <si>
-    <t>布浦翼，日本漫画家，长期在女性漫画杂志《BE·LOVE》上发表作品。擅长描绘可爱的儿童和小动物，作品风格以轻松、诙谐见长。</t>
-  </si>
-  <si>
-    <t>Q092</t>
-  </si>
-  <si>
-    <t>《天使禁猎区》的作者是？</t>
-  </si>
-  <si>
-    <t>由贵香织里</t>
-  </si>
-  <si>
-    <t>由贵香织里（12月18日－），日本东京都出身，属工笔华丽派漫画家。1987年於白泉社的漫画杂志《别册花与梦》秋之号刊载的《夏服的绘理依》出道成为专业漫画家。</t>
-  </si>
-  <si>
-    <t>Q093</t>
-  </si>
-  <si>
-    <t>《食戟之灵》的作者是？</t>
-  </si>
-  <si>
-    <t>佐伯俊</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>《一拳超人》重修版的作者是？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>《食戟之灵》是由附田祐斗原作，佐伯俊作画，料理研究家森崎友纪协力于集英社旗下的漫画杂志《周刊少年JUMP》上的连载作品。</t>
-  </si>
-  <si>
-    <t>Q094</t>
-  </si>
-  <si>
-    <t>《漂流教室》的作者是？</t>
-  </si>
-  <si>
-    <t>楳图一雄</t>
-  </si>
-  <si>
-    <t>山本崇一郎</t>
-  </si>
-  <si>
-    <t>中山敦支</t>
-  </si>
-  <si>
-    <t>楳图一雄，日本殿堂级人物。恐怖漫画创始人和佼佼者。14岁创作漫画，1955年开始在大阪发表租借漫画作品。1956年首次发表恐怖题材作品《无底的小镇》。成名作《漂流教室》《猫目小僧》。1975年《飘流教室》获得第20届小学馆漫画赏。作品多揭露人性黑暗面，但角色却为人单纯善良。作为第一代恐怖漫画大师，深刻地影响着后辈。</t>
-  </si>
-  <si>
-    <t>Q095</t>
-  </si>
-  <si>
-    <t>《螺旋卷钩生》的作者是？</t>
-  </si>
-  <si>
-    <t>天野明</t>
-  </si>
-  <si>
-    <t>古馆春一</t>
-  </si>
-  <si>
-    <t>铃木央</t>
-  </si>
-  <si>
-    <t>中山敦支1982年7月10日，A型。出生于鹿儿岛县鹿儿岛市。曾就读于福冈交流艺术专门学校。</t>
-  </si>
-  <si>
-    <t>Q096</t>
-  </si>
-  <si>
-    <t>《七大罪》的作者是？</t>
-  </si>
-  <si>
-    <t>铃木央（すずきなかば）是一名日本男性漫画家，福岛县须贺川市出生，代表作是高尔夫物语、冰上悍将、七原罪。</t>
-  </si>
-  <si>
-    <t>Q097</t>
-  </si>
-  <si>
-    <t>《预告犯》的作者是？</t>
-  </si>
-  <si>
-    <t>筒井哲也</t>
-  </si>
-  <si>
-    <t>《预告犯》原作筒井哲也，后由日本东宝映画制作发行的119分钟的悬疑真人版电影。</t>
-  </si>
-  <si>
-    <t>Q098</t>
-  </si>
-  <si>
-    <t>《妖精的尾巴》作者是？</t>
-  </si>
-  <si>
-    <t>真岛浩</t>
-  </si>
-  <si>
-    <t>真岛浩，日本漫画家。代表作品有《圣石小子》，《妖精的尾巴》等。作为日本较为年轻的漫画家，真岛浩的作品大多以魔幻、冒险、热血、搞笑的风格闻名于动漫界，深受漫画爱好者们的喜爱。真岛浩本人十分欣赏漫画家鸟山明和田中宏，作品风格也深受其影响。</t>
-  </si>
-  <si>
-    <t>Q099</t>
-  </si>
-  <si>
-    <t>《家庭教师》的作者是？</t>
-  </si>
-  <si>
-    <t>巣山真也</t>
-  </si>
-  <si>
-    <t>天野明（公元1973年6月22日—），日本女性漫画家，出生于日本爱知县。血型B型，代表作是《家庭教师HITMAN REBORN!》</t>
-  </si>
-  <si>
-    <t>Q100</t>
-  </si>
-  <si>
-    <t>《金田一少年之事件簿》</t>
-  </si>
-  <si>
-    <t>佐藤文也</t>
-  </si>
-  <si>
-    <t>佐藤文也，女，漫画家，出生于日本琦玉县，1995年以《金田一少年之事件簿》获得19回讲谈社漫画赏。入选第46回新人漫画赏之后，便在《周刊少年Magazine》中连载《金田一少年之事件簿》。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>《食戟之灵》原作是由附田祐斗，那么作画是？</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>/9j/4RCsRXhpZgAATU0AKgAAAAgABwESAAMAAAABAAEAAAEaAAUAAAABAAAAYgEbAAUAAAABAAAAagEoAAMAAAABAAIAAAExAAIAAAAdAAAAcgEyAAIAAAAUAAAAj4dpAAQAAAABAAAApAAAANAACvyAAAAnEAAK/IAAACcQQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKQAyMDE3OjEyOjI2IDIwOjUyOjExAAAAA6ABAAMAAAABAAEAAKACAAQAAAABAAABuKADAAQAAAABAAAA8AAAAAAAAAAGAQMAAwAAAAEABgAAARoABQAAAAEAAAEeARsABQAAAAEAAAEmASgAAwAAAAEAAgAAAgEABAAAAAEAAAEuAgIABAAAAAEAAA92AAAAAAAAAEgAAAABAAAASAAAAAH/2P/tAAxBZG9iZV9DTQAB/+4ADkFkb2JlAGSAAAAAAf/bAIQADAgICAkIDAkJDBELCgsRFQ8MDA8VGBMTFRMTGBEMDAwMDAwRDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAENCwsNDg0QDg4QFA4ODhQUDg4ODhQRDAwMDAwREQwMDAwMDBEMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwM/8AAEQgAVwCgAwEiAAIRAQMRAf/dAAQACv/EAT8AAAEFAQEBAQEBAAAAAAAAAAMAAQIEBQYHCAkKCwEAAQUBAQEBAQEAAAAAAAAAAQACAwQFBgcICQoLEAABBAEDAgQCBQcGCAUDDDMBAAIRAwQhEjEFQVFhEyJxgTIGFJGhsUIjJBVSwWIzNHKC0UMHJZJT8OHxY3M1FqKygyZEk1RkRcKjdDYX0lXiZfKzhMPTdePzRieUpIW0lcTU5PSltcXV5fVWZnaGlqa2xtbm9jdHV2d3h5ent8fX5/cRAAICAQIEBAMEBQYHBwYFNQEAAhEDITESBEFRYXEiEwUygZEUobFCI8FS0fAzJGLhcoKSQ1MVY3M08SUGFqKygwcmNcLSRJNUoxdkRVU2dGXi8rOEw9N14/NGlKSFtJXE1OT0pbXF1eX1VmZ2hpamtsbW5vYnN0dXZ3eHl6e3x//aAAwDAQACEQMRAD8A65JJJajiqSSSSUpJJJJSl5v9bsl2R9Y8wEktxyzHrHgK2N3R/Wufa9eksG5waeCQCvJs/Ldm5+VmOAByLn2QOAC47B/mBqbLo2eTHqkewr7UCSSSa3VJJJJKUkkkkpSSSSSk+BnZPTsyrNxT+mpdIaeHt4sps/4O5nsXpj+rYbekO6yw7sUUHIaDoSI9tLv+E9X9X/4xeWLZyOoOr+qOD0sO1yL7r7BOoprtf6LT/Jtyt9jf+ISumHNiEzDzo/3Pmb31X+sPWMnr1VGbkuvqzRYH1O+gx4Y+6s47f8DtdX6ft/wa7hedfU30B9Y8Y3P2u2WjHEE7rXMLGs/k/onXPXoqdHq1uaAExQr0jZ//0OuSSSWo4qkklC66rHpsyLjtppY620+DGAvf/wBFqSmTnsYWh72sLztYHOALifzWNcfe72/mp3/o2Gyw+nW0Fznu0Aa0bnOP9Vq8oyOpZeX1P9r2kDM9Rt1RgO9MsO+iqsP3N9Oja32rq/2VXR9UMvqmPZbZnZ/Ti/LsNjnC0vLb7bHsfu/SUV+rT7f8H6iZxHs2J8sI8Ny+YiO36TYwuvfWXq1jsro2FjM6dW8trszHOa+3addrmOGx3/WvTp/m/VssXD5FFuNkXY17DVdS9zLKyQS1wP0Nzfa/+v8Anr07oP2f9h9P+zR6P2avbHjH6af5fr+r6n8tZf1k+qTurZDc3BsZVmOAZcy2QywN9tdnqMD3V3MZ+j+h+kr/AKiVGr3X4s0IzlHhEI7X19P7zwSSd7Q17mBzbA1xaHsna6Dt3s3Brtj/AMxMg21JJJJKUkkkkpSSSSSlJk6SSnZ+p1DrvrJiuA0x223vPgGsdU3/AMFurXoy5b6gYtbcDKzS39Ldd6Af/wAHU1j9rf8Ar1vvXUp0XP5qV5CP3Rwv/9HrkkklqOKpcd9fOp5dd9HTKbDXj2UG3Ia3Q2b3PqbXb/wTWVfzf/CLsV559dbvU+sdze1FVNQ/zfWd/wBK9Nkz8rG8nkCXN6VitzOq4WI8FzMi+tlgEglhdN2rf+Ca9dNjdRzPqiXdN6tQ7K6SXuOJmVgGGvJL6bGPLa/zv0mPY+uyt/q+l69Fi5BrnMcHsc5jm8OaS1w/qvbDmrrMX69ijpDKLKLMjqNdbai+0g1Wke31r3g+r9H6dezfb/pfz01tZoyNAR44nePy6/viTVxusYXS7X/83Oq0/YbSbD0zPpvPpuPPoW0V2O2/9c/4z1/5xNlfXrq2RjvoZj4+ObWljrW+o5wDhtd6e9+1j/5X6RUcgdZ6jh/tHOfXj9PDiK7HNbTU5+o9LDxsZnrZNv02/Qs/P9XI/nFlJBIxQOpHFIdTr/3qgAAANANAnSSSZFJJJJKUkkkkpSSSSSlKVdVt1rKaGG261wZVW3lzj9FoUPw811X1d679Uem1iy+l2Dnlu197g/IDh+d6FvvdQx/59XpV/wDGWpLZyMRYiZHsHXs6RmdH6K2zp+dazI6bQ611Htdi3Pbuycv1aNgsd9o/SNZb62+r9F6a28a9mVi0ZTAWsyKmXNaeQLGttDT/AFdy5zO6jkfWen9ndBGRVi2kjM6lY30qfSILbKGte112Q6zd/NVej/22tT6vZ12XgvpyWMryunXOwchtf82XUBrGWVfyH17UY1emzRyRlwXKuO9f3oiX7z//0uuSTO0a4jkNJHyCr9Oys1/1V6RnV42NmZeVU12RZlONckt3b91VN257nfyVozycJAoyMuzk48XGJHiERGrJ/rNmFwn116Rl1dSt6oytz8PIbWbLRxXYA3H2W/u+ptr9J/8A1tdT1HrfVenYF+fd0nprqsZhe9rL3lxA/d3YjVb+ulOCzHqw7sez7FmObXkvxWFz6RJtZltqqrtfZ6Vtdf8Ag0w5daMTHS2fFDgPHGcZixCVf1nyYkASSAByTokCCJBkHghegfV/6ufVSnrPT768zOyHWOeMarMw7K6LiardzfVuw6aXbKvUuZ+k/wAGq3WehfUs5udm5HU87GqGS+u41Ydhx67Q703Y7L2YVlPtf7P5xM9+N1r5tyniC8S2su1Euawnifpuaz+Vt96h69H+kZ/nBdHh29LH1X+smBkvtqwzkB/S+qHGseHFu11dLr66tmLbb9mx99Vr6P6Wu+6saG5YGFSx1WwbjTXgubvl24F2blY12/bs/wAH6aBzgEjhOieF8gbZW4w17XHwBBKW9n7w+8Lvfr9ZjN+pMkV1Zz8lsANx2XbWl7vo4FuRX/N/u2/Q/nFfOJmjqn7Md03oDXjEGa652O8MDN/olrpH9vel74oGt/FXC+Z72fvD7wnBB4M/BemZ2FmYWBlZ7sD6vXMxMc5b666HFzq4e9jm/S9t3pWelZ9BZOdhYmL9d6MPrWH0z0bOml4pYfsuLuFtm24+q1/6ztZbX/5wkM410OiuF4lxDRLiGjxOgTwV6fTgdO6YyrqLej9Bxq727ach+e4MeHD1P0T7Omem/c1m72IFXT/qtZbvv6Z0CLSdrquoCwl5P7r8Khuz+p/20l94j2KuF83STNJIl0TrMaCZ/N/k/up1MtUrvSepZXT8ndTluw2P0sd6frVmPo/aMU/zlX7z6v1iv/Aqkmc7Y0vjdt12+Ma7dP3klEAij1fSGZP1uvx2Oqb0t29oNWYy659e0/Rtqx9jt/8Ano+Bh43Qek2+rc60V+pl5uU8Q6yw/pL7ds/nbdlVawOmZ+P9Xutu6Yctj+i5jfWpe54d9me8b/TueN3p/R9G7/Sb8fJ+n66F9ZfrZhdR6ff07BZaN9rGuueAGWVVu9RzqocbP0ltdX84z+aSB0vq0jimZCIH6uREjICvT4/96//T6130Hf1XfkKq9Gvz6fqX0I4VGNkOdQwPGW5zWgbP8H6dd3vVsiQR4gj7xCzenf8AOPp/TMXpjaum5FOFWKq7LTduIaNu9zdjmsc5qu54kygQDIC7rRzeXnGMZgyETLhriHEt1frPWcTpeVk5nSulX41NZddTvsdub+5ssxtjv7S2vrVk/ZMfIypj0MS2yf6ocVl23ddurdVdgdHsreIex4tc0j91zXVbXI2c7q+e3FvdfTi5mM/e4MY+3HeIew1W1ufRbbX+k3fTr96ZGEhPiECKB3Nsk8kDDhlOJuQ+WPD6VYOBl7PqjRU3cOmUttzhuALA/Etxa7C153P35HqM/Rqn1DpdrekfXHpj2FhfY7quMdwdubY1tzCNpds/XOm5Hsei5uP1S3qGB1iqyizqeFuZY53qU02VOZZX6Xp1Ovd7LLvXZ6nq/pErsXqdHUb+r9HyGUZeTWW5GLkNddj2ubvsp/wtVmPttts97H7P0n82mDDkGtfLRZRzWK9zqS8j9Ubci/of1hwHY1eX0tjK8+0uuNLq3hpta9m1rvW/oNd/85TX+h2Wfzq7p/U8V972Dp9ostsZtr3dLLmkFvqUtDs0vf8AaY2P377f0n6H015xV9ZOrYOP1XpxxMaq7qWS63qG9j2W7XndZ097J3Mxtnq0s97/AE6L7PQ/0qu0fX3qWJXUzB6V0vHFJ/RksteQPzWsfvrezamyxzMiRHclsAju7n+Me65n1Vy6z0y7EZkX1/pbvsjWsDdr201Nwb7r7d9lW73s/wAJd+l9Otbl1brPrZbW2pmQ5/QS0UWGGWE3OHpWGHfo7PoP9q82699Ycr6wMvOdg4TMq5rWtzKvWNrA0/Qq9ax1ddb2+yxrGfnv/PWrmfXt3UHVvz+gdMy31NDGPvmwho/Na6yl3t3JHFOh6VWHtfrBQ7G+qvVXW4dGE0dHbTurcDD2syW/YGe1n6DFdYz7N/pPtCxfrbRk5H1/qqxmdNtsPSQTX1dpfjloyLdzm7Pd9o/c/wCC9Zc5/wA6sD/51ujf9tj/ANIIPUvrRZ1XrberdS6ZiZbW432UYdjn+mIc61uQLNu/1d1lrfofzb/7aUcc9fSdlWHrs7r3U8TL6Lgh+Nmepk42Lm14eKTgY7LHih9VeZY+1zMna+uumv2fo/p01epUm+stmT0+r6xZ/TsPEqey2rCu6g0kZTWXU4O5tdbadmxn2mv/ALU/8Ls/RLmP+eWT9pxHfszEGB05oOF01rnMpqva4WDO9rP0uR9NrN7f0e/9+271CN+vOa6/qbszp2Jm43VbKrrMW1z9jTUyqhrfc2xtvtxqH/QZ+lSGOQIPDtVqsPNgAAACANAPIJ0ydW1ikkkklLAAcCPgnSaC+xtVYL7XaNrYC55P8mtm57lp0/Vj6wXWupGDZW9jBYfVitpB+ixlrz6Trnf6Lf8A8b6aSDIDcgeZf//U65JfPiS1HFfoNJfPiSSn6DSXz4kkp9v65jfV7L2UdYdTXcWzS99jarw3xpsJa91f8h3qUrjerdAw8SuzIwOq42ZTWNxpc9ovjwr9IvryHf8AbC4JJMlXRs8v71ir4L1v5f8ABekSXNpIN16RJc2kkp6RJc2kkp6RJc2kkp6RbX1XwukX33ZPWbaG4tLdldN9jWb7Ha79pex/pU1/+C2/8EuBSSWZuL25cHzfi+8dKPSPTc3o32YVj6f2TZ/03U+7/PVvt5L58SUgro5hu9bvxf/Z/+0YjFBob3Rvc2hvcCAzLjAAOEJJTQQlAAAAAAAQAAAAAAAAAAAAAAAAAAAAADhCSU0EOgAAAAAA1wAAABAAAAABAAAAAAALcHJpbnRPdXRwdXQAAAAFAAAAAFBzdFNib29sAQAAAABJbnRlZW51bQAAAABJbnRlAAAAAEltZyAAAAAPcHJpbnRTaXh0ZWVuQml0Ym9vbAAAAAALcHJpbnRlck5hbWVURVhUAAAAAQAAAAAAD3ByaW50UHJvb2ZTZXR1cE9iamMAAAAFaCFoN4u+f24AAAAAAApwcm9vZlNldHVwAAAAAQAAAABCbHRuZW51bQAAAAxidWlsdGluUHJvb2YAAAAJcHJvb2ZDTVlLADhCSU0EOwAAAAACLQAAABAAAAABAAAAAAAScHJpbnRPdXRwdXRPcHRpb25zAAAAFwAAAABDcHRuYm9vbAAAAAAAQ2xicmJvb2wAAAAAAFJnc01ib29sAAAAAABDcm5DYm9vbAAAAAAAQ250Q2Jvb2wAAAAAAExibHNib29sAAAAAABOZ3R2Ym9vbAAAAAAARW1sRGJvb2wAAAAAAEludHJib29sAAAAAABCY2tnT2JqYwAAAAEAAAAAAABSR0JDAAAAAwAAAABSZCAgZG91YkBv4AAAAAAAAAAAAEdybiBkb3ViQG/gAAAAAAAAAAAAQmwgIGRvdWJAb+AAAAAAAAAAAABCcmRUVW50RiNSbHQAAAAAAAAAAAAAAABCbGQgVW50RiNSbHQAAAAAAAAAAAAAAABSc2x0VW50RiNQeGxAUgAAAAAAAAAAAAp2ZWN0b3JEYXRhYm9vbAEAAAAAUGdQc2VudW0AAAAAUGdQcwAAAABQZ1BDAAAAAExlZnRVbnRGI1JsdAAAAAAAAAAAAAAAAFRvcCBVbnRGI1JsdAAAAAAAAAAAAAAAAFNjbCBVbnRGI1ByY0BZAAAAAAAAAAAAEGNyb3BXaGVuUHJpbnRpbmdib29sAAAAAA5jcm9wUmVjdEJvdHRvbWxvbmcAAAAAAAAADGNyb3BSZWN0TGVmdGxvbmcAAAAAAAAADWNyb3BSZWN0UmlnaHRsb25nAAAAAAAAAAtjcm9wUmVjdFRvcGxvbmcAAAAAADhCSU0D7QAAAAAAEABIAAAAAQACAEgAAAABAAI4QklNBCYAAAAAAA4AAAAAAAAAAAAAP4AAADhCSU0EDQAAAAAABAAAAHg4QklNBBkAAAAAAAQAAAAeOEJJTQPzAAAAAAAJAAAAAAAAAAABADhCSU0nEAAAAAAACgABAAAAAAAAAAI4QklNA/UAAAAAAEgAL2ZmAAEAbGZmAAYAAAAAAAEAL2ZmAAEAoZmaAAYAAAAAAAEAMgAAAAEAWgAAAAYAAAAAAAEANQAAAAEALQAAAAYAAAAAAAE4QklNA/gAAAAAAHAAAP////////////////////////////8D6AAAAAD/////////////////////////////A+gAAAAA/////////////////////////////wPoAAAAAP////////////////////////////8D6AAAOEJJTQQAAAAAAAACAAE4QklNBAIAAAAAAAQAAAAAOEJJTQQwAAAAAAACAQE4QklNBC0AAAAAAAYAAQAAAAQ4QklNBAgAAAAAABAAAAABAAACQAAAAkAAAAAAOEJJTQQeAAAAAAAEAAAAADhCSU0EGgAAAAADPwAAAAYAAAAAAAAAAAAAAPAAAAG4AAAABWcqaAeYmAAtADEAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAbgAAADwAAAAAAAAAAAAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAEAAAAAEAAAAAAABudWxsAAAAAgAAAAZib3VuZHNPYmpjAAAAAQAAAAAAAFJjdDEAAAAEAAAAAFRvcCBsb25nAAAAAAAAAABMZWZ0bG9uZwAAAAAAAAAAQnRvbWxvbmcAAADwAAAAAFJnaHRsb25nAAABuAAAAAZzbGljZXNWbExzAAAAAU9iamMAAAABAAAAAAAFc2xpY2UAAAASAAAAB3NsaWNlSURsb25nAAAAAAAAAAdncm91cElEbG9uZwAAAAAAAAAGb3JpZ2luZW51bQAAAAxFU2xpY2VPcmlnaW4AAAANYXV0b0dlbmVyYXRlZAAAAABUeXBlZW51bQAAAApFU2xpY2VUeXBlAAAAAEltZyAAAAAGYm91bmRzT2JqYwAAAAEAAAAAAABSY3QxAAAABAAAAABUb3AgbG9uZwAAAAAAAAAATGVmdGxvbmcAAAAAAAAAAEJ0b21sb25nAAAA8AAAAABSZ2h0bG9uZwAAAbgAAAADdXJsVEVYVAAAAAEAAAAAAABudWxsVEVYVAAAAAEAAAAAAABNc2dlVEVYVAAAAAEAAAAAAAZhbHRUYWdURVhUAAAAAQAAAAAADmNlbGxUZXh0SXNIVE1MYm9vbAEAAAAIY2VsbFRleHRURVhUAAAAAQAAAAAACWhvcnpBbGlnbmVudW0AAAAPRVNsaWNlSG9yekFsaWduAAAAB2RlZmF1bHQAAAAJdmVydEFsaWduZW51bQAAAA9FU2xpY2VWZXJ0QWxpZ24AAAAHZGVmYXVsdAAAAAtiZ0NvbG9yVHlwZWVudW0AAAARRVNsaWNlQkdDb2xvclR5cGUAAAAATm9uZQAAAAl0b3BPdXRzZXRsb25nAAAAAAAAAApsZWZ0T3V0c2V0bG9uZwAAAAAAAAAMYm90dG9tT3V0c2V0bG9uZwAAAAAAAAALcmlnaHRPdXRzZXRsb25nAAAAAAA4QklNBCgAAAAAAAwAAAACP/AAAAAAAAA4QklNBBQAAAAAAAQAAAAEOEJJTQQMAAAAAA+SAAAAAQAAAKAAAABXAAAB4AAAoyAAAA92ABgAAf/Y/+0ADEFkb2JlX0NNAAH/7gAOQWRvYmUAZIAAAAAB/9sAhAAMCAgICQgMCQkMEQsKCxEVDwwMDxUYExMVExMYEQwMDAwMDBEMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMAQ0LCw0ODRAODhAUDg4OFBQODg4OFBEMDAwMDBERDAwMDAwMEQwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAz/wAARCABXAKADASIAAhEBAxEB/90ABAAK/8QBPwAAAQUBAQEBAQEAAAAAAAAAAwABAgQFBgcICQoLAQABBQEBAQEBAQAAAAAAAAABAAIDBAUGBwgJCgsQAAEEAQMCBAIFBwYIBQMMMwEAAhEDBCESMQVBUWETInGBMgYUkaGxQiMkFVLBYjM0coLRQwclklPw4fFjczUWorKDJkSTVGRFwqN0NhfSVeJl8rOEw9N14/NGJ5SkhbSVxNTk9KW1xdXl9VZmdoaWprbG1ub2N0dXZ3eHl6e3x9fn9xEAAgIBAgQEAwQFBgcHBgU1AQACEQMhMRIEQVFhcSITBTKBkRShsUIjwVLR8DMkYuFygpJDUxVjczTxJQYWorKDByY1wtJEk1SjF2RFVTZ0ZeLys4TD03Xj80aUpIW0lcTU5PSltcXV5fVWZnaGlqa2xtbm9ic3R1dnd4eXp7fH/9oADAMBAAIRAxEAPwDrkkklqOKpJJJJSkkkklKXm/1uyXZH1jzASS3HLMeseArY3dH9a59r16SwbnBp4JAK8mz8t2bn5WY4AHIufZA4ALjsH+YGpsujZ5MeqR7CvtQJJJJrdUkkkkpSSSSSlJJJJKT4Gdk9OzKs3FP6al0hp4e3iymz/g7mexemP6tht6Q7rLDuxRQchoOhIj20u/4T1f1f/jF5YtnI6g6v6o4PSw7XIvuvsE6imu1/otP8m3K32N/4hK6Yc2ITMPOj/c+ZvfVf6w9YyevVUZuS6+rNFgfU76DHhj7qzjt/wO11fp+3/BruF519TfQH1jxjc/a7ZaMcQTutcwsaz+T+idc9eip0erW5oATFCvSNn//Q65JJJajiqSSULrqsemzIuO2mljrbT4MYC9//AEWpKZOexhaHvawvO1gc4AuJ/NY1x97vb+anf+jYbLD6dbQXOe7QBrRuc4/1WryjI6ll5fU/2vaQMz1G3VGA70yw76Kqw/c306Nrfaur/ZVdH1Qy+qY9ltmdn9OL8uw2OcLS8tvtsex+79JRX6tPt/wfqJnEezYnywjw3L5iI7fpNjC699ZerWOyujYWMzp1by2uzMc5r7dp12uY4bHf9a9On+b9WyxcPkUW42RdjXsNV1L3MsrJBLXA/Q3N9r/6/wCevTug/Z/2H0/7NHo/Zq9seMfpp/l+v6vqfy1l/WT6pO6tkNzcGxlWY4BlzLZDLA3212eowPdXcxn6P6H6Sv8AqJUavdfizQjOUeEQjtfX0/vPBJJ3tDXuYHNsDXFoeydroO3ezcGu2P8AzEyDbUkkkkpSSSSSlJJJJKUmTpJKdn6nUOu+smK4DTHbbe8+Aax1Tf8AwW6tejLlvqBi1twMrNLf0t13oB//AAdTWP2t/wCvW+9dSnRc/mpXkI/dHC//0euSSSWo4qlx3186nl130dMpsNePZQbchrdDZvc+ptdv/BNZV/N/8IuxXnn11u9T6x3N7UVU1D/N9Z3/AEr02TPysbyeQJc3pWK3M6rhYjwXMyL62WASCWF03at/4Jr102N1HM+qJd03q1DsrpJe44mZWAYa8kvpsY8tr/O/SY9j67K3+r6Xr0WLkGucxwexzmObw5pLXD+q9sOausxfr2KOkMososyOo11tqL7SDVaR7fWveD6v0fp17N9v+l/PTW1mjI0BHjid4/Lr++JNXG6xhdLtf/zc6rT9htJsPTM+m8+m48+hbRXY7b/1z/jPX/nE2V9eurZGO+hmPj45taWOtb6jnAOG13p737WP/lfpFRyB1nqOH+0c59eP08OIrsc1tNTn6j0sPGxmetk2/Tb9Cz8/1cj+cWUkEjFA6kcUh1Ov/eqAAAA0A0CdJJJkUkkkkpSSSSSlJJJJKUpV1W3WspoYbbrXBlVbeXOP0WhQ/DzXVfV3rv1R6bWLL6XYOeW7X3uD8gOH53oW+91DH/n1elX/AMZaktnIxFiJkewdezpGZ0forbOn51rMjptDrXUe12Lc9u7Jy/Vo2Cx32j9I1lvrb6v0Xprbxr2ZWLRlMBazIqZc1p5Asa20NP8AV3LnM7qOR9Z6f2d0EZFWLaSMzqVjfSp9Igtsoa17XXZDrN381V6P/ba1Pq9nXZeC+nJYyvK6dc7ByG1/zZdQGsZZV/IfXtRjV6bNHJGXBcq471/eiJfvP//S65JM7RriOQ0kfIKv07KzX/VXpGdXjY2Zl5VTXZFmU41yS3dv3VU3bnud/JWjPJwkCjIy7OTjxcYkeIREasn+s2YXCfXXpGXV1K3qjK3Pw8htZstHFdgDcfZb+76m2v0n/wDW11PUet9V6dgX593SemuqxmF72sveXED93diNVv66U4LMerDux7PsWY5teS/FYXPpEm1mW2qqu19npW11/wCDTDl1oxMdLZ8UOA8cZxmLEJV/WfJiQBJIAHJOiQIIkGQeCF6B9X/q59VKes9PvrzM7IdY54xqszDsrouJqt3N9W7Dppdsq9S5n6T/AAardZ6F9Szm52bkdTzsaoZL67jVh2HHrtDvTdjsvZhWU+1/s/nEz343Wvm3KeILxLay7US5rCeJ+m5rP5W33qHr0f6Rn+cF0eHb0sfVf6yYGS+2rDOQH9L6ocax4cW7XV0uvrq2Yttv2bH31Wvo/pa77qxoblgYVLHVbBuNNeC5u+XbgXZuVjXb9uz/AAfpoHOASOE6J4XyBtlbjDXtcfAEEpb2fvD7wu9+v1mM36kyRXVnPyWwA3HZdtaXu+jgW5Ff83+7b9D+cV84maOqfsx3TegNeMQZrrnY7wwM3+iWukf296Xviga38VcL5nvZ+8PvCcEHgz8F6ZnYWZhYGVnuwPq9czExzlvrrocXOrh72Ob9L23elZ6Vn0Fk52FiYv13ow+tYfTPRs6aXilh+y4u4W2bbj6rX/rO1ltf/nCQzjXQ6K4XiXENEuIaPE6BPBXp9OB07pjKuot6P0HGrvbtpyH57gx4cPU/RPs6Z6b9zWbvYgVdP+q1lu+/pnQItJ2uq6gLCXk/uvwqG7P6n/bSX3iPYq4XzdJM0kiXROsxoJn83+T+6nUy1Su9J6lldPyd1OW7DY/Sx3p+tWY+j9oxT/OVfvPq/WK/8CqSZztjS+N23Xb4xrt0/eSUQCKPV9IZk/W6/HY6pvS3b2g1ZjLrn17T9G2rH2O3/wCej4GHjdB6Tb6tzrRX6mXm5TxDrLD+kvt2z+dt2VVrA6Zn4/1e627phy2P6LmN9al7nh32Z7xv9O543en9H0bv9Jvx8n6froX1l+tmF1Hp9/TsFlo32sa654AZZVW71HOqhxs/SW11fzjP5pIHS+rSOKZkIgfq5ESMgK9Pj/3r/9PrXfQd/Vd+Qqr0a/Pp+pfQjhUY2Q51DA8ZbnNaBs/wfp13e9WyJBHiCPvELN6d/wA4+n9MxemNq6bkU4VYqrstN24ho273N2Oaxzmq7niTKBAMgLutHN5ecYxmDIRMuGuIcS3V+s9ZxOl5WTmdK6VfjU1l11O+x25v7myzG2O/tLa+tWT9kx8jKmPQxLbJ/qhxWXbd126t1V2B0eyt4h7Hi1zSP3XNdVtcjZzur57cW919OLmYz97gxj7cd4h7DVbW59Fttf6Td9Ov3pkYSE+IQIoHc2yTyQMOGU4m5D5Y8PpVg4GXs+qNFTdw6ZS23OG4AsD8S3FrsLXnc/fkeoz9GqfUOl2t6R9cemPYWF9juq4x3B25tjW3MI2l2z9c6bkex6Lm4/VLeoYHWKrKLOp4W5ljnepTTZU5llfpenU693ssu9dnqer+kSuxep0dRv6v0fIZRl5NZbkYuQ112Pa5u+yn/C1WY+222z3sfs/SfzaYMOQa18tFlHNYr3OpLyP1RtyL+h/WHAdjV5fS2Mrz7S640ureGm1r2bWu9b+g13/zlNf6HZZ/Orun9TxX3vYOn2iy2xm2vd0suaQW+pS0OzS9/wBpjY/fvt/SfofTXnFX1k6tg4/VenHExqrupZLreob2PZbted1nT3snczG2erSz3v8ATovs9D/Sq7R9fepYldTMHpXS8cUn9GSy15A/Nax++t7NqbLHMyJEdyWwCO7uf4x7rmfVXLrPTLsRmRfX+lu+yNawN2vbTU3Bvuvt32Vbvez/AAl36X061uXVus+tltbamZDn9BLRRYYZYTc4elYYd+js+g/2rzbr31hyvrAy852DhMyrmta3Mq9Y2sDT9Cr1rHV11vb7LGsZ+e/89auZ9e3dQdW/P6B0zLfU0MY++bCGj81rrKXe3ckcU6HpVYe1+sFDsb6q9Vdbh0YTR0dtO6twMPazJb9gZ7WfoMV1jPs3+k+0LF+ttGTkfX+qrGZ022w9JBNfV2l+OWjIt3Obs932j9z/AIL1lzn/ADqwP/nW6N/22P8A0gg9S+tFnVett6t1LpmJltbjfZRh2Of6YhzrW5As27/V3WWt+h/Nv/tpRxz19J2VYeuzuvdTxMvouCH42Z6mTjYubXh4pOBjsseKH1V5lj7XMydr666a/Z+j+nTV6lSb6y2ZPT6vrFn9Ow8Sp7LasK7qDSRlNZdTg7m11tp2bGfaa/8AtT/wuz9EuY/55ZP2nEd+zMQYHTmg4XTWucymq9rhYM72s/S5H02s3t/R7/37bvUI3685rr+puzOnYmbjdVsqusxbXP2NNTKqGt9zbG2+3Gof9Bn6VIY5Ag8O1Wqw82AAAAIA0A8gnTJ1bWKSSSSUsABwI+CdJoL7G1Vgvtdo2tgLnk/ya2bnuWnT9WPrBda6kYNlb2MFh9WK2kH6LGWvPpOud/ot/wDxvppIMgNyB5l//9Trkl8+JLUcV+g0l8+JJKfoNJfPiSSn2/rmN9XsvZR1h1NdxbNL32NqvDfGmwlr3V/yHepSuN6t0DDxK7MjA6rjZlNY3Glz2i+PCv0i+vId/wBsLgkkyVdGzy/vWKvgvW/l/wAF6RJc2kg3XpElzaSSnpElzaSSnpElzaSSnpFtfVfC6Rffdk9Ztobi0t2V032NZvsdrv2l7H+lTX/4Lb/wS4FJJZm4vblwfN+L7x0o9I9NzejfZhWPp/ZNn/TdT7v89W+3kvnxJSCujmG71u/F/9k4QklNBCEAAAAAAFMAAAABAQAAAA8AQQBkAG8AYgBlACAAUABoAG8AdABvAHMAaABvAHAAAAASAEEAZABvAGIAZQAgAFAAaABvAHQAbwBzAGgAbwBwACAAQwBDAAAAAQA4QklNBAYAAAAAAAcABgAAAAEBAP/hDedodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvADw/eHBhY2tldCBiZWdpbj0i77u/IiBpZD0iVzVNME1wQ2VoaUh6cmVTek5UY3prYzlkIj8+IDx4OnhtcG1ldGEgeG1sbnM6eD0iYWRvYmU6bnM6bWV0YS8iIHg6eG1wdGs9IkFkb2JlIFhNUCBDb3JlIDUuNS1jMDE0IDc5LjE1MTQ4MSwgMjAxMy8wMy8xMy0xMjowOToxNSAgICAgICAgIj4gPHJkZjpSREYgeG1sbnM6cmRmPSJodHRwOi8vd3d3LnczLm9yZy8xOTk5LzAyLzIyLXJkZi1zeW50YXgtbnMjIj4gPHJkZjpEZXNjcmlwdGlvbiByZGY6YWJvdXQ9IiIgeG1sbnM6eG1wPSJodHRwOi8vbnMuYWRvYmUuY29tL3hhcC8xLjAvIiB4bWxuczp4bXBNTT0iaHR0cDovL25zLmFkb2JlLmNvbS94YXAvMS4wL21tLyIgeG1sbnM6c3RFdnQ9Imh0dHA6Ly9ucy5hZG9iZS5jb20veGFwLzEuMC9zVHlwZS9SZXNvdXJjZUV2ZW50IyIgeG1sbnM6ZGM9Imh0dHA6Ly9wdXJsLm9yZy9kYy9lbGVtZW50cy8xLjEvIiB4bWxuczpwaG90b3Nob3A9Imh0dHA6Ly9ucy5hZG9iZS5jb20vcGhvdG9zaG9wLzEuMC8iIHhtcDpDcmVhdG9yVG9vbD0iQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKSIgeG1wOkNyZWF0ZURhdGU9IjIwMTctMTItMjZUMjA6NTI6MTErMDg6MDAiIHhtcDpNZXRhZGF0YURhdGU9IjIwMTctMTItMjZUMjA6NTI6MTErMDg6MDAiIHhtcDpNb2RpZnlEYXRlPSIyMDE3LTEyLTI2VDIwOjUyOjExKzA4OjAwIiB4bXBNTTpJbnN0YW5jZUlEPSJ4bXAuaWlkOjJiYmJjYTdhLWI3MjAtM2Q0NS05MDgyLTY3YjViYTNiYjI5NCIgeG1wTU06RG9jdW1lbnRJRD0ieG1wLmRpZDo1ZGM5YTVkMS00NzQzLWJiNDItOTY0Yi0wNjZlNzViOWJiMGYiIHhtcE1NOk9yaWdpbmFsRG9jdW1lbnRJRD0ieG1wLmRpZDo1ZGM5YTVkMS00NzQzLWJiNDItOTY0Yi0wNjZlNzViOWJiMGYiIGRjOmZvcm1hdD0iaW1hZ2UvanBlZyIgcGhvdG9zaG9wOkNvbG9yTW9kZT0iMyIgcGhvdG9zaG9wOklDQ1Byb2ZpbGU9InNSR0IgSUVDNjE5NjYtMi4xIj4gPHhtcE1NOkhpc3Rvcnk+IDxyZGY6U2VxPiA8cmRmOmxpIHN0RXZ0OmFjdGlvbj0iY3JlYXRlZCIgc3RFdnQ6aW5zdGFuY2VJRD0ieG1wLmlpZDo1ZGM5YTVkMS00NzQzLWJiNDItOTY0Yi0wNjZlNzViOWJiMGYiIHN0RXZ0OndoZW49IjIwMTctMTItMjZUMjA6NTI6MTErMDg6MDAiIHN0RXZ0OnNvZnR3YXJlQWdlbnQ9IkFkb2JlIFBob3Rvc2hvcCBDQyAoV2luZG93cykiLz4gPHJkZjpsaSBzdEV2dDphY3Rpb249InNhdmVkIiBzdEV2dDppbnN0YW5jZUlEPSJ4bXAuaWlkOjJiYmJjYTdhLWI3MjAtM2Q0NS05MDgyLTY3YjViYTNiYjI5NCIgc3RFdnQ6d2hlbj0iMjAxNy0xMi0yNlQyMDo1MjoxMSswODowMCIgc3RFdnQ6c29mdHdhcmVBZ2VudD0iQWRvYmUgUGhvdG9zaG9wIENDIChXaW5kb3dzKSIgc3RFdnQ6Y2hhbmdlZD0iLyIvPiA8L3JkZjpTZXE+IDwveG1wTU06SGlzdG9yeT4gPC9yZGY6RGVzY3JpcHRpb24+IDwvcmRmOlJERj4gPC94OnhtcG1ldGE+ICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgICAgPD94cGFja2V0IGVuZD0idyI/Pv/iDFhJQ0NfUFJPRklMRQABAQAADEhMaW5vAhAAAG1udHJSR0IgWFlaIAfOAAIACQAGADEAAGFjc3BNU0ZUAAAAAElFQyBzUkdCAAAAAAAAAAAAAAAAAAD21gABAAAAANMtSFAgIAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAEWNwcnQAAAFQAAAAM2Rlc2MAAAGEAAAAbHd0cHQAAAHwAAAAFGJrcHQAAAIEAAAAFHJYWVoAAAIYAAAAFGdYWVoAAAIsAAAAFGJYWVoAAAJAAAAAFGRtbmQAAAJUAAAAcGRtZGQAAALEAAAAiHZ1ZWQAAANMAAAAhnZpZXcAAAPUAAAAJGx1bWkAAAP4AAAAFG1lYXMAAAQMAAAAJHRlY2gAAAQwAAAADHJUUkMAAAQ8AAAIDGdUUkMAAAQ8AAAIDGJUUkMAAAQ8AAAIDHRleHQAAAAAQ29weXJpZ2h0IChjKSAxOTk4IEhld2xldHQtUGFja2FyZCBDb21wYW55AABkZXNjAAAAAAAAABJzUkdCIElFQzYxOTY2LTIuMQAAAAAAAAAAAAAAEnNSR0IgSUVDNjE5NjYtMi4xAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABYWVogAAAAAAAA81EAAQAAAAEWzFhZWiAAAAAAAAAAAAAAAAAAAAAAWFlaIAAAAAAAAG+iAAA49QAAA5BYWVogAAAAAAAAYpkAALeFAAAY2lhZWiAAAAAAAAAkoAAAD4QAALbPZGVzYwAAAAAAAAAWSUVDIGh0dHA6Ly93d3cuaWVjLmNoAAAAAAAAAAAAAAAWSUVDIGh0dHA6Ly93d3cuaWVjLmNoAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAGRlc2MAAAAAAAAALklFQyA2MTk2Ni0yLjEgRGVmYXVsdCBSR0IgY29sb3VyIHNwYWNlIC0gc1JHQgAAAAAAAAAAAAAALklFQyA2MTk2Ni0yLjEgRGVmYXVsdCBSR0IgY29sb3VyIHNwYWNlIC0gc1JHQgAAAAAAAAAAAAAAAAAAAAAAAAAAAABkZXNjAAAAAAAAACxSZWZlcmVuY2UgVmlld2luZyBDb25kaXRpb24gaW4gSUVDNjE5NjYtMi4xAAAAAAAAAAAAAAAsUmVmZXJlbmNlIFZpZXdpbmcgQ29uZGl0aW9uIGluIElFQzYxOTY2LTIuMQAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAdmlldwAAAAAAE6T+ABRfLgAQzxQAA+3MAAQTCwADXJ4AAAABWFlaIAAAAAAATAlWAFAAAABXH+dtZWFzAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAACjwAAAAJzaWcgAAAAAENSVCBjdXJ2AAAAAAAABAAAAAAFAAoADwAUABkAHgAjACgALQAyADcAOwBAAEUASgBPAFQAWQBeAGMAaABtAHIAdwB8AIEAhgCLAJAAlQCaAJ8ApACpAK4AsgC3ALwAwQDGAMsA0ADVANsA4ADlAOsA8AD2APsBAQEHAQ0BEwEZAR8BJQErATIBOAE+AUUBTAFSAVkBYAFnAW4BdQF8AYMBiwGSAZoBoQGpAbEBuQHBAckB0QHZAeEB6QHyAfoCAwIMAhQCHQImAi8COAJBAksCVAJdAmcCcQJ6AoQCjgKYAqICrAK2AsECywLVAuAC6wL1AwADCwMWAyEDLQM4A0MDTwNaA2YDcgN+A4oDlgOiA64DugPHA9MD4APsA/kEBgQTBCAELQQ7BEgEVQRjBHEEfgSMBJoEqAS2BMQE0wThBPAE/gUNBRwFKwU6BUkFWAVnBXcFhgWWBaYFtQXFBdUF5QX2BgYGFgYnBjcGSAZZBmoGewaMBp0GrwbABtEG4wb1BwcHGQcrBz0HTwdhB3QHhgeZB6wHvwfSB+UH+AgLCB8IMghGCFoIbgiCCJYIqgi+CNII5wj7CRAJJQk6CU8JZAl5CY8JpAm6Cc8J5Qn7ChEKJwo9ClQKagqBCpgKrgrFCtwK8wsLCyILOQtRC2kLgAuYC7ALyAvhC/kMEgwqDEMMXAx1DI4MpwzADNkM8w0NDSYNQA1aDXQNjg2pDcMN3g34DhMOLg5JDmQOfw6bDrYO0g7uDwkPJQ9BD14Peg+WD7MPzw/sEAkQJhBDEGEQfhCbELkQ1xD1ERMRMRFPEW0RjBGqEckR6BIHEiYSRRJkEoQSoxLDEuMTAxMjE0MTYxODE6QTxRPlFAYUJxRJFGoUixStFM4U8BUSFTQVVhV4FZsVvRXgFgMWJhZJFmwWjxayFtYW+hcdF0EXZReJF64X0hf3GBsYQBhlGIoYrxjVGPoZIBlFGWsZkRm3Gd0aBBoqGlEadxqeGsUa7BsUGzsbYxuKG7Ib2hwCHCocUhx7HKMczBz1HR4dRx1wHZkdwx3sHhYeQB5qHpQevh7pHxMfPh9pH5Qfvx/qIBUgQSBsIJggxCDwIRwhSCF1IaEhziH7IiciVSKCIq8i3SMKIzgjZiOUI8Ij8CQfJE0kfCSrJNolCSU4JWgllyXHJfcmJyZXJocmtyboJxgnSSd6J6sn3CgNKD8ocSiiKNQpBik4KWspnSnQKgIqNSpoKpsqzysCKzYraSudK9EsBSw5LG4soizXLQwtQS12Last4S4WLkwugi63Lu4vJC9aL5Evxy/+MDUwbDCkMNsxEjFKMYIxujHyMioyYzKbMtQzDTNGM38zuDPxNCs0ZTSeNNg1EzVNNYc1wjX9Njc2cjauNuk3JDdgN5w31zgUOFA4jDjIOQU5Qjl/Obw5+To2OnQ6sjrvOy07azuqO+g8JzxlPKQ84z0iPWE9oT3gPiA+YD6gPuA/IT9hP6I/4kAjQGRApkDnQSlBakGsQe5CMEJyQrVC90M6Q31DwEQDREdEikTORRJFVUWaRd5GIkZnRqtG8Ec1R3tHwEgFSEtIkUjXSR1JY0mpSfBKN0p9SsRLDEtTS5pL4kwqTHJMuk0CTUpNk03cTiVObk63TwBPSU+TT91QJ1BxULtRBlFQUZtR5lIxUnxSx1MTU19TqlP2VEJUj1TbVShVdVXCVg9WXFapVvdXRFeSV+BYL1h9WMtZGllpWbhaB1pWWqZa9VtFW5Vb5Vw1XIZc1l0nXXhdyV4aXmxevV8PX2Ffs2AFYFdgqmD8YU9homH1YklinGLwY0Njl2PrZEBklGTpZT1lkmXnZj1mkmboZz1nk2fpaD9olmjsaUNpmmnxakhqn2r3a09rp2v/bFdsr20IbWBtuW4SbmtuxG8eb3hv0XArcIZw4HE6cZVx8HJLcqZzAXNdc7h0FHRwdMx1KHWFdeF2Pnabdvh3VnezeBF4bnjMeSp5iXnnekZ6pXsEe2N7wnwhfIF84X1BfaF+AX5ifsJ/I3+Ef+WAR4CogQqBa4HNgjCCkoL0g1eDuoQdhICE44VHhauGDoZyhteHO4efiASIaYjOiTOJmYn+imSKyoswi5aL/IxjjMqNMY2Yjf+OZo7OjzaPnpAGkG6Q1pE/kaiSEZJ6kuOTTZO2lCCUipT0lV+VyZY0lp+XCpd1l+CYTJi4mSSZkJn8mmia1ZtCm6+cHJyJnPedZJ3SnkCerp8dn4uf+qBpoNihR6G2oiailqMGo3aj5qRWpMelOKWpphqmi6b9p26n4KhSqMSpN6mpqhyqj6sCq3Wr6axcrNCtRK24ri2uoa8Wr4uwALB1sOqxYLHWskuywrM4s660JbSctRO1irYBtnm28Ldot+C4WbjRuUq5wro7urW7LrunvCG8m70VvY++Cr6Evv+/er/1wHDA7MFnwePCX8Lbw1jD1MRRxM7FS8XIxkbGw8dBx7/IPci8yTrJuco4yrfLNsu2zDXMtc01zbXONs62zzfPuNA50LrRPNG+0j/SwdNE08bUSdTL1U7V0dZV1tjXXNfg2GTY6Nls2fHadtr724DcBdyK3RDdlt4c3qLfKd+v4DbgveFE4cziU+Lb42Pj6+Rz5PzlhOYN5pbnH+ep6DLovOlG6dDqW+rl63Dr++yG7RHtnO4o7rTvQO/M8Fjw5fFy8f/yjPMZ86f0NPTC9VD13vZt9vv3ivgZ+Kj5OPnH+lf65/t3/Af8mP0p/br+S/7c/23////uAA5BZG9iZQBkQAAAAAH/2wCEAAICAgICAgICAgIDAgICAwQDAgIDBAUEBAQEBAUGBQUFBQUFBgYHBwgHBwYJCQoKCQkMDAwMDAwMDAwMDAwMDAwBAwMDBQQFCQYGCQ0KCQoNDw4ODg4PDwwMDAwMDw8MDAwMDAwPDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDAwMDP/AABEIAPABuAMBEQACEQEDEQH/3QAEADf/xAGiAAAABwEBAQEBAAAAAAAAAAAEBQMCBgEABwgJCgsBAAICAwEBAQEBAAAAAAAAAAEAAgMEBQYHCAkKCxAAAgEDAwIEAgYHAwQCBgJzAQIDEQQABSESMUFRBhNhInGBFDKRoQcVsUIjwVLR4TMWYvAkcoLxJUM0U5KismNzwjVEJ5OjszYXVGR0w9LiCCaDCQoYGYSURUaktFbTVSga8uPzxNTk9GV1hZWltcXV5fVmdoaWprbG1ub2N0dXZ3eHl6e3x9fn9zhIWGh4iJiouMjY6PgpOUlZaXmJmam5ydnp+So6SlpqeoqaqrrK2ur6EQACAgECAwUFBAUGBAgDA20BAAIRAwQhEjFBBVETYSIGcYGRMqGx8BTB0eEjQhVSYnLxMyQ0Q4IWklMlomOywgdz0jXiRIMXVJMICQoYGSY2RRonZHRVN/Kjs8MoKdPj84SUpLTE1OT0ZXWFlaW1xdXl9UZWZnaGlqa2xtbm9kdXZ3eHl6e3x9fn9zhIWGh4iJiouMjY6Pg5SVlpeYmZqbnJ2en5KjpKWmp6ipqqusra6vr/2gAMAwEAAhEDEQA/APonnrD4a7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq4tEivJM3CCJWknf+VEBZj9AByMjQtIBOw5vwL/ADd89Xf5j/mP5t82XM/rW97qE0ekKCxSOzicpCsfIVC8RWh6V22zWj7931fQ6YabBDGByDzfC5beKuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KozTtR1DR9QsdW0m8l0/VNMnjudPv4TSSGWNgyup7EEYljOAmDGW4OxHfb9zPyK/Nyx/OXyDY+ZVEdtr9iRZebdMQ/wC896qgl1A/YmWjr8yKDMvDPiFHm+Y9q9nHRZzCrid4n9Hwex5e6x2FXnP5ofmf5a/KbyvP5n8zSs0fIxabpsJAnu56VEcda023LUNB49MpyZBAW52g0GTW5OCHxPcHwen/ADn/AOYTqCmT8tdLTSDOOS/XLg3QgJ/mHwcwP8mntmN407ep/wBCmLh/vDfuD9Avy+8/eXvzL8rWPmzy1ci4sbsmKeEsGktrhAPUhk49xUEHuPA1AyceTj3eS1ujyaXIccxv394ZplziuxV2Kv8A/9D6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KvNfzl15vLH5S/mPriXQtJ7HQLz6tc7/DLKhiSlN6ktTKM59Ln9mYvF1WOPTiHyfgVEnpxxpvVVAJJqdgBmJzfVDzVMCuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KvoD/nG783W/KP8xLO9vZCPK/mMx6Z5qSp4xwO3wXPEDdoXIb/V5D9rJQlwm3Vdsdn/AJzAYj6hvH393xft0rI6q8bB0cBkdSCGU7ggjYgjcHNgDb5kRTeKH4+f85k/mHJ5t/Na78sWs5bR/IiDT413Cm9YBrpqEdQx4VHUAeGYE58cifg+i+z2j8DSiZ5z3+HT9fxfI34ZB3z9Gf8An37rs/1n80fKrT/6J6Wn6zBbf8XMz28jD24gZbgNTeQ9rMQ4MWTzI/S/SPM54t2KuxV//9H6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2BXzf8A85cyNF/zj556KGnqNYRtQ/svdRg/eMxs/L8d7u/Z7fWw9x+4vxUzGfSHYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq0QGBVhUHYjFeXvfsv/AM4gfmPN+YH5Q2lhqMxuNd8gXA0HUXY/FJbhPUsZGJ7mL4DT+Ud8ycEuj517R6IafU8UfpmLHv6vefPnm6z8g+SvNPnS9bjF5c02e8iX4SXnVSIEVWIDFpCu1elcszT4Yl1ej0x1OaGMfxGvx8H8/d/qN3q99fatfsGvtVuJLu9IrT1ZmLvQsSaVPjmEBT6xGAgBGPIITFL7c/5wLMo/NXzUFr6LeWW9anSouF48vprTLMf1j8dzzftT/isf6w+5+r+Z7wDsVdir/9L6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2BXx5/zm35rtdG/J5vLJaI6j5w1G2jt4XJD+hZyLNNIg7kHiCOwauYuoPIPSezOnMtUZ9Ig/M7PyHzHe/dirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVfe/8AzgBqUkXnb8ydJZ29C90CzuY4q/CJYLpgWp48WpXwy3D9TyvtZD9zjnW4kR8w9H/5zv8AzAFj5b8tflnZTJ9Y8wTjVtfhqC62lqxFuCpFQHmqwIP7Jw55WeFw/ZbSAznmP8Ow956/Lb4vzByl7Z2Kv0f/AOffvl+UL+aHm90X0ZDYaHbuft805XMlPbcfTluDeTx/tZmrw8fvl+gP0czOeMdirsVf/9P6J56w+GuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2BX5Qf852a2b38zfL2iLLIY9D0JHaAmsayXcruzKPEqqg/IZg5jcvc997L4uHTGX86R+x8R5W9K7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq+7f+cBYYh58/MvUp5Vgh0vyxbPNK54oqS3bc2ZjsAFSpOTxECTy/tUT4GOI6z/Q+cvz3/MK6/Mr8z/M3mB3cafDdPZ6JbSV/d2tufSSgJPEvx5kA0qdupyJNkl3PZmkGl08YDnVn3vH8DnuxV+uX/OE3mXybcflRbeUdH1AN5s0u5utQ806bKoSXlcSUR4qf3kSqAA3Y1rTL9ORZDwPtPhyjUeJIeg7RP6Pe+yczHmnYq7FX//U+ieesPhrsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdir8bf+czWdvz31wMxKppumBAew+rqdvpOa/L9Z/Hc+j+zv+JR95+98rZB3jsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdir1nyH+at3+Xvkj8yPLuhWk0PmP8wls7I+ZFdPTtNNgLPPCsZHIySsaBq8QtQQa4CLcLU6IajLjlI+mFmv6X6nkvTpthc1vFWsVfXn/ADhALlvz1jMFRbjy5qhvAKbrWELXv9rwyeP6w6D2lr8mb/nD9L9gM2D527FXYq//1fonnrD4a7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXEgAkkKoBJZiAAB1JJ2oOpORJpNF8k/mL/AM5l/lX5HvLjStEiu/P+qWzNHO+lvHHZI6+FzIaSLWoJQbEZjHU9z0Gj9m9RmHFMiA8+fyeTad/z8C0lrlRrH5XXsNmaVksdQiklHieMqoDT55EZ5Own7JSq45PmKfLn/OTnnryd+ZP5h2HnLyXqLX2n6vodmL6CaJobi0uoWlia3nRtg4VVaqkggg5XI8RJd52LpcumweFkFEE15jnf2vnbIu2dirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVfb/wDzgZpM11+afmrWkWttonlpopn/AMq+nVEA/wCRRyzELn+Px0ea9qZ1pox6mX3D9r9XMz3gXYq7FX//1vonnrD4a7FXYq7FXYq7FXYq7FXYq7FXYq3/AJjAVcASCQDsCxPYKOpJ8B3wGVK4gih7MAynsQdwR4g4xNq1kldir4F/5zV/Oe48v2Nv+VHl68e21LXLRbzzTdwScJIrSQj0reo3AlUFmpSopv1Bw8+SzQ+L1vs12aJk6iY2BqPv6l8Tfkn+Rfmv869ZuLLROGk+XtH4HX/M86Mbe2L/AGYolFDJKw3CDp1Ygb5VAEmhzem7R7Ux6GAMtyeQHM/qHeX3/Zf84K/lNDYpBfa75jvb4qBLfpPBCC46lIvRcAHwJY++X/lx1eTl7Uagm4xiB53+t8o/n5/zirqP5QaI3nLRvMP+I/Kq3SW13DNCYry09YsI2cqTG6VAUsCpqfs0ynJjMHe9ldux1svDlHhlV+R7/N8i5B37eKuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KtYq/Uj/nAfys9l5J87edJ4WjbzHqsem6fMSOMlvp6Vkp32lfL9OLlbxHtXmvLjx9wJPvP7H3pmY8m7FXYq//1/onnrD4a7FXYq7FXYq7FXYq7FXYq7FXYFeBf85Bfnnp/wCSnlSK9gt4dV83a7zh8saNMT6PJPt3NwAQxiiJFQPtNRajcijNk4RTt+yeyjrclS2gPq/4kPyV8xfnp+cvmyDVbLX/AMytcu9P1uQSahpMc/oWp4nkESOIKUQH9ldsxDvze/w9m6bCQY44gjkas/N9r/8AOKX5zWHlH8jfzB1Dzz5ga70/yBq0X6IsZpvVvTDfRVS3iDsWZWmWidl37ZPFkMCR06PN9u9myz6vGMcd5g2em3U+YHzeZat/zmj+d/mHUtRuvI+hWGl6JZqWaxXTTqkkEdTxeecg0JHXoPDbBLJInnTm4/ZvR4wBkJMvfwh91f8AOPH5uv8AnH5CHmXVrWLTdS0q8ksNeEB/dM0UaSmZF34go9SOlRttmRjykxN8w8r2x2cNHn4InYgEfOn5B/mJr2q/mn+bXmfVrUfXdR806+9ppEcXNlZfW+r2wjRqkKVAPEfRmJG/mX0PSYY6bTxgdhCO/wB5fth+V35e6T+VnkPy/wCSNHRDHpcPPU71RRry/lAa5uXO1SzbCv7IAzOxQ4Q+Z6/Wy1eaWWW17D3dAO5n/wDmctpwwxLz95O078wvJfmbyVqoUWnmKxktVmYA+jNSsMy8qgGNwCD2yvLDijs5Oi1B0uaOWP8ACfmOofgZ5l8tav5P1/VPK+vwC11jRZmt762BrxZSQK9CKjehAO+4GYINvq2LLHNATh9JF2kmLY7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYqmWi6LqfmPV9N0HRrc3eq6vcR2mn2y9XlkYKoHuScd+jDJkjjiZS+mPMv3z/LjyVZfl15F8seSrErImg2KQ3V0oAM9y3xXEpoBXk5NCd6AVzNxQ4I0+Va3UnU5p5D1PLuDNsucR2KuxV//9D6J56w+GuxV2KuxV2KuxV2KuxV2KuxVbJLBBFNcXUy29rbRvNd3D/ZjiiUvI7eyqCTkJy4RbKIJIA5vwd/Oz8z7z83PzF17zbK5XSfVNj5XsydoNNtyVhAp3k3kY92aua+73fU+zdFHR4I4xz5k/0jzeUHfFzlyySIHVJWRZBSVAxAZetCAaEA+ONC1ftX/wA4oeS4PJX5LeWpPq6LqXm6M63rMjKp9Zbkn6ujmnxIIONA3Tk3jmThxjh36vm3b+qObVSF7Q9I943P2/c9C0PyD5X/ACr8kecdO8l2D2NpdQ6xrM8UshkLXM8Du1GIACqAFVQNgBkjARiacXJrMmszQlkNkcI+T8ev+cYre31P87fyvF7QIdRW8Fa/30ULzx9f8tRTMaHMPofbJMdLlruL90f865sHyzzdhV2BXyF/zkz/AM42H82orXzV5Sli0/zppg431s6j09TtwABXpSaMLRCWAYbGh+LMXLi34g9H2J2z+U/d5PoPL+if1Pyc1/y15g8qajNpPmTRrvRdSgNJbO6jaNgen7QFQaVHtv0zHD3mPLDJESiQQe42km46gj59cNNjsCuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KuxV2KvtH/nBry9Zav+aur6xe2qXJ8s6K8+ns+/pXNxIsSyAdKhOY377jLcUbm857T5pR0wAP1GvgA/WrM18/dhV2KuxV//0fonnrD4a7FXYq7FXYq7FXYq7FXYq7Ar5p/5y288yeSPyS8xJZXH1fV/OMsXl/TXBKuEuTyunRh0ZIVYjMbUS2ADvPZ7SjPrIk8oDiPv6fa/FhVCgKo4qooFHQAdMxtn0f8ABXYq0dxTx6YpD94PyE16z8x/k1+W+o2LD04tDtbGVQd1msV+rSqdzT44iflTM7EbiHy3tbFLFq8gPffz3esy28d5BcWUzcIb6GS1meleKzIYy30Bq4ZjZ18ZGMgRzt+BVjPqf5O/mukk0DR6j+XPmYia1kqCyWdx0YDf44qGncHMAHh+BfV5CGswbfTkj9/7X70aTq2m6/pOma7ot0t7o+s2sV7pd4hBEkEyhkO3emx8DUdRmfGVh8qyYzjmYSFSCYZY1uxV2BUDf2Wl3kLHVrS1uraEGSQ3ccciKqipYmQECg75GQFWQ2YpzifQSCe5+FX53+fh+ZX5meYvM8CpHpauNO0CCNQix6fZlkgAUAU5Alz13Y9qZgE2X1Hs3SfltPGB58z7y8nwOc7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq/Sr/nADQpk078y/NDoPq11cWGk20hHxepAj3ElD4UmAy7B9VvG+1mUXjh13P6H6I5mvHOxV2KuxV//9L6J56w+GuxV2KuxV2KuxV2KuxV2BXnX5p/md5a/KLyhdebvNErmBJBa6VpsNDcX144JSCEE06DkzHZRv4ZTlyCPmXO0GgyazKIQ2rme4PyW/Pn/nIrVPzzt/LtlceXIvLNh5duLm4S1iumufWlnUIjNyjjAKJyG1a17ZjTkZGy992X2RHQcVS4jKgbFcu773zlkHbuxVPLPy1reoeX9e802di0+g+Wp7O11q+BH7mW/LC3Xj9puXA1p9nv1xap5YxkIE0ZA18Ob7f/AOcI/wA4LPQ9VvPyj8w3i2tn5lufrfky5lYKg1FlpLaFjQAzqoKVP2l4jrlmOfCd+TzftN2dLJEaiA3jtL+r3/B+oJBBKsOLA0ZT2OZweF9z88P+czfyHv8AV5H/ADh8n2JvLq2t1i89aXApaR4oRSO/RRXkUUcZQBWgDb70xM2OjY5PY+zfaoAGnyHr6T/vfj0eHf8AONf/ADk9c/lT6XlDzcZtV/Lm5lMltNCDJc6U8pq7wD9uE9WjG9d132yvHPg5cnZ9s9iDWXkx7ZB/sv2v1b8pecvKXn2wi1PyX5j0/wAzWcoqpsZlklWlOQeLaRSK7grtmUMsTu8HqNLl08uHLExPmyZlZTxZSrDqCKHLQbce2gCTQCpOwGJW3zr/AM5TefrfyD+UPmeNdRitfMPmKIaRpNiZI/rR+t/DLIIGPIoIgwJpQVGY2bKKodXc9g6Q6jVRJHojufh+1+JgAAAHbamYwD6U3irsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVdirsVWSOI0eR9lQEt9GKgXs/THy5+bvlz/nFX8pvI3ke40C48zfmRr1kPM3mLQresKWQ1P8Aew/XLhUkoTFTgACadaA5LHlERt+PxyeOz9nT7V1M8glw44+kHv4f5vxZh+WX/Ob/AJI836tFovnPRX8hzXsogsNYFwLzT/UNAEuJOEbw1Jpy4lfEg5cM/eHF1vsxlwx4schPyIo/DvfboKkAqQysAVYEEFSKggjrUeGZILzBFfjk7JIdir//0/onnrD4a7FXYq7FXYq7FXYq7FXYFflH/wA55eZby/8AzP8ALPlJnYab5X0CK+hiDfA9xqcjl5CvTkqxBQfA5gZTcnvvZbAI6aU+spEH/NqnxBkHpXYq738MUgP05/5w7/LrSvNf5A/mTp3mCH1tI/MXWZ7C44geoq2EKRrIpNfiSRg69qjfbLMUOO3ivaHWyw6zFKHPHG/fb4S/Nb8q/M/5PeapvLnmCKThzM2ga7EGSK9hRqpPC4OzjYsK1U/fkJRINPUaHXY9XjE4H3ju7wR3fe+t/wAnf+c3L3SLOz8u/m3Z3Ouw2iJBa+crIB7zgo4r9chJX1j0q6kNtUhjluPKY7Hk8/2j7NDJLjwERPPh6fA9Pc+8PKP5x/lf55WE+V/PWkajcTg8bB5lgugB1528/CQD5rlwywkHl9R2ZqcB9eMiuo5fMPmf85/+cLdD863V75r/ACuuIPK2t3rtNfaAVLaRcytuzwmIE27MakhQUr+yK5TLEOhdz2d7STwgY9Rch38pfHv+/wB74m1D/nGr/nIjyffmay8g6+LxhQaj5ekaZmUdjJZvyp7N92UnY7vTQ7Z0WWO+SNf0v1SQFz+cH/ORn5fXsvljUvP/AJt8uX+mBPX0LUZWEsIkUOnOOZSwDKQRXscTuzGg0WoHGIQkD1ACFv8A/nI78+dRhe3ufzV11IZFKSJBKkPJT1BKKDjuyh2To4mxijbx28u7zUbt7/Ur651O/kHF728leeYrWtDJIWale1cXPiBEUNh8P0KGKXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FXYq7FX0L/zjR+Ukn5q/mTpkV7AW8q+WZYtU8zyUIDxRPWK3DbCsrqBtvSppQHJRiZGg6rtjtAaTTkj65bR/X8H7YSW1nNI0s2n2kkrDizvbxM3EbKtSp2A2A6AdszPCD5mMkoigSPdfPvfGv/OWf5DeVfMvkTXPP/l7QrXSPOflaD65dzWEKwpqNihAminijCqWRSXV6VABByjLircPSdgdrZceYYZyJhLYWfpPkfPr5rf+cJ/zRv8Azr5D1Tydrd4bzVfIDwR6dcSMWml0u4B9EMTufQYcKk1oVHbJYJ9CvtNoY4coywFCfMf0v2vtLMp5l2Kv/9T6J56w+GuxV2KuxV2KuxV2KuxV2BX4vf8AOYV+b7/nIHzep/6Vtrp1go9o7cSf8zM18jZPvfSvZ+HDoYedn7XzLkXcuxV2KQ/av/nEfSBo/wDzj/5FBdWk1r65qzoOoNxcOlCOtaRDMnT0L8y+be0OTj1k9uQA+x6/568geUfzK8v3Hlnzno0WsaXMecDt8FxazDZZ7WYfFFIviNj3BGW5MYm67SazLpZ8eOVH7D5HvD8wfzO/5wr/ADF8p3F1feQ3Hn7y4peSCJSkGqQRipCywsVSQgftRmp/lzElilF7fRe0mnzUMtwl/sfh+18p6x5P81aFP9V13ytquk3C0PpXtlPC3iCBIgP0jIHbyd9izwmLhIH3FMdN8w/mLpqJb6N5g80WEJH7u1tL2+jj/wBjGjhfuGN11YTw4ZH1RgT5gFEX3n/80IZXs9Q89+a7eeKgltptTvYpF5AEVX1FYVBBGGz3sRpMBFiEa9w/Uw66u7u+uJLq+vLi/upSDLd3UrzyvQU+KSQszU6bnpgb4gRFAUEPiyd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1723,30 +1733,38 @@
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="黑体-简 细体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="黑体-简 细体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1887,101 +1905,164 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="fff2f2f2"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -2107,7 +2188,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2116,7 +2197,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2125,7 +2206,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2199,7 +2280,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2207,7 +2288,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2226,7 +2307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2256,7 +2337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2282,7 +2363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2308,7 +2389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2334,7 +2415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2360,7 +2441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2386,7 +2467,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2412,7 +2493,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2438,7 +2519,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2464,7 +2545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2477,9 +2558,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2494,7 +2581,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -2502,7 +2589,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2521,7 +2608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2547,7 +2634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2573,7 +2660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2599,7 +2686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2625,7 +2712,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2651,7 +2738,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2677,7 +2764,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2703,7 +2790,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2729,7 +2816,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2755,7 +2842,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2768,9 +2855,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2784,7 +2877,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2803,7 +2896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2833,7 +2926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2859,7 +2952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2885,7 +2978,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2911,7 +3004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2937,7 +3030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2963,7 +3056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2989,7 +3082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3015,7 +3108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3041,7 +3134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3054,110 +3147,119 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="9" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:8" ht="14.25" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" ht="94.5" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:8" ht="94.5" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="G3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" ht="16" customHeight="1">
+    </row>
+    <row r="4" spans="1:8" ht="15.95" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3167,7 +3269,7 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3177,7 +3279,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3187,7 +3289,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row r="7" spans="1:8" ht="15.95" customHeight="1">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3197,7 +3299,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row r="8" spans="1:8" ht="15.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3207,7 +3309,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3217,7 +3319,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -3228,8 +3330,9 @@
       <c r="H10" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3237,2893 +3340,2894 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV102"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.1719" style="11" customWidth="1"/>
-    <col min="3" max="3" width="18.3516" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19.8516" style="11" customWidth="1"/>
-    <col min="5" max="5" width="20.8516" style="11" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="19.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.875" style="11" customWidth="1"/>
     <col min="6" max="6" width="24" style="11" customWidth="1"/>
     <col min="7" max="7" width="12" style="11" customWidth="1"/>
-    <col min="8" max="8" width="94.3516" style="11" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="11" customWidth="1"/>
-    <col min="11" max="256" width="8.85156" style="11" customWidth="1"/>
+    <col min="8" max="8" width="114.125" style="11" customWidth="1"/>
+    <col min="9" max="256" width="8.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H1" t="s" s="3">
-        <v>27</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" ht="35.25" customHeight="1">
-      <c r="A2" t="s" s="14">
+    <row r="2" spans="1:10" ht="35.25" customHeight="1">
+      <c r="A2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B2" t="s" s="14">
+      <c r="C2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="14">
+      <c r="D2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s" s="14">
+      <c r="E2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s" s="14">
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F2" t="s" s="14">
+      <c r="G2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s" s="14">
+      <c r="H2" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="H2" t="s" s="14">
-        <v>35</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="D3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="F3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F3" t="s" s="3">
-        <v>41</v>
       </c>
       <c r="G3" s="17">
         <v>3</v>
       </c>
-      <c r="H3" t="s" s="3">
-        <v>42</v>
+      <c r="H3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="F4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" t="s" s="3">
-        <v>48</v>
       </c>
       <c r="G4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" t="s" s="3">
-        <v>49</v>
+      <c r="H4" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="I4" s="18"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="D5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="E5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s" s="3">
-        <v>48</v>
+      <c r="F5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="G5" s="17">
         <v>4</v>
       </c>
-      <c r="H5" t="s" s="3">
-        <v>55</v>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="I5" s="18"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="C6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s" s="3">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s" s="3">
+      <c r="F6" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F6" t="s" s="3">
-        <v>60</v>
       </c>
       <c r="G6" s="17">
         <v>2</v>
       </c>
-      <c r="H6" t="s" s="3">
-        <v>61</v>
+      <c r="H6" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E7" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s" s="3">
-        <v>47</v>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="17">
         <v>4</v>
       </c>
-      <c r="H7" t="s" s="3">
-        <v>67</v>
+      <c r="H7" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="I7" s="18"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s" s="3">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s" s="3">
+      <c r="F8" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" t="s" s="3">
-        <v>71</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
-      <c r="H8" t="s" s="3">
-        <v>72</v>
+      <c r="H8" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="C9" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s" s="3">
+      <c r="F9" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="F9" t="s" s="3">
-        <v>77</v>
       </c>
       <c r="G9" s="17">
         <v>2</v>
       </c>
-      <c r="H9" t="s" s="3">
-        <v>78</v>
+      <c r="H9" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I9" s="18"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="C10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="D10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="E10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="F10" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="F10" t="s" s="3">
-        <v>84</v>
       </c>
       <c r="G10" s="17">
         <v>3</v>
       </c>
-      <c r="H10" t="s" s="3">
-        <v>85</v>
+      <c r="H10" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s" s="3">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s" s="3">
+      <c r="F11" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="F11" t="s" s="3">
-        <v>89</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
       </c>
-      <c r="H11" t="s" s="3">
-        <v>90</v>
+      <c r="H11" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="C12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="D12" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="E12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="E12" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="F12" t="s" s="3">
-        <v>95</v>
       </c>
       <c r="G12" s="17">
         <v>3</v>
       </c>
-      <c r="H12" t="s" s="3">
-        <v>96</v>
+      <c r="H12" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="C13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="D13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="E13" t="s" s="3">
+      <c r="F13" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" t="s" s="3">
-        <v>101</v>
       </c>
       <c r="G13" s="17">
         <v>2</v>
       </c>
-      <c r="H13" t="s" s="3">
-        <v>102</v>
+      <c r="H13" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="C14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C14" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="D14" t="s" s="3">
+      <c r="E14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="F14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="F14" t="s" s="3">
-        <v>107</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
-      <c r="H14" t="s" s="3">
-        <v>108</v>
+      <c r="H14" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="C15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="D15" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="E15" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E15" t="s" s="3">
+      <c r="F15" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="F15" t="s" s="3">
-        <v>114</v>
       </c>
       <c r="G15" s="17">
         <v>4</v>
       </c>
-      <c r="H15" t="s" s="3">
-        <v>115</v>
+      <c r="H15" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="3">
+    <row r="16" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="C16" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C16" t="s" s="3">
+      <c r="D16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="E16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="F16" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" t="s" s="3">
-        <v>121</v>
       </c>
       <c r="G16" s="17">
         <v>3</v>
       </c>
-      <c r="H16" t="s" s="3">
-        <v>122</v>
+      <c r="H16" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="3">
+    <row r="17" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="C17" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="D17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="E17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="F17" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="F17" t="s" s="3">
-        <v>128</v>
       </c>
       <c r="G17" s="17">
         <v>3</v>
       </c>
-      <c r="H17" t="s" s="3">
-        <v>129</v>
+      <c r="H17" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="3">
+    <row r="18" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="C18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="D18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="E18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="F18" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="F18" t="s" s="3">
-        <v>135</v>
       </c>
       <c r="G18" s="17">
         <v>1</v>
       </c>
-      <c r="H18" t="s" s="3">
-        <v>136</v>
+      <c r="H18" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="3">
+    <row r="19" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="C19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="F19" t="s" s="3">
-        <v>76</v>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="G19" s="17">
         <v>2</v>
       </c>
-      <c r="H19" t="s" s="3">
-        <v>140</v>
+      <c r="H19" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="I19" s="18"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="3">
+    <row r="20" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B20" t="s" s="3">
+      <c r="C20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C20" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="D20" t="s" s="3">
+      <c r="E20" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="F20" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="F20" t="s" s="3">
-        <v>145</v>
       </c>
       <c r="G20" s="17">
         <v>1</v>
       </c>
-      <c r="H20" t="s" s="3">
-        <v>146</v>
+      <c r="H20" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="3">
+    <row r="21" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B21" t="s" s="3">
+      <c r="C21" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="D21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D21" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="E21" t="s" s="3">
+      <c r="F21" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F21" t="s" s="3">
-        <v>151</v>
       </c>
       <c r="G21" s="17">
         <v>2</v>
       </c>
-      <c r="H21" t="s" s="3">
-        <v>152</v>
+      <c r="H21" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="3">
+    <row r="22" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B22" t="s" s="3">
+      <c r="C22" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C22" t="s" s="3">
+      <c r="D22" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D22" t="s" s="3">
+      <c r="E22" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E22" t="s" s="3">
-        <v>157</v>
-      </c>
-      <c r="F22" t="s" s="3">
-        <v>94</v>
+      <c r="F22" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="G22" s="17">
         <v>4</v>
       </c>
-      <c r="H22" t="s" s="3">
-        <v>158</v>
+      <c r="H22" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="3">
+    <row r="23" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B23" t="s" s="3">
+      <c r="C23" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C23" t="s" s="3">
+      <c r="D23" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D23" t="s" s="3">
+      <c r="E23" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E23" t="s" s="3">
+      <c r="F23" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F23" t="s" s="3">
-        <v>164</v>
       </c>
       <c r="G23" s="17">
         <v>2</v>
       </c>
-      <c r="H23" t="s" s="3">
-        <v>165</v>
+      <c r="H23" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="3">
+    <row r="24" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="C24" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C24" t="s" s="3">
+      <c r="D24" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D24" t="s" s="3">
+      <c r="E24" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="E24" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="F24" t="s" s="3">
-        <v>170</v>
       </c>
       <c r="G24" s="17">
         <v>1</v>
       </c>
-      <c r="H24" t="s" s="3">
-        <v>171</v>
+      <c r="H24" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="3">
+    <row r="25" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B25" t="s" s="3">
+      <c r="C25" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C25" t="s" s="3">
+      <c r="D25" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D25" t="s" s="3">
+      <c r="E25" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E25" t="s" s="3">
+      <c r="F25" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" t="s" s="3">
-        <v>177</v>
       </c>
       <c r="G25" s="17">
         <v>3</v>
       </c>
-      <c r="H25" t="s" s="3">
-        <v>178</v>
+      <c r="H25" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="3">
+    <row r="26" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B26" t="s" s="3">
+      <c r="C26" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="D26" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D26" t="s" s="3">
-        <v>182</v>
-      </c>
-      <c r="E26" t="s" s="3">
-        <v>125</v>
-      </c>
-      <c r="F26" t="s" s="3">
-        <v>119</v>
+      <c r="E26" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G26" s="17">
         <v>3</v>
       </c>
-      <c r="H26" t="s" s="3">
-        <v>183</v>
+      <c r="H26" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="3">
+    <row r="27" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A27" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="C27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C27" t="s" s="3">
-        <v>150</v>
-      </c>
-      <c r="D27" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s" s="3">
-        <v>45</v>
-      </c>
-      <c r="F27" t="s" s="3">
-        <v>186</v>
       </c>
       <c r="G27" s="17">
         <v>2</v>
       </c>
-      <c r="H27" t="s" s="3">
-        <v>52</v>
-      </c>
-      <c r="I27" t="s" s="19">
+      <c r="H27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="3">
+      <c r="B28" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="C28" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C28" t="s" s="3">
+      <c r="D28" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D28" t="s" s="3">
+      <c r="E28" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="F28" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="F28" t="s" s="3">
-        <v>193</v>
       </c>
       <c r="G28" s="17">
         <v>2</v>
       </c>
-      <c r="H28" t="s" s="3">
-        <v>194</v>
+      <c r="H28" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="3">
+    <row r="29" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B29" t="s" s="3">
+      <c r="C29" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C29" t="s" s="3">
-        <v>190</v>
-      </c>
-      <c r="D29" t="s" s="3">
-        <v>182</v>
-      </c>
-      <c r="E29" t="s" s="3">
-        <v>144</v>
-      </c>
-      <c r="F29" t="s" s="3">
-        <v>197</v>
       </c>
       <c r="G29" s="17">
         <v>1</v>
       </c>
-      <c r="H29" t="s" s="3">
-        <v>198</v>
+      <c r="H29" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="3">
+    <row r="30" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="C30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="D30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D30" t="s" s="3">
-        <v>202</v>
-      </c>
-      <c r="E30" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="F30" t="s" s="3">
-        <v>144</v>
+      <c r="E30" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="G30" s="17">
         <v>4</v>
       </c>
-      <c r="H30" t="s" s="3">
-        <v>203</v>
+      <c r="H30" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="I30" s="18"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="3">
+    <row r="31" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="C31" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C31" t="s" s="3">
+      <c r="D31" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D31" t="s" s="3">
-        <v>207</v>
-      </c>
-      <c r="E31" t="s" s="3">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s" s="3">
-        <v>118</v>
+      <c r="E31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G31" s="17">
         <v>2</v>
       </c>
-      <c r="H31" t="s" s="3">
-        <v>208</v>
+      <c r="H31" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="I31" s="18"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="3">
+    <row r="32" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B32" t="s" s="3">
+      <c r="C32" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C32" t="s" s="3">
-        <v>206</v>
-      </c>
-      <c r="D32" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E32" t="s" s="3">
-        <v>127</v>
-      </c>
-      <c r="F32" t="s" s="3">
-        <v>211</v>
       </c>
       <c r="G32" s="17">
         <v>1</v>
       </c>
-      <c r="H32" t="s" s="3">
-        <v>212</v>
+      <c r="H32" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="I32" s="18"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="3">
+    <row r="33" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="C33" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D33" t="s" s="3">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s" s="3">
+      <c r="F33" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="F33" t="s" s="3">
-        <v>217</v>
       </c>
       <c r="G33" s="17">
         <v>2</v>
       </c>
-      <c r="H33" t="s" s="3">
-        <v>218</v>
+      <c r="H33" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="I33" s="18"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="3">
+    <row r="34" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A34" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B34" t="s" s="3">
+      <c r="C34" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C34" t="s" s="3">
+      <c r="D34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D34" t="s" s="3">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="F34" t="s" s="3">
-        <v>41</v>
+      <c r="F34" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G34" s="17">
         <v>1</v>
       </c>
-      <c r="H34" t="s" s="3">
-        <v>223</v>
+      <c r="H34" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="I34" s="18"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="3">
+    <row r="35" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B35" t="s" s="3">
+      <c r="C35" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="D35" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="E35" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="F35" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="F35" t="s" s="3">
-        <v>229</v>
       </c>
       <c r="G35" s="17">
         <v>4</v>
       </c>
-      <c r="H35" t="s" s="3">
-        <v>230</v>
+      <c r="H35" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="I35" s="18"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="3">
+    <row r="36" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B36" t="s" s="3">
+      <c r="C36" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="C36" t="s" s="3">
+      <c r="D36" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D36" t="s" s="3">
+      <c r="E36" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E36" t="s" s="3">
+      <c r="F36" s="3" t="s">
         <v>235</v>
-      </c>
-      <c r="F36" t="s" s="3">
-        <v>236</v>
       </c>
       <c r="G36" s="17">
         <v>1</v>
       </c>
-      <c r="H36" t="s" s="3">
-        <v>237</v>
+      <c r="H36" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="I36" s="18"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="3">
+    <row r="37" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="C37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="D37" t="s" s="3">
+      <c r="E37" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="E37" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="F37" t="s" s="3">
-        <v>241</v>
       </c>
       <c r="G37" s="17">
         <v>2</v>
       </c>
-      <c r="H37" t="s" s="3">
-        <v>242</v>
+      <c r="H37" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="I37" s="18"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="3">
+    <row r="38" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="C38" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C38" t="s" s="3">
+      <c r="D38" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D38" t="s" s="3">
+      <c r="E38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="E38" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="F38" t="s" s="3">
-        <v>247</v>
       </c>
       <c r="G38" s="17">
         <v>3</v>
       </c>
-      <c r="H38" t="s" s="3">
-        <v>248</v>
+      <c r="H38" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="I38" s="18"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="3">
+    <row r="39" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="C39" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C39" t="s" s="3">
+      <c r="D39" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D39" t="s" s="3">
+      <c r="E39" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="E39" t="s" s="3">
-        <v>235</v>
-      </c>
-      <c r="F39" t="s" s="3">
-        <v>253</v>
       </c>
       <c r="G39" s="17">
         <v>3</v>
       </c>
-      <c r="H39" t="s" s="3">
-        <v>254</v>
+      <c r="H39" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="I39" s="18"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="3">
+    <row r="40" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A40" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B40" t="s" s="3">
+      <c r="C40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C40" t="s" s="3">
-        <v>168</v>
-      </c>
-      <c r="D40" t="s" s="3">
+      <c r="E40" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="F40" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="F40" t="s" s="3">
-        <v>259</v>
       </c>
       <c r="G40" s="17">
         <v>2</v>
       </c>
-      <c r="H40" t="s" s="3">
-        <v>260</v>
+      <c r="H40" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="I40" s="18"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="3">
+    <row r="41" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="C41" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="D41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>263</v>
-      </c>
-      <c r="D41" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s" s="3">
-        <v>48</v>
-      </c>
-      <c r="F41" t="s" s="3">
-        <v>264</v>
       </c>
       <c r="G41" s="17">
         <v>1</v>
       </c>
-      <c r="H41" t="s" s="3">
-        <v>265</v>
+      <c r="H41" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="I41" s="18"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="3">
+    <row r="42" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A42" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B42" t="s" s="3">
+      <c r="C42" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="C42" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="D42" t="s" s="3">
-        <v>99</v>
-      </c>
-      <c r="E42" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="F42" t="s" s="3">
-        <v>169</v>
+      <c r="F42" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="G42" s="17">
         <v>4</v>
       </c>
-      <c r="H42" t="s" s="3">
-        <v>269</v>
+      <c r="H42" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="I42" s="18"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="3">
+    <row r="43" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A43" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B43" t="s" s="3">
-        <v>271</v>
-      </c>
-      <c r="C43" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="D43" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="E43" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="F43" t="s" s="3">
-        <v>95</v>
+      <c r="C43" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="G43" s="17">
         <v>1</v>
       </c>
-      <c r="H43" t="s" s="3">
-        <v>272</v>
+      <c r="H43" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="I43" s="18"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="3">
+    <row r="44" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="C44" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="D44" t="s" s="3">
+      <c r="E44" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E44" t="s" s="3">
-        <v>276</v>
-      </c>
-      <c r="F44" t="s" s="3">
-        <v>217</v>
+      <c r="F44" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G44" s="17">
         <v>2</v>
       </c>
-      <c r="H44" t="s" s="3">
-        <v>277</v>
+      <c r="H44" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="I44" s="18"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="3">
+    <row r="45" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A45" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="C45" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="C45" t="s" s="3">
+      <c r="D45" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="D45" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s" s="3">
-        <v>222</v>
-      </c>
-      <c r="F45" t="s" s="3">
-        <v>281</v>
       </c>
       <c r="G45" s="17">
         <v>2</v>
       </c>
-      <c r="H45" t="s" s="3">
-        <v>282</v>
+      <c r="H45" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="I45" s="18"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="3">
+    <row r="46" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A46" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B46" t="s" s="3">
-        <v>284</v>
-      </c>
-      <c r="C46" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="D46" t="s" s="3">
-        <v>264</v>
-      </c>
-      <c r="E46" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="F46" t="s" s="3">
-        <v>83</v>
+      <c r="C46" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G46" s="17">
         <v>3</v>
       </c>
-      <c r="H46" t="s" s="3">
-        <v>285</v>
+      <c r="H46" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="I46" s="18"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="3">
+    <row r="47" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A47" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="C47" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="D47" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="E47" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="F47" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="F47" t="s" s="3">
-        <v>291</v>
       </c>
       <c r="G47" s="17">
         <v>3</v>
       </c>
-      <c r="H47" t="s" s="3">
-        <v>292</v>
+      <c r="H47" s="3" t="s">
+        <v>291</v>
       </c>
       <c r="I47" s="18"/>
       <c r="J47" s="10"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="3">
+    <row r="48" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B48" t="s" s="3">
+      <c r="C48" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C48" t="s" s="3">
-        <v>163</v>
-      </c>
-      <c r="D48" t="s" s="3">
+      <c r="E48" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E48" t="s" s="3">
+      <c r="F48" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="F48" t="s" s="3">
-        <v>297</v>
       </c>
       <c r="G48" s="17">
         <v>2</v>
       </c>
-      <c r="H48" t="s" s="3">
-        <v>298</v>
+      <c r="H48" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="I48" s="18"/>
       <c r="J48" s="10"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" t="s" s="3">
+    <row r="49" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A49" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B49" t="s" s="3">
+      <c r="C49" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="D49" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="D49" t="s" s="3">
-        <v>290</v>
-      </c>
-      <c r="E49" t="s" s="3">
-        <v>182</v>
-      </c>
-      <c r="F49" t="s" s="3">
-        <v>302</v>
       </c>
       <c r="G49" s="17">
         <v>3</v>
       </c>
-      <c r="H49" t="s" s="3">
-        <v>303</v>
+      <c r="H49" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="I49" s="18"/>
       <c r="J49" s="10"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" t="s" s="3">
+    <row r="50" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="C50" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C50" t="s" s="3">
+      <c r="D50" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D50" t="s" s="3">
+      <c r="E50" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="E50" t="s" s="3">
-        <v>308</v>
-      </c>
-      <c r="F50" t="s" s="3">
-        <v>82</v>
+      <c r="F50" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G50" s="17">
         <v>1</v>
       </c>
-      <c r="H50" t="s" s="3">
-        <v>309</v>
+      <c r="H50" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="I50" s="18"/>
       <c r="J50" s="10"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" t="s" s="3">
+    <row r="51" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A51" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="C51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C51" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="D51" t="s" s="3">
-        <v>268</v>
-      </c>
-      <c r="E51" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="F51" t="s" s="3">
-        <v>312</v>
       </c>
       <c r="G51" s="17">
         <v>4</v>
       </c>
-      <c r="H51" t="s" s="3">
-        <v>313</v>
+      <c r="H51" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="I51" s="18"/>
       <c r="J51" s="10"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" t="s" s="3">
+    <row r="52" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A52" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B52" t="s" s="3">
-        <v>315</v>
-      </c>
-      <c r="C52" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="D52" t="s" s="3">
-        <v>106</v>
-      </c>
-      <c r="E52" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="F52" t="s" s="3">
-        <v>70</v>
+      <c r="C52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G52" s="17">
         <v>1</v>
       </c>
-      <c r="H52" t="s" s="3">
-        <v>316</v>
+      <c r="H52" s="3" t="s">
+        <v>315</v>
       </c>
       <c r="I52" s="18"/>
       <c r="J52" s="10"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" t="s" s="3">
+    <row r="53" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A53" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B53" t="s" s="3">
-        <v>318</v>
-      </c>
-      <c r="C53" t="s" s="3">
-        <v>192</v>
-      </c>
-      <c r="D53" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="E53" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="F53" t="s" s="3">
-        <v>75</v>
+      <c r="C53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G53" s="17">
         <v>3</v>
       </c>
-      <c r="H53" t="s" s="3">
-        <v>319</v>
+      <c r="H53" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="I53" s="18"/>
       <c r="J53" s="10"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" t="s" s="3">
+    <row r="54" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A54" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C54" t="s" s="3">
-        <v>71</v>
-      </c>
-      <c r="D54" t="s" s="3">
+      <c r="E54" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E54" t="s" s="3">
-        <v>323</v>
-      </c>
-      <c r="F54" t="s" s="3">
-        <v>192</v>
+      <c r="F54" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G54" s="17">
         <v>4</v>
       </c>
-      <c r="H54" t="s" s="3">
-        <v>324</v>
+      <c r="H54" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="I54" s="18"/>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" t="s" s="3">
+    <row r="55" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A55" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B55" t="s" s="3">
+      <c r="C55" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C55" t="s" s="3">
+      <c r="D55" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D55" t="s" s="3">
+      <c r="E55" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="E55" t="s" s="3">
+      <c r="F55" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="F55" t="s" s="3">
-        <v>330</v>
       </c>
       <c r="G55" s="17">
         <v>3</v>
       </c>
-      <c r="H55" t="s" s="3">
-        <v>331</v>
+      <c r="H55" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="I55" s="18"/>
       <c r="J55" s="10"/>
     </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" t="s" s="3">
+    <row r="56" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A56" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B56" t="s" s="3">
+      <c r="C56" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C56" t="s" s="3">
-        <v>240</v>
-      </c>
-      <c r="D56" t="s" s="3">
+      <c r="E56" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="E56" t="s" s="3">
-        <v>328</v>
-      </c>
-      <c r="F56" t="s" s="3">
-        <v>335</v>
       </c>
       <c r="G56" s="17">
         <v>3</v>
       </c>
-      <c r="H56" t="s" s="3">
-        <v>336</v>
+      <c r="H56" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="I56" s="18"/>
       <c r="J56" s="10"/>
     </row>
-    <row r="57" ht="16" customHeight="1">
-      <c r="A57" t="s" s="3">
+    <row r="57" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A57" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B57" t="s" s="3">
+      <c r="C57" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="C57" t="s" s="3">
-        <v>330</v>
-      </c>
-      <c r="D57" t="s" s="3">
-        <v>339</v>
-      </c>
-      <c r="E57" t="s" s="3">
-        <v>289</v>
-      </c>
-      <c r="F57" t="s" s="3">
-        <v>45</v>
+      <c r="E57" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
-      <c r="H57" t="s" s="3">
-        <v>340</v>
+      <c r="H57" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="I57" s="18"/>
       <c r="J57" s="10"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" t="s" s="3">
+    <row r="58" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="C58" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>145</v>
-      </c>
-      <c r="D58" t="s" s="3">
-        <v>163</v>
-      </c>
-      <c r="E58" t="s" s="3">
+      <c r="F58" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="F58" t="s" s="3">
-        <v>344</v>
       </c>
       <c r="G58" s="17">
         <v>2</v>
       </c>
-      <c r="H58" t="s" s="3">
-        <v>345</v>
+      <c r="H58" s="3" t="s">
+        <v>344</v>
       </c>
       <c r="I58" s="18"/>
       <c r="J58" s="10"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" t="s" s="3">
+    <row r="59" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="C59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>64</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="E59" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="E59" t="s" s="3">
-        <v>119</v>
-      </c>
-      <c r="F59" t="s" s="3">
-        <v>349</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
-      <c r="H59" t="s" s="3">
-        <v>350</v>
+      <c r="H59" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="I59" s="18"/>
       <c r="J59" s="10"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" t="s" s="3">
+    <row r="60" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B60" t="s" s="3">
+      <c r="C60" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="D60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="D60" t="s" s="3">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s" s="3">
+      <c r="F60" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="F60" t="s" s="3">
-        <v>355</v>
       </c>
       <c r="G60" s="17">
         <v>2</v>
       </c>
-      <c r="H60" t="s" s="3">
-        <v>356</v>
+      <c r="H60" s="3" t="s">
+        <v>355</v>
       </c>
       <c r="I60" s="18"/>
       <c r="J60" s="10"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" t="s" s="3">
+    <row r="61" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="C61" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="D61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="D61" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="E61" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="F61" t="s" s="3">
-        <v>360</v>
       </c>
       <c r="G61" s="17">
         <v>3</v>
       </c>
-      <c r="H61" t="s" s="3">
-        <v>361</v>
+      <c r="H61" s="3" t="s">
+        <v>360</v>
       </c>
       <c r="I61" s="18"/>
       <c r="J61" s="10"/>
     </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" t="s" s="3">
+    <row r="62" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="C62" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C62" t="s" s="3">
+      <c r="D62" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D62" t="s" s="3">
+      <c r="E62" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E62" t="s" s="3">
-        <v>366</v>
-      </c>
-      <c r="F62" t="s" s="3">
-        <v>52</v>
+      <c r="F62" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="G62" s="17">
         <v>1</v>
       </c>
-      <c r="H62" t="s" s="3">
-        <v>367</v>
+      <c r="H62" s="3" t="s">
+        <v>366</v>
       </c>
       <c r="I62" s="18"/>
       <c r="J62" s="10"/>
     </row>
-    <row r="63" ht="16" customHeight="1">
-      <c r="A63" t="s" s="3">
+    <row r="63" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A63" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B63" t="s" s="3">
+      <c r="C63" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="C63" t="s" s="3">
-        <v>253</v>
-      </c>
-      <c r="D63" t="s" s="3">
-        <v>226</v>
-      </c>
-      <c r="E63" t="s" s="3">
+      <c r="F63" s="3" t="s">
         <v>370</v>
-      </c>
-      <c r="F63" t="s" s="3">
-        <v>371</v>
       </c>
       <c r="G63" s="17">
         <v>1</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I63" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="I63" t="s" s="19">
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" ht="16" customHeight="1">
-      <c r="A64" t="s" s="3">
+      <c r="B64" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B64" t="s" s="3">
+      <c r="C64" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="C64" t="s" s="3">
-        <v>323</v>
-      </c>
-      <c r="D64" t="s" s="3">
+      <c r="E64" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="E64" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="F64" t="s" s="3">
-        <v>377</v>
       </c>
       <c r="G64" s="17">
         <v>4</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I64" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="I64" t="s" s="19">
+      <c r="J64" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="J64" t="s" s="20">
+    </row>
+    <row r="65" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="65" ht="16" customHeight="1">
-      <c r="A65" t="s" s="3">
+      <c r="B65" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B65" t="s" s="3">
+      <c r="C65" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C65" t="s" s="3">
+      <c r="D65" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D65" t="s" s="3">
-        <v>384</v>
-      </c>
-      <c r="E65" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="F65" t="s" s="3">
-        <v>119</v>
+      <c r="E65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="G65" s="17">
         <v>3</v>
       </c>
-      <c r="H65" t="s" s="3">
-        <v>385</v>
+      <c r="H65" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="I65" s="18"/>
       <c r="J65" s="10"/>
     </row>
-    <row r="66" ht="16" customHeight="1">
-      <c r="A66" t="s" s="3">
+    <row r="66" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="C66" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>263</v>
-      </c>
-      <c r="D66" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="E66" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F66" t="s" s="3">
-        <v>107</v>
+      <c r="F66" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="G66" s="17">
         <v>2</v>
       </c>
-      <c r="H66" t="s" s="3">
-        <v>389</v>
+      <c r="H66" s="3" t="s">
+        <v>388</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="10"/>
     </row>
-    <row r="67" ht="16" customHeight="1">
-      <c r="A67" t="s" s="3">
+    <row r="67" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A67" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="C67" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="C67" t="s" s="3">
+      <c r="D67" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="D67" t="s" s="3">
-        <v>393</v>
-      </c>
-      <c r="E67" t="s" s="3">
-        <v>281</v>
-      </c>
-      <c r="F67" t="s" s="3">
-        <v>111</v>
+      <c r="E67" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="G67" s="17">
         <v>4</v>
       </c>
-      <c r="H67" t="s" s="3">
-        <v>394</v>
+      <c r="H67" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="10"/>
     </row>
-    <row r="68" ht="16" customHeight="1">
-      <c r="A68" t="s" s="3">
+    <row r="68" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="C68" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="D68" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="E68" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="F68" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="F68" t="s" s="3">
-        <v>400</v>
       </c>
       <c r="G68" s="17">
         <v>3</v>
       </c>
-      <c r="H68" t="s" s="3">
-        <v>401</v>
+      <c r="H68" s="3" t="s">
+        <v>400</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="10"/>
     </row>
-    <row r="69" ht="16" customHeight="1">
-      <c r="A69" t="s" s="3">
+    <row r="69" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B69" t="s" s="3">
+      <c r="C69" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="D69" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="E69" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F69" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="E69" t="s" s="3">
-        <v>228</v>
-      </c>
-      <c r="F69" t="s" s="3">
-        <v>406</v>
       </c>
       <c r="G69" s="17">
         <v>2</v>
       </c>
-      <c r="H69" t="s" s="3">
-        <v>407</v>
+      <c r="H69" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="I69" s="18"/>
       <c r="J69" s="10"/>
     </row>
-    <row r="70" ht="16" customHeight="1">
-      <c r="A70" t="s" s="3">
+    <row r="70" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="C70" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="D70" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="E70" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="F70" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="F70" t="s" s="3">
-        <v>413</v>
       </c>
       <c r="G70" s="17">
         <v>4</v>
       </c>
-      <c r="H70" t="s" s="3">
-        <v>414</v>
+      <c r="H70" s="3" t="s">
+        <v>413</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="10"/>
     </row>
-    <row r="71" ht="16" customHeight="1">
-      <c r="A71" t="s" s="3">
+    <row r="71" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="C71" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C71" t="s" s="3">
-        <v>245</v>
-      </c>
-      <c r="D71" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E71" t="s" s="3">
-        <v>417</v>
-      </c>
-      <c r="F71" t="s" s="3">
-        <v>217</v>
+      <c r="F71" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G71" s="17">
         <v>2</v>
       </c>
-      <c r="H71" t="s" s="3">
-        <v>418</v>
+      <c r="H71" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="10"/>
     </row>
-    <row r="72" ht="16" customHeight="1">
-      <c r="A72" t="s" s="3">
+    <row r="72" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B72" t="s" s="3">
-        <v>420</v>
-      </c>
-      <c r="C72" t="s" s="3">
-        <v>41</v>
-      </c>
-      <c r="D72" t="s" s="3">
-        <v>76</v>
-      </c>
-      <c r="E72" t="s" s="3">
-        <v>53</v>
-      </c>
-      <c r="F72" t="s" s="3">
-        <v>99</v>
+      <c r="C72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G72" s="17">
         <v>2</v>
       </c>
-      <c r="H72" t="s" s="3">
-        <v>421</v>
+      <c r="H72" s="3" t="s">
+        <v>420</v>
       </c>
       <c r="I72" s="18"/>
       <c r="J72" s="10"/>
     </row>
-    <row r="73" ht="16" customHeight="1">
-      <c r="A73" t="s" s="3">
+    <row r="73" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B73" t="s" s="3">
-        <v>423</v>
-      </c>
-      <c r="C73" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="D73" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="E73" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="F73" t="s" s="3">
-        <v>229</v>
+      <c r="C73" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>228</v>
       </c>
       <c r="G73" s="17">
         <v>3</v>
       </c>
-      <c r="H73" t="s" s="3">
-        <v>424</v>
+      <c r="H73" s="3" t="s">
+        <v>423</v>
       </c>
       <c r="I73" s="18"/>
       <c r="J73" s="10"/>
     </row>
-    <row r="74" ht="16" customHeight="1">
-      <c r="A74" t="s" s="3">
+    <row r="74" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B74" t="s" s="3">
-        <v>426</v>
-      </c>
-      <c r="C74" t="s" s="3">
-        <v>383</v>
-      </c>
-      <c r="D74" t="s" s="3">
-        <v>135</v>
-      </c>
-      <c r="E74" t="s" s="3">
-        <v>157</v>
-      </c>
-      <c r="F74" t="s" s="3">
-        <v>47</v>
+      <c r="C74" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="G74" s="17">
         <v>1</v>
       </c>
-      <c r="H74" t="s" s="3">
-        <v>427</v>
+      <c r="H74" s="3" t="s">
+        <v>426</v>
       </c>
       <c r="I74" s="18"/>
       <c r="J74" s="10"/>
     </row>
-    <row r="75" ht="16" customHeight="1">
-      <c r="A75" t="s" s="3">
+    <row r="75" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B75" t="s" s="3">
+      <c r="C75" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="D75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D75" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="E75" t="s" s="3">
-        <v>431</v>
-      </c>
-      <c r="F75" t="s" s="3">
-        <v>376</v>
+      <c r="F75" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="G75" s="17">
         <v>3</v>
       </c>
-      <c r="H75" t="s" s="3">
-        <v>432</v>
+      <c r="H75" s="3" t="s">
+        <v>431</v>
       </c>
       <c r="I75" s="18"/>
       <c r="J75" s="10"/>
     </row>
-    <row r="76" ht="16" customHeight="1">
-      <c r="A76" t="s" s="3">
+    <row r="76" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="C76" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="C76" t="s" s="3">
+      <c r="D76" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="D76" t="s" s="3">
-        <v>436</v>
-      </c>
-      <c r="E76" t="s" s="3">
-        <v>144</v>
-      </c>
-      <c r="F76" t="s" s="3">
-        <v>193</v>
+      <c r="E76" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="G76" s="17">
         <v>1</v>
       </c>
-      <c r="H76" t="s" s="3">
-        <v>437</v>
+      <c r="H76" s="3" t="s">
+        <v>436</v>
       </c>
       <c r="I76" s="18"/>
       <c r="J76" s="10"/>
     </row>
-    <row r="77" ht="16" customHeight="1">
-      <c r="A77" t="s" s="3">
+    <row r="77" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B77" t="s" s="3">
+      <c r="C77" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="C77" t="s" s="3">
+      <c r="D77" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="D77" t="s" s="3">
+      <c r="E77" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="E77" t="s" s="3">
+      <c r="F77" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="F77" t="s" s="3">
-        <v>443</v>
       </c>
       <c r="G77" s="17">
         <v>4</v>
       </c>
-      <c r="H77" t="s" s="3">
-        <v>444</v>
+      <c r="H77" s="3" t="s">
+        <v>443</v>
       </c>
       <c r="I77" s="18"/>
       <c r="J77" s="10"/>
     </row>
-    <row r="78" ht="16" customHeight="1">
-      <c r="A78" t="s" s="3">
+    <row r="78" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="C78" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="D78" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D78" t="s" s="3">
-        <v>442</v>
-      </c>
-      <c r="E78" t="s" s="3">
+      <c r="F78" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="F78" t="s" s="3">
-        <v>449</v>
       </c>
       <c r="G78" s="17">
         <v>2</v>
       </c>
-      <c r="H78" t="s" s="3">
-        <v>450</v>
+      <c r="H78" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="I78" s="18"/>
       <c r="J78" s="10"/>
     </row>
-    <row r="79" ht="16" customHeight="1">
-      <c r="A79" t="s" s="3">
+    <row r="79" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="C79" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C79" t="s" s="3">
-        <v>322</v>
-      </c>
-      <c r="D79" t="s" s="3">
+      <c r="E79" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="F79" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="F79" t="s" s="3">
-        <v>455</v>
       </c>
       <c r="G79" s="17">
         <v>1</v>
       </c>
-      <c r="H79" t="s" s="3">
-        <v>456</v>
+      <c r="H79" s="3" t="s">
+        <v>455</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="10"/>
     </row>
-    <row r="80" ht="16" customHeight="1">
-      <c r="A80" t="s" s="3">
+    <row r="80" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B80" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="C80" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>459</v>
-      </c>
-      <c r="D80" t="s" s="3">
-        <v>113</v>
-      </c>
-      <c r="E80" t="s" s="3">
-        <v>388</v>
-      </c>
-      <c r="F80" t="s" s="3">
-        <v>354</v>
+      <c r="D80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="G80" s="17">
         <v>4</v>
       </c>
-      <c r="H80" t="s" s="3">
-        <v>460</v>
+      <c r="H80" s="3" t="s">
+        <v>459</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="10"/>
     </row>
-    <row r="81" ht="16" customHeight="1">
-      <c r="A81" t="s" s="3">
+    <row r="81" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="C81" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="D81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="D81" t="s" s="3">
-        <v>112</v>
-      </c>
-      <c r="E81" t="s" s="3">
-        <v>464</v>
-      </c>
-      <c r="F81" t="s" s="3">
-        <v>259</v>
+      <c r="F81" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="G81" s="17">
         <v>1</v>
       </c>
-      <c r="H81" t="s" s="3">
-        <v>465</v>
+      <c r="H81" s="3" t="s">
+        <v>464</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="10"/>
     </row>
-    <row r="82" ht="16" customHeight="1">
-      <c r="A82" t="s" s="3">
+    <row r="82" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="C82" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="D82" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="D82" t="s" s="3">
-        <v>155</v>
-      </c>
-      <c r="E82" t="s" s="3">
-        <v>169</v>
-      </c>
-      <c r="F82" t="s" s="3">
-        <v>469</v>
       </c>
       <c r="G82" s="17">
         <v>1</v>
       </c>
-      <c r="H82" t="s" s="3">
-        <v>470</v>
+      <c r="H82" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="10"/>
     </row>
-    <row r="83" ht="16" customHeight="1">
-      <c r="A83" t="s" s="3">
+    <row r="83" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B83" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B83" t="s" s="3">
+      <c r="C83" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="D83" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="D83" t="s" s="3">
-        <v>327</v>
-      </c>
-      <c r="E83" t="s" s="3">
+      <c r="F83" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="F83" t="s" s="3">
-        <v>475</v>
       </c>
       <c r="G83" s="17">
         <v>1</v>
       </c>
-      <c r="H83" t="s" s="3">
-        <v>476</v>
+      <c r="H83" s="3" t="s">
+        <v>475</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="10"/>
     </row>
-    <row r="84" ht="16" customHeight="1">
-      <c r="A84" t="s" s="3">
+    <row r="84" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>561</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B84" t="s" s="3">
-        <v>478</v>
-      </c>
-      <c r="C84" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s" s="3">
-        <v>70</v>
-      </c>
-      <c r="E84" t="s" s="3">
-        <v>479</v>
-      </c>
-      <c r="F84" t="s" s="3">
-        <v>312</v>
+      <c r="F84" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="G84" s="17">
         <v>3</v>
       </c>
-      <c r="H84" t="s" s="3">
-        <v>480</v>
+      <c r="H84" s="21" t="s">
+        <v>560</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="10"/>
     </row>
-    <row r="85" ht="16" customHeight="1">
-      <c r="A85" t="s" s="3">
+    <row r="85" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B85" t="s" s="3">
-        <v>482</v>
-      </c>
-      <c r="C85" t="s" s="3">
-        <v>483</v>
-      </c>
-      <c r="D85" t="s" s="3">
-        <v>484</v>
-      </c>
-      <c r="E85" t="s" s="3">
-        <v>89</v>
-      </c>
-      <c r="F85" t="s" s="3">
-        <v>290</v>
+      <c r="E85" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>289</v>
       </c>
       <c r="G85" s="17">
         <v>2</v>
       </c>
-      <c r="H85" t="s" s="3">
-        <v>485</v>
+      <c r="H85" s="3" t="s">
+        <v>482</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="10"/>
     </row>
-    <row r="86" ht="16" customHeight="1">
-      <c r="A86" t="s" s="3">
+    <row r="86" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E86" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B86" t="s" s="3">
+      <c r="F86" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C86" t="s" s="3">
-        <v>488</v>
-      </c>
-      <c r="D86" t="s" s="3">
-        <v>175</v>
-      </c>
-      <c r="E86" t="s" s="3">
-        <v>489</v>
-      </c>
-      <c r="F86" t="s" s="3">
-        <v>490</v>
       </c>
       <c r="G86" s="17">
         <v>4</v>
       </c>
-      <c r="H86" t="s" s="3">
-        <v>491</v>
+      <c r="H86" s="3" t="s">
+        <v>488</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="10"/>
     </row>
-    <row r="87" ht="16" customHeight="1">
-      <c r="A87" t="s" s="3">
-        <v>492</v>
-      </c>
-      <c r="B87" t="s" s="3">
-        <v>493</v>
-      </c>
-      <c r="C87" t="s" s="3">
-        <v>494</v>
-      </c>
-      <c r="D87" t="s" s="3">
+    <row r="87" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E87" t="s" s="3">
-        <v>435</v>
-      </c>
-      <c r="F87" t="s" s="3">
-        <v>75</v>
+      <c r="C87" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G87" s="17">
         <v>1</v>
       </c>
-      <c r="H87" t="s" s="3">
-        <v>495</v>
+      <c r="H87" s="3" t="s">
+        <v>492</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="10"/>
     </row>
-    <row r="88" ht="16" customHeight="1">
-      <c r="A88" t="s" s="3">
+    <row r="88" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="E88" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C88" t="s" s="3">
+      <c r="F88" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D88" t="s" s="3">
-        <v>499</v>
-      </c>
-      <c r="E88" t="s" s="3">
-        <v>500</v>
-      </c>
-      <c r="F88" t="s" s="3">
-        <v>501</v>
       </c>
       <c r="G88" s="17">
         <v>4</v>
       </c>
-      <c r="H88" t="s" s="3">
-        <v>502</v>
+      <c r="H88" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="10"/>
     </row>
-    <row r="89" ht="16" customHeight="1">
-      <c r="A89" t="s" s="3">
+    <row r="89" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E89" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B89" t="s" s="3">
-        <v>504</v>
-      </c>
-      <c r="C89" t="s" s="3">
-        <v>505</v>
-      </c>
-      <c r="D89" t="s" s="3">
-        <v>499</v>
-      </c>
-      <c r="E89" t="s" s="3">
-        <v>506</v>
-      </c>
-      <c r="F89" t="s" s="3">
-        <v>197</v>
+      <c r="F89" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="G89" s="17">
         <v>2</v>
       </c>
-      <c r="H89" t="s" s="3">
-        <v>507</v>
+      <c r="H89" s="3" t="s">
+        <v>504</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="10"/>
     </row>
-    <row r="90" ht="16" customHeight="1">
-      <c r="A90" t="s" s="3">
-        <v>508</v>
-      </c>
-      <c r="B90" t="s" s="3">
-        <v>509</v>
-      </c>
-      <c r="C90" t="s" s="3">
-        <v>500</v>
-      </c>
-      <c r="D90" t="s" s="3">
-        <v>133</v>
-      </c>
-      <c r="E90" t="s" s="3">
-        <v>339</v>
-      </c>
-      <c r="F90" t="s" s="3">
-        <v>343</v>
+    <row r="90" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="G90" s="17">
         <v>1</v>
       </c>
-      <c r="H90" t="s" s="3">
-        <v>510</v>
+      <c r="H90" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="10"/>
     </row>
-    <row r="91" ht="16" customHeight="1">
-      <c r="A91" t="s" s="3">
+    <row r="91" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="D91" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B91" t="s" s="3">
+      <c r="E91" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C91" t="s" s="3">
+      <c r="F91" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="D91" t="s" s="3">
-        <v>514</v>
-      </c>
-      <c r="E91" t="s" s="3">
-        <v>515</v>
-      </c>
-      <c r="F91" t="s" s="3">
-        <v>516</v>
       </c>
       <c r="G91" s="17">
         <v>1</v>
       </c>
-      <c r="H91" t="s" s="3">
-        <v>517</v>
+      <c r="H91" s="3" t="s">
+        <v>514</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="10"/>
     </row>
-    <row r="92" ht="16" customHeight="1">
-      <c r="A92" t="s" s="3">
-        <v>518</v>
-      </c>
-      <c r="B92" t="s" s="3">
-        <v>519</v>
-      </c>
-      <c r="C92" t="s" s="3">
-        <v>126</v>
-      </c>
-      <c r="D92" t="s" s="3">
-        <v>520</v>
-      </c>
-      <c r="E92" t="s" s="3">
-        <v>169</v>
-      </c>
-      <c r="F92" t="s" s="3">
-        <v>66</v>
+    <row r="92" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="G92" s="17">
         <v>2</v>
       </c>
-      <c r="H92" t="s" s="3">
-        <v>521</v>
+      <c r="H92" s="3" t="s">
+        <v>518</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="10"/>
     </row>
-    <row r="93" ht="16" customHeight="1">
-      <c r="A93" t="s" s="3">
-        <v>522</v>
-      </c>
-      <c r="B93" t="s" s="3">
-        <v>523</v>
-      </c>
-      <c r="C93" t="s" s="3">
+    <row r="93" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="D93" t="s" s="3">
-        <v>524</v>
-      </c>
-      <c r="E93" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="F93" t="s" s="3">
-        <v>312</v>
+      <c r="C93" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="G93" s="17">
         <v>2</v>
       </c>
-      <c r="H93" t="s" s="3">
-        <v>525</v>
+      <c r="H93" s="3" t="s">
+        <v>522</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" ht="16" customHeight="1">
-      <c r="A94" t="s" s="3">
-        <v>526</v>
-      </c>
-      <c r="B94" t="s" s="3">
-        <v>527</v>
-      </c>
-      <c r="C94" t="s" s="3">
-        <v>168</v>
-      </c>
-      <c r="D94" t="s" s="3">
-        <v>105</v>
-      </c>
-      <c r="E94" t="s" s="3">
-        <v>528</v>
-      </c>
-      <c r="F94" t="s" s="3">
-        <v>163</v>
+    <row r="94" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="G94" s="17">
         <v>3</v>
       </c>
-      <c r="H94" t="s" s="3">
-        <v>529</v>
+      <c r="H94" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="I94" s="18"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" ht="16" customHeight="1">
-      <c r="A95" t="s" s="3">
-        <v>530</v>
-      </c>
-      <c r="B95" t="s" s="3">
-        <v>531</v>
-      </c>
-      <c r="C95" t="s" s="3">
-        <v>532</v>
-      </c>
-      <c r="D95" t="s" s="3">
-        <v>54</v>
-      </c>
-      <c r="E95" t="s" s="3">
-        <v>490</v>
-      </c>
-      <c r="F95" t="s" s="3">
-        <v>125</v>
+    <row r="95" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>563</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G95" s="17">
         <v>1</v>
       </c>
-      <c r="H95" t="s" s="3">
-        <v>533</v>
+      <c r="H95" s="21" t="s">
+        <v>562</v>
       </c>
       <c r="I95" s="18"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" ht="16" customHeight="1">
-      <c r="A96" t="s" s="3">
-        <v>534</v>
-      </c>
-      <c r="B96" t="s" s="3">
-        <v>535</v>
-      </c>
-      <c r="C96" t="s" s="3">
-        <v>75</v>
-      </c>
-      <c r="D96" t="s" s="3">
-        <v>536</v>
-      </c>
-      <c r="E96" t="s" s="3">
-        <v>537</v>
-      </c>
-      <c r="F96" t="s" s="3">
-        <v>538</v>
+    <row r="96" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>533</v>
       </c>
       <c r="G96" s="17">
         <v>2</v>
       </c>
-      <c r="H96" t="s" s="3">
-        <v>539</v>
+      <c r="H96" s="3" t="s">
+        <v>534</v>
       </c>
       <c r="I96" s="18"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" ht="16" customHeight="1">
-      <c r="A97" t="s" s="3">
-        <v>540</v>
-      </c>
-      <c r="B97" t="s" s="3">
-        <v>541</v>
-      </c>
-      <c r="C97" t="s" s="3">
-        <v>542</v>
-      </c>
-      <c r="D97" t="s" s="3">
-        <v>543</v>
-      </c>
-      <c r="E97" t="s" s="3">
+    <row r="97" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="F97" t="s" s="3">
-        <v>544</v>
+      <c r="E97" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>539</v>
       </c>
       <c r="G97" s="17">
         <v>3</v>
       </c>
-      <c r="H97" t="s" s="3">
-        <v>545</v>
+      <c r="H97" s="3" t="s">
+        <v>540</v>
       </c>
       <c r="I97" s="18"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" ht="16" customHeight="1">
-      <c r="A98" t="s" s="3">
-        <v>546</v>
-      </c>
-      <c r="B98" t="s" s="3">
-        <v>547</v>
-      </c>
-      <c r="C98" t="s" s="3">
-        <v>544</v>
-      </c>
-      <c r="D98" t="s" s="3">
-        <v>479</v>
-      </c>
-      <c r="E98" t="s" s="3">
-        <v>58</v>
-      </c>
-      <c r="F98" t="s" s="3">
-        <v>53</v>
+    <row r="98" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G98" s="17">
         <v>1</v>
       </c>
-      <c r="H98" t="s" s="3">
-        <v>548</v>
+      <c r="H98" s="3" t="s">
+        <v>543</v>
       </c>
       <c r="I98" s="18"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" ht="16" customHeight="1">
-      <c r="A99" t="s" s="3">
-        <v>549</v>
-      </c>
-      <c r="B99" t="s" s="3">
-        <v>550</v>
-      </c>
-      <c r="C99" t="s" s="3">
-        <v>551</v>
-      </c>
-      <c r="D99" t="s" s="3">
-        <v>176</v>
-      </c>
-      <c r="E99" t="s" s="3">
-        <v>139</v>
-      </c>
-      <c r="F99" t="s" s="3">
-        <v>435</v>
+    <row r="99" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>434</v>
       </c>
       <c r="G99" s="17">
         <v>1</v>
       </c>
-      <c r="H99" t="s" s="3">
-        <v>552</v>
+      <c r="H99" s="3" t="s">
+        <v>547</v>
       </c>
       <c r="I99" s="18"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" ht="16" customHeight="1">
-      <c r="A100" t="s" s="3">
-        <v>553</v>
-      </c>
-      <c r="B100" t="s" s="3">
-        <v>554</v>
-      </c>
-      <c r="C100" t="s" s="3">
-        <v>39</v>
-      </c>
-      <c r="D100" t="s" s="3">
-        <v>84</v>
-      </c>
-      <c r="E100" t="s" s="3">
-        <v>66</v>
-      </c>
-      <c r="F100" t="s" s="3">
-        <v>555</v>
+    <row r="100" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>550</v>
       </c>
       <c r="G100" s="17">
         <v>4</v>
       </c>
-      <c r="H100" t="s" s="3">
-        <v>556</v>
+      <c r="H100" s="3" t="s">
+        <v>551</v>
       </c>
       <c r="I100" s="18"/>
       <c r="J100" s="10"/>
     </row>
-    <row r="101" ht="16" customHeight="1">
-      <c r="A101" t="s" s="3">
-        <v>557</v>
-      </c>
-      <c r="B101" t="s" s="3">
-        <v>558</v>
-      </c>
-      <c r="C101" t="s" s="3">
-        <v>542</v>
-      </c>
-      <c r="D101" t="s" s="3">
-        <v>559</v>
-      </c>
-      <c r="E101" t="s" s="3">
-        <v>328</v>
-      </c>
-      <c r="F101" t="s" s="3">
-        <v>393</v>
+    <row r="101" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>392</v>
       </c>
       <c r="G101" s="17">
         <v>1</v>
       </c>
-      <c r="H101" t="s" s="3">
-        <v>560</v>
+      <c r="H101" s="3" t="s">
+        <v>555</v>
       </c>
       <c r="I101" s="18"/>
       <c r="J101" s="10"/>
     </row>
-    <row r="102" ht="16" customHeight="1">
-      <c r="A102" t="s" s="3">
-        <v>561</v>
-      </c>
-      <c r="B102" t="s" s="3">
-        <v>562</v>
-      </c>
-      <c r="C102" t="s" s="3">
-        <v>435</v>
-      </c>
-      <c r="D102" t="s" s="3">
-        <v>234</v>
-      </c>
-      <c r="E102" t="s" s="3">
-        <v>528</v>
-      </c>
-      <c r="F102" t="s" s="3">
-        <v>563</v>
+    <row r="102" spans="1:10" ht="15.95" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="G102" s="17">
         <v>4</v>
       </c>
-      <c r="H102" t="s" s="3">
-        <v>564</v>
+      <c r="H102" s="3" t="s">
+        <v>559</v>
       </c>
       <c r="I102" s="18"/>
       <c r="J102" s="10"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
